--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
@@ -30,7 +30,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$J$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$K$62</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$R$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Input Check'!$A$1:$R$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Layout Screen'!$A$1:$J$43</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Update History'!$A$1:$J$42</definedName>
   </definedNames>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="335">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2285,10 +2285,6 @@
     <t>@RouteID</t>
   </si>
   <si>
-    <t>- Tạo mới tài liệu
-- Cập nhật sơ đồ tuyến (Customize Hoàng Trần)- CustomizeIndex = 51</t>
-  </si>
-  <si>
     <t>CF0144</t>
   </si>
   <si>
@@ -2326,24 +2322,15 @@
 - Enabled trong lúc thực hiện MenuItem Sửa, Xem.</t>
   </si>
   <si>
-    <t>LinkSave</t>
-  </si>
-  <si>
     <t>Require</t>
   </si>
   <si>
-    <t>Click Lưu</t>
-  </si>
-  <si>
     <t>Click</t>
   </si>
   <si>
     <t>Click Lưu -&gt; Yes -&gt; Mã trùng</t>
   </si>
   <si>
-    <t>Click Lưu -&gt; Yes</t>
-  </si>
-  <si>
     <t>@StationID</t>
   </si>
   <si>
@@ -2356,9 +2343,6 @@
     <t>00ML000039</t>
   </si>
   <si>
-    <t>Combo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mục đổ Combobox </t>
   </si>
   <si>
@@ -2374,15 +2358,6 @@
     <t>00ML000053</t>
   </si>
   <si>
-    <t>ClickAdd</t>
-  </si>
-  <si>
-    <t>ClickEdit</t>
-  </si>
-  <si>
-    <t>ClickView</t>
-  </si>
-  <si>
     <t>Nhận tham số @DivisionID từ màn hình CF0143 để mở màn hình CF0144</t>
   </si>
   <si>
@@ -2392,16 +2367,7 @@
     <t>@DivisionID, @RouteID</t>
   </si>
   <si>
-    <t>00ML000015</t>
-  </si>
-  <si>
-    <t>00ML000016</t>
-  </si>
-  <si>
     <t>00ML000001</t>
-  </si>
-  <si>
-    <t>DataGird</t>
   </si>
   <si>
     <t>Nhập thông tin chi tiết</t>
@@ -2543,21 +2509,12 @@
     <t>Load DB lên Form CF0143</t>
   </si>
   <si>
-    <t>EXEC PROCEDURE [dbo].[CP0144]  
- @DivisionID NVARCHAR(50),
- @RouteID NVARCHAR(50)</t>
-  </si>
-  <si>
     <t>@DivisionID @RouteID</t>
   </si>
   <si>
     <t>@@DivisionID CF0143.Grid.RouteID</t>
   </si>
   <si>
-    <t xml:space="preserve">@@DivisionID CF0143.Grid.RouteID
-</t>
-  </si>
-  <si>
     <t>Load dữ liệu lên Form Master</t>
   </si>
   <si>
@@ -2568,11 +2525,6 @@
   </si>
   <si>
     <t>CT0144</t>
-  </si>
-  <si>
-    <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description],CT43.[Disabled] 
-FROM CT0143 CT43
-WHERE CT43.DivisionID = @DivisionID AND CT43.RouteID = @RouteID</t>
   </si>
   <si>
     <t>CT43.RouteID CT43.RouteName CT43.[Description CT43.[Disabled]</t>
@@ -2617,10 +2569,6 @@
   </si>
   <si>
     <t>Thực hiện khi sửa dữ liêu trong form detail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@DivisionID @RouteID
-</t>
   </si>
   <si>
     <t>@@RouteName @@Description
@@ -2779,6 +2727,46 @@
 RouteName
 Description
 Disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tạo mới tài liệu
+- Cập nhật sơ đồ tuyến </t>
+  </si>
+  <si>
+    <t>Not In List</t>
+  </si>
+  <si>
+    <t>LinkAdd</t>
+  </si>
+  <si>
+    <t>LinkEdit</t>
+  </si>
+  <si>
+    <t>LinkView</t>
+  </si>
+  <si>
+    <t>EXEC PROCEDURE [dbo].[CP0144]  
+ @DivisionID NVARCHAR(50),
+ @RouteID NVARCHAR(50), @UserID AS VARCHAR(50) = ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DivisionID @RouteID
+@UserID
+</t>
+  </si>
+  <si>
+    <t>@@DivisionID CF0143.Grid.RouteID
+@@UserID</t>
+  </si>
+  <si>
+    <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description],CT43.[Disabled] 
+FROM CT0143 CT43
+WHERE CT43.DivisionID = @DivisionID AND CT43.RouteID = @RouteID
+ORDER BY CT43.RouteID</t>
+  </si>
+  <si>
+    <t>- Click BtnSave confirm message 00ML000016 nếu chọn Yes
+- Kiểm tra Input Check nếu không thỏa thì hiển thị thông báo và không cho Lưu</t>
   </si>
 </sst>
 </file>
@@ -3238,7 +3226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3558,150 +3546,9 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3716,12 +3563,6 @@
     </xf>
     <xf numFmtId="6" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3729,6 +3570,159 @@
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3752,19 +3746,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:colOff>1933575</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3784,8 +3778,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="476250" y="828675"/>
-          <a:ext cx="8372475" cy="4600575"/>
+          <a:off x="752475" y="876300"/>
+          <a:ext cx="8058150" cy="4457700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4097,7 +4091,7 @@
   <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:J8"/>
+      <selection activeCell="E4" sqref="E4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4113,10 +4107,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4127,24 +4121,24 @@
         <v>3</v>
       </c>
       <c r="F1" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4167,7 +4161,7 @@
         <v>8</v>
       </c>
       <c r="J2" s="67">
-        <v>42383</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4183,14 +4177,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -4207,14 +4201,14 @@
         <f>H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="E5" s="138" t="s">
-        <v>237</v>
-      </c>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
+      <c r="E5" s="146" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="147"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="90">
@@ -4225,12 +4219,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="141"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
@@ -4241,12 +4235,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="140"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -4257,12 +4251,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="143"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -4273,12 +4267,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="140"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -4289,12 +4283,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -4305,12 +4299,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="140"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -4321,12 +4315,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -4337,12 +4331,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -4353,12 +4347,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4369,12 +4363,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
+      <c r="E15" s="147"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="147"/>
+      <c r="H15" s="147"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4385,12 +4379,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4401,12 +4395,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
+      <c r="E17" s="147"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="147"/>
+      <c r="H17" s="147"/>
+      <c r="I17" s="147"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4417,12 +4411,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4433,12 +4427,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4449,12 +4443,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4465,12 +4459,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4481,12 +4475,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4497,12 +4491,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4513,12 +4507,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4529,12 +4523,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4545,12 +4539,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4561,12 +4555,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
+      <c r="E27" s="147"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="147"/>
+      <c r="I27" s="147"/>
+      <c r="J27" s="147"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4577,12 +4571,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4593,12 +4587,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4609,12 +4603,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4625,12 +4619,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4641,12 +4635,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4657,12 +4651,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4673,12 +4667,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
+      <c r="E34" s="147"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="147"/>
+      <c r="H34" s="147"/>
+      <c r="I34" s="147"/>
+      <c r="J34" s="147"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4689,12 +4683,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="147"/>
+      <c r="I35" s="147"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4705,12 +4699,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="129"/>
+      <c r="E36" s="147"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="147"/>
+      <c r="H36" s="147"/>
+      <c r="I36" s="147"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4721,12 +4715,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129"/>
+      <c r="E37" s="147"/>
+      <c r="F37" s="147"/>
+      <c r="G37" s="147"/>
+      <c r="H37" s="147"/>
+      <c r="I37" s="147"/>
+      <c r="J37" s="147"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4737,12 +4731,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="129"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="129"/>
-      <c r="H38" s="129"/>
-      <c r="I38" s="129"/>
-      <c r="J38" s="129"/>
+      <c r="E38" s="147"/>
+      <c r="F38" s="147"/>
+      <c r="G38" s="147"/>
+      <c r="H38" s="147"/>
+      <c r="I38" s="147"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4753,12 +4747,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
+      <c r="E39" s="147"/>
+      <c r="F39" s="147"/>
+      <c r="G39" s="147"/>
+      <c r="H39" s="147"/>
+      <c r="I39" s="147"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4769,12 +4763,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="129"/>
-      <c r="H40" s="129"/>
-      <c r="I40" s="129"/>
-      <c r="J40" s="129"/>
+      <c r="E40" s="147"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="147"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="147"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4785,12 +4779,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="147"/>
+      <c r="I41" s="147"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4801,23 +4795,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129"/>
-      <c r="H42" s="129"/>
-      <c r="I42" s="129"/>
-      <c r="J42" s="129"/>
+      <c r="E42" s="147"/>
+      <c r="F42" s="147"/>
+      <c r="G42" s="147"/>
+      <c r="H42" s="147"/>
+      <c r="I42" s="147"/>
+      <c r="J42" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4833,23 +4836,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -5047,8 +5041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5066,10 +5060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5100,8 +5094,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5128,24 +5122,24 @@
       </c>
       <c r="J2" s="38">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="142" t="s">
+      <c r="A4" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="142" t="s">
+      <c r="B4" s="153"/>
+      <c r="C4" s="153"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="143"/>
+      <c r="J4" s="152"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -5156,10 +5150,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="151" t="s">
+      <c r="I5" s="160" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="152"/>
+      <c r="J5" s="161"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -5170,8 +5164,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="153"/>
-      <c r="J6" s="154"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="163"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -5182,8 +5176,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="163"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -5194,8 +5188,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="163"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -5206,8 +5200,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="163"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -5218,8 +5212,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="156"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -5230,10 +5224,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="142" t="s">
+      <c r="I11" s="151" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="143"/>
+      <c r="J11" s="152"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -5244,10 +5238,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="145" t="s">
+      <c r="I12" s="154" t="s">
         <v>173</v>
       </c>
-      <c r="J12" s="146"/>
+      <c r="J12" s="155"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -5258,8 +5252,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="148"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -5270,8 +5264,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="148"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="157"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5282,8 +5276,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="148"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="157"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5294,8 +5288,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="148"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="157"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5306,8 +5300,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="148"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="157"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5318,8 +5312,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="148"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="157"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5330,8 +5324,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="148"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="157"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5342,8 +5336,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="148"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="157"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5354,8 +5348,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="148"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="157"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5366,8 +5360,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="148"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="157"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5378,8 +5372,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="148"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="157"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5390,8 +5384,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="148"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="157"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5402,8 +5396,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="148"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="157"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5414,8 +5408,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="148"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="157"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5426,8 +5420,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="148"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="157"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5438,8 +5432,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="148"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="157"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5450,8 +5444,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5462,8 +5456,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="148"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5474,8 +5468,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="148"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="157"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5486,8 +5480,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="148"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="157"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5498,8 +5492,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="148"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="157"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5510,8 +5504,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="148"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="157"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5522,8 +5516,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="148"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="157"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5534,8 +5528,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="148"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="157"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5546,8 +5540,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="148"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="157"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5558,8 +5552,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="148"/>
+      <c r="I38" s="156"/>
+      <c r="J38" s="157"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5570,8 +5564,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="148"/>
+      <c r="I39" s="156"/>
+      <c r="J39" s="157"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5582,8 +5576,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="148"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="157"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5594,8 +5588,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="148"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="157"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5606,8 +5600,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="148"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="157"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5618,8 +5612,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="150"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5650,10 +5644,10 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5678,13 +5672,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5692,16 +5686,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="158"/>
-      <c r="J1" s="159" t="str">
+      <c r="I1" s="167"/>
+      <c r="J1" s="168" t="str">
         <f>'Update History'!F1</f>
         <v>CF0144</v>
       </c>
-      <c r="K1" s="160"/>
-      <c r="L1" s="161"/>
+      <c r="K1" s="169"/>
+      <c r="L1" s="170"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5712,17 +5706,17 @@
       <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="185" t="str">
+      <c r="P1" s="136" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5730,16 +5724,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="157" t="s">
+      <c r="H2" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="158"/>
-      <c r="J2" s="159" t="str">
+      <c r="I2" s="167"/>
+      <c r="J2" s="168" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="160"/>
-      <c r="L2" s="161"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="170"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5750,9 +5744,9 @@
       <c r="O2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="186">
+      <c r="P2" s="137">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5760,10 +5754,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>109</v>
@@ -5810,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
@@ -5844,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
@@ -5879,8 +5873,8 @@
       <c r="M6" s="69"/>
       <c r="N6" s="69"/>
       <c r="O6" s="69"/>
-      <c r="P6" s="177" t="s">
-        <v>243</v>
+      <c r="P6" s="130" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -5888,7 +5882,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
@@ -5930,7 +5924,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
@@ -5970,7 +5964,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
@@ -5998,7 +5992,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="33">
         <v>51</v>
@@ -6030,7 +6024,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" s="33">
         <v>51</v>
@@ -6074,7 +6068,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="33">
         <v>51</v>
@@ -6114,7 +6108,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="33">
         <v>51</v>
@@ -6150,7 +6144,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C14" s="33">
         <v>51</v>
@@ -6186,7 +6180,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="33">
         <v>51</v>
@@ -6222,7 +6216,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C16" s="33">
         <v>51</v>
@@ -6258,7 +6252,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="33">
         <v>51</v>
@@ -6294,7 +6288,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="33">
         <v>51</v>
@@ -6332,7 +6326,7 @@
         <v>15</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C19" s="33">
         <v>51</v>
@@ -6357,8 +6351,8 @@
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
       <c r="O19" s="83"/>
-      <c r="P19" s="178" t="s">
-        <v>244</v>
+      <c r="P19" s="131" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -6366,7 +6360,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="33">
         <v>51</v>
@@ -6391,8 +6385,8 @@
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
       <c r="O20" s="69"/>
-      <c r="P20" s="177" t="s">
-        <v>245</v>
+      <c r="P20" s="130" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="34" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
@@ -6400,7 +6394,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C21" s="33">
         <v>51</v>
@@ -6425,8 +6419,8 @@
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
       <c r="O21" s="69"/>
-      <c r="P21" s="177" t="s">
-        <v>246</v>
+      <c r="P21" s="130" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6434,7 +6428,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C22" s="33">
         <v>51</v>
@@ -6466,7 +6460,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C23" s="33">
         <v>51</v>
@@ -6495,8 +6489,8 @@
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
       <c r="O23" s="69"/>
-      <c r="P23" s="177" t="s">
-        <v>247</v>
+      <c r="P23" s="130" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -7153,10 +7147,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7242,7 +7236,7 @@
       </c>
       <c r="J2" s="67">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
       <c r="K2" s="67"/>
     </row>
@@ -7251,10 +7245,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>241</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>104</v>
@@ -7286,32 +7280,34 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
     </row>
-    <row r="5" spans="1:17" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
       </c>
       <c r="D5" s="126" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F5" s="179"/>
+        <v>247</v>
+      </c>
+      <c r="F5" s="132" t="s">
+        <v>236</v>
+      </c>
       <c r="G5" s="62"/>
       <c r="H5" s="126" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I5" s="126" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="K5" s="69"/>
     </row>
@@ -7320,212 +7316,194 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
       </c>
       <c r="D6" s="126" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="E6" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" s="179" t="s">
-        <v>236</v>
+        <v>247</v>
+      </c>
+      <c r="F6" s="132" t="s">
+        <v>250</v>
       </c>
       <c r="G6" s="62"/>
       <c r="H6" s="126" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="126" t="s">
         <v>252</v>
       </c>
-      <c r="I6" s="126" t="s">
-        <v>251</v>
-      </c>
       <c r="J6" s="63" t="s">
-        <v>263</v>
-      </c>
-      <c r="K6" s="69"/>
+        <v>253</v>
+      </c>
+      <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:17" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
       </c>
-      <c r="D7" s="126" t="s">
-        <v>248</v>
+      <c r="D7" s="129" t="s">
+        <v>182</v>
       </c>
       <c r="E7" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F7" s="40"/>
+        <v>247</v>
+      </c>
+      <c r="F7" s="132" t="s">
+        <v>322</v>
+      </c>
       <c r="G7" s="62"/>
       <c r="H7" s="126" t="s">
+        <v>323</v>
+      </c>
+      <c r="I7" s="126" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>253</v>
       </c>
-      <c r="I7" s="126" t="s">
-        <v>251</v>
-      </c>
-      <c r="J7" s="63" t="s">
-        <v>270</v>
-      </c>
-      <c r="K7" s="88"/>
+      <c r="K7" s="84"/>
     </row>
     <row r="8" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
         <v>4</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
       </c>
-      <c r="D8" s="126" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="179" t="s">
-        <v>254</v>
+      <c r="D8" s="84" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="F8" s="132" t="s">
+        <v>256</v>
       </c>
       <c r="G8" s="62"/>
-      <c r="H8" s="126" t="s">
-        <v>255</v>
-      </c>
-      <c r="I8" s="126" t="s">
-        <v>256</v>
+      <c r="H8" s="69" t="s">
+        <v>257</v>
+      </c>
+      <c r="I8" s="84" t="s">
+        <v>252</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="K8" s="88"/>
-    </row>
-    <row r="9" spans="1:17" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="K8" s="84"/>
+    </row>
+    <row r="9" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>5</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
       </c>
-      <c r="D9" s="126" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F9" s="179" t="s">
-        <v>337</v>
+      <c r="D9" s="84" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="132" t="s">
+        <v>236</v>
       </c>
       <c r="G9" s="62"/>
-      <c r="H9" s="126" t="s">
-        <v>338</v>
-      </c>
-      <c r="I9" s="126" t="s">
-        <v>256</v>
+      <c r="H9" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="84" t="s">
+        <v>252</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="K9" s="84"/>
+        <v>253</v>
+      </c>
+      <c r="K9" s="69"/>
     </row>
     <row r="10" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
         <v>6</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="33">
         <v>51</v>
       </c>
-      <c r="D10" s="84" t="s">
-        <v>192</v>
-      </c>
-      <c r="E10" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="F10" s="179" t="s">
-        <v>261</v>
-      </c>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="134"/>
       <c r="G10" s="62"/>
-      <c r="H10" s="69" t="s">
+      <c r="H10" s="126" t="s">
+        <v>254</v>
+      </c>
+      <c r="I10" s="126" t="s">
+        <v>252</v>
+      </c>
+      <c r="J10" s="63" t="s">
         <v>262</v>
       </c>
-      <c r="I10" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="J10" s="63" t="s">
-        <v>257</v>
-      </c>
-      <c r="K10" s="84"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="110"/>
     </row>
     <row r="11" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
         <v>7</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" s="33">
         <v>51</v>
       </c>
-      <c r="D11" s="84" t="s">
-        <v>191</v>
-      </c>
+      <c r="D11" s="84"/>
       <c r="E11" s="84" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11" s="179" t="s">
-        <v>236</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F11" s="40"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="84" t="s">
-        <v>260</v>
+      <c r="H11" s="69" t="s">
+        <v>263</v>
       </c>
       <c r="I11" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="J11" s="63" t="s">
-        <v>257</v>
+        <v>252</v>
+      </c>
+      <c r="J11" s="82" t="s">
+        <v>264</v>
       </c>
       <c r="K11" s="69"/>
+      <c r="L11" s="110"/>
     </row>
     <row r="12" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C12" s="33">
-        <v>51</v>
-      </c>
-      <c r="D12" s="126" t="s">
-        <v>258</v>
-      </c>
-      <c r="E12" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="F12" s="181"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="62"/>
-      <c r="H12" s="126" t="s">
-        <v>259</v>
-      </c>
-      <c r="I12" s="126" t="s">
-        <v>256</v>
-      </c>
-      <c r="J12" s="63" t="s">
-        <v>272</v>
-      </c>
+      <c r="H12" s="61"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="69"/>
       <c r="L12" s="110"/>
     </row>
@@ -7533,29 +7511,15 @@
       <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="33">
-        <v>51</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>273</v>
-      </c>
-      <c r="E13" s="84" t="s">
-        <v>249</v>
-      </c>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
       <c r="F13" s="40"/>
       <c r="G13" s="62"/>
-      <c r="H13" s="69" t="s">
-        <v>274</v>
-      </c>
-      <c r="I13" s="84" t="s">
-        <v>256</v>
-      </c>
-      <c r="J13" s="82" t="s">
-        <v>275</v>
-      </c>
+      <c r="H13" s="61"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="69"/>
       <c r="L13" s="110"/>
     </row>
@@ -7566,12 +7530,12 @@
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
       <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
+      <c r="E14" s="74"/>
       <c r="F14" s="40"/>
       <c r="G14" s="62"/>
       <c r="H14" s="61"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="82"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="69"/>
       <c r="L14" s="110"/>
     </row>
@@ -7582,12 +7546,12 @@
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="40"/>
       <c r="G15" s="62"/>
       <c r="H15" s="61"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="82"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="69"/>
       <c r="L15" s="110"/>
     </row>
@@ -7617,7 +7581,7 @@
       <c r="E17" s="74"/>
       <c r="F17" s="40"/>
       <c r="G17" s="62"/>
-      <c r="H17" s="61"/>
+      <c r="H17" s="69"/>
       <c r="I17" s="69"/>
       <c r="J17" s="69"/>
       <c r="K17" s="69"/>
@@ -7633,7 +7597,7 @@
       <c r="E18" s="74"/>
       <c r="F18" s="40"/>
       <c r="G18" s="62"/>
-      <c r="H18" s="61"/>
+      <c r="H18" s="69"/>
       <c r="I18" s="69"/>
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
@@ -7729,11 +7693,11 @@
       <c r="E24" s="74"/>
       <c r="F24" s="40"/>
       <c r="G24" s="62"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="110"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="111"/>
     </row>
     <row r="25" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -7745,11 +7709,11 @@
       <c r="E25" s="74"/>
       <c r="F25" s="40"/>
       <c r="G25" s="62"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="110"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="111"/>
     </row>
     <row r="26" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -7773,7 +7737,7 @@
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="84"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="74"/>
       <c r="F27" s="40"/>
       <c r="G27" s="62"/>
@@ -7789,7 +7753,7 @@
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="84"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="74"/>
       <c r="F28" s="40"/>
       <c r="G28" s="62"/>
@@ -7897,7 +7861,7 @@
     </row>
     <row r="35" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
@@ -7913,7 +7877,7 @@
     </row>
     <row r="36" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
@@ -7929,7 +7893,7 @@
     </row>
     <row r="37" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -7945,7 +7909,7 @@
     </row>
     <row r="38" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -7959,9 +7923,9 @@
       <c r="K38" s="62"/>
       <c r="L38" s="111"/>
     </row>
-    <row r="39" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -7974,10 +7938,15 @@
       <c r="J39" s="61"/>
       <c r="K39" s="62"/>
       <c r="L39" s="111"/>
-    </row>
-    <row r="40" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N39" s="23"/>
+      <c r="O39" s="23"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="22"/>
+    </row>
+    <row r="40" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="33">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -7990,10 +7959,15 @@
       <c r="J40" s="61"/>
       <c r="K40" s="62"/>
       <c r="L40" s="111"/>
+      <c r="N40" s="23"/>
+      <c r="O40" s="23"/>
+      <c r="P40" s="23"/>
+      <c r="Q40" s="23"/>
+      <c r="R40" s="22"/>
     </row>
     <row r="41" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="33">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -8014,7 +7988,7 @@
     </row>
     <row r="42" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="33">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -8035,7 +8009,7 @@
     </row>
     <row r="43" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="33">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -8056,7 +8030,7 @@
     </row>
     <row r="44" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="33">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -8077,7 +8051,7 @@
     </row>
     <row r="45" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="33">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -8098,7 +8072,7 @@
     </row>
     <row r="46" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="33">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -8119,7 +8093,7 @@
     </row>
     <row r="47" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="33">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -8140,7 +8114,7 @@
     </row>
     <row r="48" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="33">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -8161,7 +8135,7 @@
     </row>
     <row r="49" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="33">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -8182,7 +8156,7 @@
     </row>
     <row r="50" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="33">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -8203,7 +8177,7 @@
     </row>
     <row r="51" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="33">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -8224,7 +8198,7 @@
     </row>
     <row r="52" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="33">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -8243,57 +8217,15 @@
       <c r="Q52" s="23"/>
       <c r="R52" s="22"/>
     </row>
-    <row r="53" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="33">
-        <v>49</v>
-      </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="62"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="111"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="22"/>
-    </row>
-    <row r="54" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="33">
-        <v>50</v>
-      </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="62"/>
-      <c r="H54" s="61"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="111"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="22"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H14:H18 H26:H54 J26:J54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H16 H24:H52 J24:J52">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J19:J25 K14:L18 I5:I13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J23 K12:L16 I5:I11">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E52">
       <formula1>"Format,Require,Max Length,Range,Not In List"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8313,7 +8245,7 @@
   <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8338,7 +8270,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="176" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="127"/>
@@ -8375,7 +8307,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="165"/>
+      <c r="A2" s="177"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
       <c r="D2" s="31" t="s">
@@ -8404,7 +8336,7 @@
       </c>
       <c r="K2" s="51">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
@@ -8414,10 +8346,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="123" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="123" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>241</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>130</v>
@@ -8428,96 +8360,96 @@
       <c r="F4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136" t="s">
+      <c r="H4" s="144"/>
+      <c r="I4" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="136"/>
-      <c r="K4" s="136"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E5" s="180" t="s">
+        <v>327</v>
+      </c>
+      <c r="E5" s="133" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="162" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="163"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="168"/>
+      <c r="G5" s="174" t="s">
+        <v>259</v>
+      </c>
+      <c r="H5" s="175"/>
+      <c r="I5" s="171"/>
+      <c r="J5" s="172"/>
+      <c r="K5" s="173"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="179" t="s">
-        <v>269</v>
+        <v>328</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>261</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="162" t="s">
-        <v>268</v>
-      </c>
-      <c r="H6" s="163"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="168"/>
+      <c r="G6" s="174" t="s">
+        <v>260</v>
+      </c>
+      <c r="H6" s="175"/>
+      <c r="I6" s="171"/>
+      <c r="J6" s="172"/>
+      <c r="K6" s="173"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="E7" s="179" t="s">
-        <v>269</v>
+        <v>329</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>261</v>
       </c>
       <c r="F7" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="162" t="s">
-        <v>268</v>
-      </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="168"/>
+      <c r="G7" s="174" t="s">
+        <v>260</v>
+      </c>
+      <c r="H7" s="175"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="172"/>
+      <c r="K7" s="173"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8528,11 +8460,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
-      <c r="K8" s="168"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="175"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="173"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8543,11 +8475,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="168"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="175"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="173"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8558,11 +8490,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="166"/>
-      <c r="J10" s="167"/>
-      <c r="K10" s="168"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="173"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8573,11 +8505,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="167"/>
-      <c r="K11" s="168"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8588,11 +8520,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="168"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8603,11 +8535,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="167"/>
-      <c r="K13" s="168"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="173"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8618,11 +8550,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="162"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="168"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="173"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8633,11 +8565,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="168"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="173"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8648,11 +8580,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="168"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="172"/>
+      <c r="K16" s="173"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8663,11 +8595,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="168"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="173"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8678,11 +8610,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="168"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="173"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8693,11 +8625,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="168"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="173"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8708,11 +8640,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="168"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="172"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8723,11 +8655,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="168"/>
+      <c r="G21" s="174"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="172"/>
+      <c r="K21" s="173"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8738,11 +8670,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="167"/>
-      <c r="K22" s="168"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="172"/>
+      <c r="K22" s="173"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8753,11 +8685,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="167"/>
-      <c r="K23" s="168"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="172"/>
+      <c r="K23" s="173"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8768,11 +8700,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="130"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="167"/>
-      <c r="K24" s="168"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="172"/>
+      <c r="K24" s="173"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8783,11 +8715,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="132"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="168"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="172"/>
+      <c r="K25" s="173"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8798,11 +8730,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="168"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="173"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8813,11 +8745,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="130"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="168"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="172"/>
+      <c r="K27" s="173"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8828,11 +8760,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="130"/>
-      <c r="H28" s="132"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="167"/>
-      <c r="K28" s="168"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="172"/>
+      <c r="K28" s="173"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8843,11 +8775,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="167"/>
-      <c r="K29" s="168"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="172"/>
+      <c r="K29" s="173"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8858,11 +8790,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="130"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="168"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="173"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8873,11 +8805,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="167"/>
-      <c r="K31" s="168"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="172"/>
+      <c r="K31" s="173"/>
     </row>
     <row r="32" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -8888,11 +8820,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="168"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="172"/>
+      <c r="K32" s="173"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -8910,11 +8842,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="130"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="167"/>
-      <c r="K33" s="168"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="172"/>
+      <c r="K33" s="173"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8932,11 +8864,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="130"/>
-      <c r="H34" s="132"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="168"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="172"/>
+      <c r="K34" s="173"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8954,11 +8886,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="167"/>
-      <c r="K35" s="168"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="172"/>
+      <c r="K35" s="173"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8976,11 +8908,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="130"/>
-      <c r="H36" s="132"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="167"/>
-      <c r="K36" s="168"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="173"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8998,11 +8930,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="130"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="167"/>
-      <c r="K37" s="168"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="172"/>
+      <c r="K37" s="173"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9020,11 +8952,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="130"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="167"/>
-      <c r="K38" s="168"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="173"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9042,11 +8974,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="130"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="167"/>
-      <c r="K39" s="168"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="172"/>
+      <c r="K39" s="173"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9064,11 +8996,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="167"/>
-      <c r="K40" s="168"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="173"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9086,11 +9018,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="130"/>
-      <c r="H41" s="132"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="167"/>
-      <c r="K41" s="168"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="172"/>
+      <c r="K41" s="173"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9108,11 +9040,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="167"/>
-      <c r="K42" s="168"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="172"/>
+      <c r="K42" s="173"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9130,11 +9062,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="132"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167"/>
-      <c r="K43" s="168"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="172"/>
+      <c r="K43" s="173"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9152,11 +9084,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="130"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="167"/>
-      <c r="K44" s="168"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="171"/>
+      <c r="J44" s="172"/>
+      <c r="K44" s="173"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9174,11 +9106,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="130"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="167"/>
-      <c r="K45" s="168"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="172"/>
+      <c r="K45" s="173"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9196,11 +9128,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="130"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="168"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="172"/>
+      <c r="K46" s="173"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9218,11 +9150,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="130"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="167"/>
-      <c r="K47" s="168"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="172"/>
+      <c r="K47" s="173"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9240,11 +9172,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="166"/>
-      <c r="J48" s="167"/>
-      <c r="K48" s="168"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="172"/>
+      <c r="K48" s="173"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9262,11 +9194,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="132"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="167"/>
-      <c r="K49" s="168"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="172"/>
+      <c r="K49" s="173"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9284,11 +9216,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="167"/>
-      <c r="K50" s="168"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="172"/>
+      <c r="K50" s="173"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9306,11 +9238,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="166"/>
-      <c r="J51" s="167"/>
-      <c r="K51" s="168"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="172"/>
+      <c r="K51" s="173"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9328,11 +9260,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="130"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="166"/>
-      <c r="J52" s="167"/>
-      <c r="K52" s="168"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="172"/>
+      <c r="K52" s="173"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -9350,11 +9282,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="130"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="167"/>
-      <c r="K53" s="168"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="172"/>
+      <c r="K53" s="173"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -9372,11 +9304,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="130"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="168"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="172"/>
+      <c r="K54" s="173"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -9394,11 +9326,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="130"/>
-      <c r="H55" s="132"/>
-      <c r="I55" s="166"/>
-      <c r="J55" s="167"/>
-      <c r="K55" s="168"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="172"/>
+      <c r="K55" s="173"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9416,11 +9348,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="130"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="167"/>
-      <c r="K56" s="168"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="171"/>
+      <c r="J56" s="172"/>
+      <c r="K56" s="173"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9432,6 +9364,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -9446,99 +9471,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -9560,8 +9492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048468"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView view="pageBreakPreview" topLeftCell="F2" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9590,24 +9522,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="172" t="str">
+      <c r="J1" s="181" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="172"/>
+      <c r="K1" s="181"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9635,22 +9567,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="172" t="str">
+      <c r="J2" s="181" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="172"/>
+      <c r="K2" s="181"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9670,7 +9602,7 @@
       </c>
       <c r="Q2" s="51">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
       <c r="R2" s="51"/>
       <c r="S2" s="51"/>
@@ -9682,10 +9614,10 @@
         <v>45</v>
       </c>
       <c r="B4" s="124" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="124" t="s">
         <v>240</v>
-      </c>
-      <c r="C4" s="124" t="s">
-        <v>241</v>
       </c>
       <c r="D4" s="68" t="s">
         <v>98</v>
@@ -9708,12 +9640,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="142" t="s">
+      <c r="K4" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="143"/>
+      <c r="L4" s="153"/>
+      <c r="M4" s="153"/>
+      <c r="N4" s="152"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9735,19 +9667,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="33">
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G5" s="88" t="s">
         <v>218</v>
@@ -9761,26 +9693,26 @@
       <c r="J5" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="133" t="s">
-        <v>279</v>
-      </c>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="135"/>
+      <c r="K5" s="141" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="143"/>
       <c r="O5" s="125" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P5" s="125" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Q5" s="76" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="R5" s="75" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S5" s="88" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -9790,13 +9722,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="33">
         <v>51</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E6" s="33"/>
       <c r="F6" s="32"/>
@@ -9812,26 +9744,26 @@
       <c r="J6" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="K6" s="133" t="s">
-        <v>280</v>
-      </c>
-      <c r="L6" s="134"/>
-      <c r="M6" s="134"/>
-      <c r="N6" s="135"/>
+      <c r="K6" s="141" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
+      <c r="N6" s="143"/>
       <c r="O6" s="125" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="P6" s="125" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q6" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="Q6" s="76" t="s">
-        <v>295</v>
-      </c>
       <c r="R6" s="75" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="S6" s="88" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -9841,13 +9773,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C7" s="33">
         <v>51</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
@@ -9863,26 +9795,26 @@
       <c r="J7" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="133" t="s">
-        <v>292</v>
-      </c>
-      <c r="L7" s="134"/>
-      <c r="M7" s="134"/>
-      <c r="N7" s="135"/>
+      <c r="K7" s="141" t="s">
+        <v>281</v>
+      </c>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="143"/>
       <c r="O7" s="125" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="P7" s="125" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="76" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="R7" s="75" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="S7" s="82" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -9890,13 +9822,13 @@
     <row r="8" spans="1:21" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C8" s="33">
         <v>51</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
@@ -9912,51 +9844,51 @@
       <c r="J8" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="133" t="s">
-        <v>298</v>
-      </c>
-      <c r="L8" s="134"/>
-      <c r="M8" s="134"/>
-      <c r="N8" s="135"/>
+      <c r="K8" s="141" t="s">
+        <v>287</v>
+      </c>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="143"/>
       <c r="O8" s="125" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="P8" s="125" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q8" s="76" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="R8" s="75" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="S8" s="82" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
         <v>4</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C9" s="33">
         <v>51</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G9" s="88" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H9" s="63" t="s">
         <v>224</v>
@@ -9967,26 +9899,26 @@
       <c r="J9" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="133" t="s">
-        <v>314</v>
-      </c>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="135"/>
+      <c r="K9" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
+      <c r="N9" s="143"/>
       <c r="O9" s="125" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P9" s="125" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R9" s="75" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -9996,22 +9928,22 @@
         <v>5</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C10" s="33">
         <v>51</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G10" s="88" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>224</v>
@@ -10022,26 +9954,26 @@
       <c r="J10" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="K10" s="133" t="s">
-        <v>306</v>
-      </c>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="125" t="s">
-        <v>325</v>
-      </c>
-      <c r="P10" s="125" t="s">
-        <v>309</v>
+      <c r="K10" s="141" t="s">
+        <v>330</v>
+      </c>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
+      <c r="N10" s="143"/>
+      <c r="O10" s="129" t="s">
+        <v>331</v>
+      </c>
+      <c r="P10" s="129" t="s">
+        <v>332</v>
       </c>
       <c r="Q10" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R10" s="75" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S10" s="82" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
@@ -10051,13 +9983,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C11" s="33">
         <v>51</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
@@ -10073,26 +10005,26 @@
       <c r="J11" s="121" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="133" t="s">
-        <v>319</v>
-      </c>
-      <c r="L11" s="134"/>
-      <c r="M11" s="134"/>
-      <c r="N11" s="135"/>
+      <c r="K11" s="141" t="s">
+        <v>305</v>
+      </c>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
+      <c r="N11" s="143"/>
       <c r="O11" s="125" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="P11" s="125" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="Q11" s="76" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="R11" s="75" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="S11" s="82" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
@@ -10102,13 +10034,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C12" s="33">
         <v>51</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
@@ -10124,26 +10056,26 @@
       <c r="J12" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="133" t="s">
-        <v>320</v>
-      </c>
-      <c r="L12" s="134"/>
-      <c r="M12" s="134"/>
-      <c r="N12" s="135"/>
+      <c r="K12" s="141" t="s">
+        <v>306</v>
+      </c>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
+      <c r="N12" s="143"/>
       <c r="O12" s="125" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P12" s="125" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q12" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="Q12" s="76" t="s">
-        <v>295</v>
-      </c>
       <c r="R12" s="75" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="S12" s="82" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
@@ -10153,22 +10085,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="33">
         <v>51</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G13" s="125" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="H13" s="63" t="s">
         <v>224</v>
@@ -10177,28 +10109,28 @@
         <v>56</v>
       </c>
       <c r="J13" s="121" t="s">
-        <v>303</v>
-      </c>
-      <c r="K13" s="133" t="s">
-        <v>302</v>
-      </c>
-      <c r="L13" s="134"/>
-      <c r="M13" s="134"/>
-      <c r="N13" s="135"/>
+        <v>292</v>
+      </c>
+      <c r="K13" s="141" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
+      <c r="N13" s="143"/>
       <c r="O13" s="125" t="s">
         <v>135</v>
       </c>
       <c r="P13" s="125" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R13" s="75" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="S13" s="126" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
@@ -10216,10 +10148,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="171"/>
+      <c r="K14" s="178"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="180"/>
       <c r="O14" s="85"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="76"/>
@@ -10241,10 +10173,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="171"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="180"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -10266,10 +10198,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="171"/>
+      <c r="K16" s="178"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="180"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -10291,10 +10223,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="171"/>
+      <c r="K17" s="178"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
+      <c r="N17" s="180"/>
       <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -10316,10 +10248,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="171"/>
+      <c r="K18" s="178"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="180"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -10341,10 +10273,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="171"/>
+      <c r="K19" s="178"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="180"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -10366,10 +10298,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="169"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="171"/>
+      <c r="K20" s="178"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
+      <c r="N20" s="180"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -10391,10 +10323,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="169"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="171"/>
+      <c r="K21" s="178"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="180"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -10416,10 +10348,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="169"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="171"/>
+      <c r="K22" s="178"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
+      <c r="N22" s="180"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -10441,10 +10373,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="169"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="171"/>
+      <c r="K23" s="178"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="179"/>
+      <c r="N23" s="180"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -10466,10 +10398,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="169"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="171"/>
+      <c r="K24" s="178"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="180"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -10491,10 +10423,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="169"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="171"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="179"/>
+      <c r="M25" s="179"/>
+      <c r="N25" s="180"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -10516,10 +10448,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="169"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="171"/>
+      <c r="K26" s="178"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="179"/>
+      <c r="N26" s="180"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -10541,10 +10473,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="169"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="171"/>
+      <c r="K27" s="178"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="180"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -10566,10 +10498,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="169"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="171"/>
+      <c r="K28" s="178"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="180"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10591,10 +10523,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="171"/>
+      <c r="K29" s="178"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="180"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10616,10 +10548,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="171"/>
+      <c r="K30" s="178"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="180"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10641,10 +10573,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="171"/>
+      <c r="K31" s="178"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="180"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10666,10 +10598,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="171"/>
+      <c r="K32" s="178"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="180"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10691,10 +10623,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="171"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="179"/>
+      <c r="N33" s="180"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10716,10 +10648,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
-      <c r="N34" s="171"/>
+      <c r="K34" s="178"/>
+      <c r="L34" s="179"/>
+      <c r="M34" s="179"/>
+      <c r="N34" s="180"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10741,10 +10673,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="171"/>
+      <c r="K35" s="178"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="179"/>
+      <c r="N35" s="180"/>
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="76"/>
@@ -10766,10 +10698,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
-      <c r="N36" s="171"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="179"/>
+      <c r="M36" s="179"/>
+      <c r="N36" s="180"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10791,10 +10723,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="171"/>
+      <c r="K37" s="178"/>
+      <c r="L37" s="179"/>
+      <c r="M37" s="179"/>
+      <c r="N37" s="180"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10816,10 +10748,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="171"/>
+      <c r="K38" s="178"/>
+      <c r="L38" s="179"/>
+      <c r="M38" s="179"/>
+      <c r="N38" s="180"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10841,10 +10773,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="171"/>
+      <c r="K39" s="178"/>
+      <c r="L39" s="179"/>
+      <c r="M39" s="179"/>
+      <c r="N39" s="180"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10866,10 +10798,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="169"/>
-      <c r="L40" s="170"/>
-      <c r="M40" s="170"/>
-      <c r="N40" s="171"/>
+      <c r="K40" s="178"/>
+      <c r="L40" s="179"/>
+      <c r="M40" s="179"/>
+      <c r="N40" s="180"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10891,10 +10823,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="169"/>
-      <c r="L41" s="170"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="171"/>
+      <c r="K41" s="178"/>
+      <c r="L41" s="179"/>
+      <c r="M41" s="179"/>
+      <c r="N41" s="180"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10916,10 +10848,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="169"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="171"/>
+      <c r="K42" s="178"/>
+      <c r="L42" s="179"/>
+      <c r="M42" s="179"/>
+      <c r="N42" s="180"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10941,10 +10873,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="170"/>
-      <c r="M43" s="170"/>
-      <c r="N43" s="171"/>
+      <c r="K43" s="178"/>
+      <c r="L43" s="179"/>
+      <c r="M43" s="179"/>
+      <c r="N43" s="180"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10966,10 +10898,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="169"/>
-      <c r="L44" s="170"/>
-      <c r="M44" s="170"/>
-      <c r="N44" s="171"/>
+      <c r="K44" s="178"/>
+      <c r="L44" s="179"/>
+      <c r="M44" s="179"/>
+      <c r="N44" s="180"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10991,10 +10923,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="170"/>
-      <c r="M45" s="170"/>
-      <c r="N45" s="171"/>
+      <c r="K45" s="178"/>
+      <c r="L45" s="179"/>
+      <c r="M45" s="179"/>
+      <c r="N45" s="180"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -11016,10 +10948,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="169"/>
-      <c r="L46" s="170"/>
-      <c r="M46" s="170"/>
-      <c r="N46" s="171"/>
+      <c r="K46" s="178"/>
+      <c r="L46" s="179"/>
+      <c r="M46" s="179"/>
+      <c r="N46" s="180"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -11041,10 +10973,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="171"/>
+      <c r="K47" s="178"/>
+      <c r="L47" s="179"/>
+      <c r="M47" s="179"/>
+      <c r="N47" s="180"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -11066,10 +10998,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="169"/>
-      <c r="L48" s="170"/>
-      <c r="M48" s="170"/>
-      <c r="N48" s="171"/>
+      <c r="K48" s="178"/>
+      <c r="L48" s="179"/>
+      <c r="M48" s="179"/>
+      <c r="N48" s="180"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -11091,10 +11023,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="170"/>
-      <c r="M49" s="170"/>
-      <c r="N49" s="171"/>
+      <c r="K49" s="178"/>
+      <c r="L49" s="179"/>
+      <c r="M49" s="179"/>
+      <c r="N49" s="180"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -11116,10 +11048,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="170"/>
-      <c r="M50" s="170"/>
-      <c r="N50" s="171"/>
+      <c r="K50" s="178"/>
+      <c r="L50" s="179"/>
+      <c r="M50" s="179"/>
+      <c r="N50" s="180"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -11141,10 +11073,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="170"/>
-      <c r="N51" s="171"/>
+      <c r="K51" s="178"/>
+      <c r="L51" s="179"/>
+      <c r="M51" s="179"/>
+      <c r="N51" s="180"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -11166,10 +11098,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="169"/>
-      <c r="L52" s="170"/>
-      <c r="M52" s="170"/>
-      <c r="N52" s="171"/>
+      <c r="K52" s="178"/>
+      <c r="L52" s="179"/>
+      <c r="M52" s="179"/>
+      <c r="N52" s="180"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -11191,10 +11123,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="169"/>
-      <c r="L53" s="170"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="171"/>
+      <c r="K53" s="178"/>
+      <c r="L53" s="179"/>
+      <c r="M53" s="179"/>
+      <c r="N53" s="180"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -11216,10 +11148,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="169"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="170"/>
-      <c r="N54" s="171"/>
+      <c r="K54" s="178"/>
+      <c r="L54" s="179"/>
+      <c r="M54" s="179"/>
+      <c r="N54" s="180"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -11241,10 +11173,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="170"/>
-      <c r="M55" s="170"/>
-      <c r="N55" s="171"/>
+      <c r="K55" s="178"/>
+      <c r="L55" s="179"/>
+      <c r="M55" s="179"/>
+      <c r="N55" s="180"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -11266,10 +11198,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="169"/>
-      <c r="L56" s="170"/>
-      <c r="M56" s="170"/>
-      <c r="N56" s="171"/>
+      <c r="K56" s="178"/>
+      <c r="L56" s="179"/>
+      <c r="M56" s="179"/>
+      <c r="N56" s="180"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -11291,10 +11223,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="169"/>
-      <c r="L57" s="170"/>
-      <c r="M57" s="170"/>
-      <c r="N57" s="171"/>
+      <c r="K57" s="178"/>
+      <c r="L57" s="179"/>
+      <c r="M57" s="179"/>
+      <c r="N57" s="180"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -11316,10 +11248,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="169"/>
-      <c r="L58" s="170"/>
-      <c r="M58" s="170"/>
-      <c r="N58" s="171"/>
+      <c r="K58" s="178"/>
+      <c r="L58" s="179"/>
+      <c r="M58" s="179"/>
+      <c r="N58" s="180"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -11341,10 +11273,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="169"/>
-      <c r="L59" s="170"/>
-      <c r="M59" s="170"/>
-      <c r="N59" s="171"/>
+      <c r="K59" s="178"/>
+      <c r="L59" s="179"/>
+      <c r="M59" s="179"/>
+      <c r="N59" s="180"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -11366,10 +11298,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="169"/>
-      <c r="L60" s="170"/>
-      <c r="M60" s="170"/>
-      <c r="N60" s="171"/>
+      <c r="K60" s="178"/>
+      <c r="L60" s="179"/>
+      <c r="M60" s="179"/>
+      <c r="N60" s="180"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -11391,10 +11323,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="170"/>
-      <c r="M61" s="170"/>
-      <c r="N61" s="171"/>
+      <c r="K61" s="178"/>
+      <c r="L61" s="179"/>
+      <c r="M61" s="179"/>
+      <c r="N61" s="180"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -11416,10 +11348,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="169"/>
-      <c r="L62" s="170"/>
-      <c r="M62" s="170"/>
-      <c r="N62" s="171"/>
+      <c r="K62" s="178"/>
+      <c r="L62" s="179"/>
+      <c r="M62" s="179"/>
+      <c r="N62" s="180"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -11441,10 +11373,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="169"/>
-      <c r="L63" s="170"/>
-      <c r="M63" s="170"/>
-      <c r="N63" s="171"/>
+      <c r="K63" s="178"/>
+      <c r="L63" s="179"/>
+      <c r="M63" s="179"/>
+      <c r="N63" s="180"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -11466,10 +11398,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="169"/>
-      <c r="L64" s="170"/>
-      <c r="M64" s="170"/>
-      <c r="N64" s="171"/>
+      <c r="K64" s="178"/>
+      <c r="L64" s="179"/>
+      <c r="M64" s="179"/>
+      <c r="N64" s="180"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -11491,10 +11423,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="169"/>
-      <c r="L65" s="170"/>
-      <c r="M65" s="170"/>
-      <c r="N65" s="171"/>
+      <c r="K65" s="178"/>
+      <c r="L65" s="179"/>
+      <c r="M65" s="179"/>
+      <c r="N65" s="180"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -11514,10 +11446,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="169"/>
-      <c r="L66" s="170"/>
-      <c r="M66" s="170"/>
-      <c r="N66" s="171"/>
+      <c r="K66" s="178"/>
+      <c r="L66" s="179"/>
+      <c r="M66" s="179"/>
+      <c r="N66" s="180"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -11537,10 +11469,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="169"/>
-      <c r="L67" s="170"/>
-      <c r="M67" s="170"/>
-      <c r="N67" s="171"/>
+      <c r="K67" s="178"/>
+      <c r="L67" s="179"/>
+      <c r="M67" s="179"/>
+      <c r="N67" s="180"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -11560,10 +11492,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="169"/>
-      <c r="L68" s="170"/>
-      <c r="M68" s="170"/>
-      <c r="N68" s="171"/>
+      <c r="K68" s="178"/>
+      <c r="L68" s="179"/>
+      <c r="M68" s="179"/>
+      <c r="N68" s="180"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -11583,10 +11515,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="169"/>
-      <c r="L69" s="170"/>
-      <c r="M69" s="170"/>
-      <c r="N69" s="171"/>
+      <c r="K69" s="178"/>
+      <c r="L69" s="179"/>
+      <c r="M69" s="179"/>
+      <c r="N69" s="180"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -11606,10 +11538,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="169"/>
-      <c r="L70" s="170"/>
-      <c r="M70" s="170"/>
-      <c r="N70" s="171"/>
+      <c r="K70" s="178"/>
+      <c r="L70" s="179"/>
+      <c r="M70" s="179"/>
+      <c r="N70" s="180"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -11629,10 +11561,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="169"/>
-      <c r="L71" s="170"/>
-      <c r="M71" s="170"/>
-      <c r="N71" s="171"/>
+      <c r="K71" s="178"/>
+      <c r="L71" s="179"/>
+      <c r="M71" s="179"/>
+      <c r="N71" s="180"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -11652,10 +11584,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="169"/>
-      <c r="L72" s="170"/>
-      <c r="M72" s="170"/>
-      <c r="N72" s="171"/>
+      <c r="K72" s="178"/>
+      <c r="L72" s="179"/>
+      <c r="M72" s="179"/>
+      <c r="N72" s="180"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -11675,10 +11607,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="169"/>
-      <c r="L73" s="170"/>
-      <c r="M73" s="170"/>
-      <c r="N73" s="171"/>
+      <c r="K73" s="178"/>
+      <c r="L73" s="179"/>
+      <c r="M73" s="179"/>
+      <c r="N73" s="180"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -11698,10 +11630,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="169"/>
-      <c r="L74" s="170"/>
-      <c r="M74" s="170"/>
-      <c r="N74" s="171"/>
+      <c r="K74" s="178"/>
+      <c r="L74" s="179"/>
+      <c r="M74" s="179"/>
+      <c r="N74" s="180"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -11721,10 +11653,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="169"/>
-      <c r="L75" s="170"/>
-      <c r="M75" s="170"/>
-      <c r="N75" s="171"/>
+      <c r="K75" s="178"/>
+      <c r="L75" s="179"/>
+      <c r="M75" s="179"/>
+      <c r="N75" s="180"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -11744,10 +11676,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="169"/>
-      <c r="L76" s="170"/>
-      <c r="M76" s="170"/>
-      <c r="N76" s="171"/>
+      <c r="K76" s="178"/>
+      <c r="L76" s="179"/>
+      <c r="M76" s="179"/>
+      <c r="N76" s="180"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -11767,10 +11699,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="169"/>
-      <c r="L77" s="170"/>
-      <c r="M77" s="170"/>
-      <c r="N77" s="171"/>
+      <c r="K77" s="178"/>
+      <c r="L77" s="179"/>
+      <c r="M77" s="179"/>
+      <c r="N77" s="180"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -11790,10 +11722,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="169"/>
-      <c r="L78" s="170"/>
-      <c r="M78" s="170"/>
-      <c r="N78" s="171"/>
+      <c r="K78" s="178"/>
+      <c r="L78" s="179"/>
+      <c r="M78" s="179"/>
+      <c r="N78" s="180"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -11813,10 +11745,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="169"/>
-      <c r="L79" s="170"/>
-      <c r="M79" s="170"/>
-      <c r="N79" s="171"/>
+      <c r="K79" s="178"/>
+      <c r="L79" s="179"/>
+      <c r="M79" s="179"/>
+      <c r="N79" s="180"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -11836,10 +11768,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="169"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="170"/>
-      <c r="N80" s="171"/>
+      <c r="K80" s="178"/>
+      <c r="L80" s="179"/>
+      <c r="M80" s="179"/>
+      <c r="N80" s="180"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11859,10 +11791,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="169"/>
-      <c r="L81" s="170"/>
-      <c r="M81" s="170"/>
-      <c r="N81" s="171"/>
+      <c r="K81" s="178"/>
+      <c r="L81" s="179"/>
+      <c r="M81" s="179"/>
+      <c r="N81" s="180"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11882,10 +11814,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="169"/>
-      <c r="L82" s="170"/>
-      <c r="M82" s="170"/>
-      <c r="N82" s="171"/>
+      <c r="K82" s="178"/>
+      <c r="L82" s="179"/>
+      <c r="M82" s="179"/>
+      <c r="N82" s="180"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11905,10 +11837,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="169"/>
-      <c r="L83" s="170"/>
-      <c r="M83" s="170"/>
-      <c r="N83" s="171"/>
+      <c r="K83" s="178"/>
+      <c r="L83" s="179"/>
+      <c r="M83" s="179"/>
+      <c r="N83" s="180"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11928,10 +11860,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="169"/>
-      <c r="L84" s="170"/>
-      <c r="M84" s="170"/>
-      <c r="N84" s="171"/>
+      <c r="K84" s="178"/>
+      <c r="L84" s="179"/>
+      <c r="M84" s="179"/>
+      <c r="N84" s="180"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11951,10 +11883,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="169"/>
-      <c r="L85" s="170"/>
-      <c r="M85" s="170"/>
-      <c r="N85" s="171"/>
+      <c r="K85" s="178"/>
+      <c r="L85" s="179"/>
+      <c r="M85" s="179"/>
+      <c r="N85" s="180"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11974,10 +11906,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="169"/>
-      <c r="L86" s="170"/>
-      <c r="M86" s="170"/>
-      <c r="N86" s="171"/>
+      <c r="K86" s="178"/>
+      <c r="L86" s="179"/>
+      <c r="M86" s="179"/>
+      <c r="N86" s="180"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11997,10 +11929,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="169"/>
-      <c r="L87" s="170"/>
-      <c r="M87" s="170"/>
-      <c r="N87" s="171"/>
+      <c r="K87" s="178"/>
+      <c r="L87" s="179"/>
+      <c r="M87" s="179"/>
+      <c r="N87" s="180"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -12020,10 +11952,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="169"/>
-      <c r="L88" s="170"/>
-      <c r="M88" s="170"/>
-      <c r="N88" s="171"/>
+      <c r="K88" s="178"/>
+      <c r="L88" s="179"/>
+      <c r="M88" s="179"/>
+      <c r="N88" s="180"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -12043,10 +11975,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="169"/>
-      <c r="L89" s="170"/>
-      <c r="M89" s="170"/>
-      <c r="N89" s="171"/>
+      <c r="K89" s="178"/>
+      <c r="L89" s="179"/>
+      <c r="M89" s="179"/>
+      <c r="N89" s="180"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -12066,10 +11998,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="169"/>
-      <c r="L90" s="170"/>
-      <c r="M90" s="170"/>
-      <c r="N90" s="171"/>
+      <c r="K90" s="178"/>
+      <c r="L90" s="179"/>
+      <c r="M90" s="179"/>
+      <c r="N90" s="180"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -12089,10 +12021,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="169"/>
-      <c r="L91" s="170"/>
-      <c r="M91" s="170"/>
-      <c r="N91" s="171"/>
+      <c r="K91" s="178"/>
+      <c r="L91" s="179"/>
+      <c r="M91" s="179"/>
+      <c r="N91" s="180"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -12112,10 +12044,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="169"/>
-      <c r="L92" s="170"/>
-      <c r="M92" s="170"/>
-      <c r="N92" s="171"/>
+      <c r="K92" s="178"/>
+      <c r="L92" s="179"/>
+      <c r="M92" s="179"/>
+      <c r="N92" s="180"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -12135,10 +12067,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="169"/>
-      <c r="L93" s="170"/>
-      <c r="M93" s="170"/>
-      <c r="N93" s="171"/>
+      <c r="K93" s="178"/>
+      <c r="L93" s="179"/>
+      <c r="M93" s="179"/>
+      <c r="N93" s="180"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -12158,10 +12090,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="169"/>
-      <c r="L94" s="170"/>
-      <c r="M94" s="170"/>
-      <c r="N94" s="171"/>
+      <c r="K94" s="178"/>
+      <c r="L94" s="179"/>
+      <c r="M94" s="179"/>
+      <c r="N94" s="180"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -12181,10 +12113,10 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="169"/>
-      <c r="L95" s="170"/>
-      <c r="M95" s="170"/>
-      <c r="N95" s="171"/>
+      <c r="K95" s="178"/>
+      <c r="L95" s="179"/>
+      <c r="M95" s="179"/>
+      <c r="N95" s="180"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
@@ -12197,6 +12129,85 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="95">
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K80:N80"/>
+    <mergeCell ref="K81:N81"/>
+    <mergeCell ref="K82:N82"/>
+    <mergeCell ref="K83:N83"/>
+    <mergeCell ref="K84:N84"/>
+    <mergeCell ref="K85:N85"/>
+    <mergeCell ref="K86:N86"/>
+    <mergeCell ref="K87:N87"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K71:N71"/>
+    <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="K15:N15"/>
     <mergeCell ref="K16:N16"/>
@@ -12213,85 +12224,6 @@
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K95:N95"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K80:N80"/>
-    <mergeCell ref="K81:N81"/>
-    <mergeCell ref="K82:N82"/>
-    <mergeCell ref="K83:N83"/>
-    <mergeCell ref="K84:N84"/>
-    <mergeCell ref="K85:N85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K71:N71"/>
-    <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -12321,7 +12253,7 @@
   <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12337,10 +12269,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12371,8 +12303,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12399,7 +12331,7 @@
       </c>
       <c r="J2" s="38">
         <f>'Update History'!J2</f>
-        <v>42383</v>
+        <v>42387</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12431,7 +12363,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12522,8 +12454,8 @@
       <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="184" t="s">
-        <v>269</v>
+      <c r="C13" s="135" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -12541,7 +12473,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="43" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -12578,7 +12510,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -12591,7 +12523,7 @@
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="43" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -12655,7 +12587,7 @@
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="73"/>
       <c r="B24" s="43" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -12666,16 +12598,16 @@
       <c r="I24" s="43"/>
       <c r="J24" s="46"/>
     </row>
-    <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="73"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="86" t="s">
-        <v>152</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
+      <c r="C25" s="188" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
@@ -12684,7 +12616,7 @@
       <c r="A26" s="73"/>
       <c r="B26" s="43"/>
       <c r="C26" s="86" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -12698,7 +12630,7 @@
       <c r="A27" s="73"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -12712,7 +12644,7 @@
       <c r="A28" s="73"/>
       <c r="B28" s="43"/>
       <c r="C28" s="182" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D28" s="182"/>
       <c r="E28" s="182"/>
@@ -12725,7 +12657,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="73"/>
       <c r="B29" s="43" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12754,7 +12686,7 @@
       <c r="A31" s="73"/>
       <c r="B31" s="43"/>
       <c r="C31" s="183" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="D31" s="183"/>
       <c r="E31" s="183"/>
@@ -12806,7 +12738,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="43"/>
       <c r="C35" s="86" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -12843,7 +12775,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="43"/>
       <c r="C38" s="86" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -12906,7 +12838,7 @@
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="43"/>
       <c r="C43" s="86" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -12943,7 +12875,7 @@
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="43"/>
       <c r="C46" s="86" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -13522,10 +13454,11 @@
       <c r="J94" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C28:F28"/>
     <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C25:G25"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.6" bottom="0.3" header="0.1" footer="0.1"/>
   <pageSetup paperSize="9" scale="81" orientation="landscape" r:id="rId1"/>
@@ -13563,10 +13496,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13594,8 +13527,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -14006,14 +13939,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
-      <c r="E1" s="173"/>
-      <c r="F1" s="173"/>
-      <c r="G1" s="173"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -14206,11 +14139,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="174" t="s">
+      <c r="E27" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="175"/>
-      <c r="G27" s="176"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="187"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="754" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="754" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="339">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2767,6 +2767,23 @@
   <si>
     <t>- Click BtnSave confirm message 00ML000016 nếu chọn Yes
 - Kiểm tra Input Check nếu không thỏa thì hiển thị thông báo và không cho Lưu</t>
+  </si>
+  <si>
+    <t>00ML000088</t>
+  </si>
+  <si>
+    <t>Copy mã chứa dấu or ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Mã địa điểm, Mã số tuyến</t>
+  </si>
+  <si>
+    <t>Login -&gt; S 
+-&gt; Phân hệ
+-&gt; Thông tin dùng chung - ASOFT - CI 
+-&gt;Danh mục sơ đồ tuyến 
+-&gt; Click Thực hiện / RightClick GirdData
+-&gt;Cập nhật sơ đồ tuyến</t>
   </si>
 </sst>
 </file>
@@ -3226,7 +3243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3571,6 +3588,9 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3709,6 +3729,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3720,9 +3743,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4107,10 +4127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4137,8 +4157,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4177,14 +4197,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="145" t="s">
+      <c r="E4" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="145"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -4201,14 +4221,14 @@
         <f>H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="E5" s="146" t="s">
+      <c r="E5" s="147" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="147"/>
+      <c r="F5" s="148"/>
+      <c r="G5" s="148"/>
+      <c r="H5" s="148"/>
+      <c r="I5" s="148"/>
+      <c r="J5" s="148"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="90">
@@ -4219,12 +4239,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="149"/>
-      <c r="G6" s="149"/>
-      <c r="H6" s="149"/>
-      <c r="I6" s="149"/>
-      <c r="J6" s="150"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="150"/>
+      <c r="H6" s="150"/>
+      <c r="I6" s="150"/>
+      <c r="J6" s="151"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
@@ -4235,12 +4255,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="138"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="140"/>
+      <c r="E7" s="139"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="141"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -4251,12 +4271,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="I8" s="142"/>
-      <c r="J8" s="143"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="144"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -4267,12 +4287,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="138"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="140"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="141"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -4283,12 +4303,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="139"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="140"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="141"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -4299,12 +4319,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="140"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="141"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -4315,12 +4335,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="140"/>
+      <c r="E12" s="139"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -4331,12 +4351,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="138"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="140"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="141"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -4347,12 +4367,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="140"/>
+      <c r="E14" s="139"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="140"/>
+      <c r="I14" s="140"/>
+      <c r="J14" s="141"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4363,12 +4383,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
+      <c r="E15" s="148"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4379,12 +4399,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="147"/>
-      <c r="I16" s="147"/>
-      <c r="J16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4395,12 +4415,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="147"/>
-      <c r="I17" s="147"/>
-      <c r="J17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="148"/>
+      <c r="G17" s="148"/>
+      <c r="H17" s="148"/>
+      <c r="I17" s="148"/>
+      <c r="J17" s="148"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4411,12 +4431,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="148"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4427,12 +4447,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="147"/>
-      <c r="J19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="148"/>
+      <c r="H19" s="148"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="148"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4443,12 +4463,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="147"/>
-      <c r="I20" s="147"/>
-      <c r="J20" s="147"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="148"/>
+      <c r="H20" s="148"/>
+      <c r="I20" s="148"/>
+      <c r="J20" s="148"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4459,12 +4479,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
-      <c r="H21" s="147"/>
-      <c r="I21" s="147"/>
-      <c r="J21" s="147"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="148"/>
+      <c r="H21" s="148"/>
+      <c r="I21" s="148"/>
+      <c r="J21" s="148"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4475,12 +4495,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="147"/>
-      <c r="I22" s="147"/>
-      <c r="J22" s="147"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="148"/>
+      <c r="H22" s="148"/>
+      <c r="I22" s="148"/>
+      <c r="J22" s="148"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4491,12 +4511,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="147"/>
-      <c r="I23" s="147"/>
-      <c r="J23" s="147"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4507,12 +4527,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="147"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="147"/>
-      <c r="I24" s="147"/>
-      <c r="J24" s="147"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="148"/>
+      <c r="G24" s="148"/>
+      <c r="H24" s="148"/>
+      <c r="I24" s="148"/>
+      <c r="J24" s="148"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4523,12 +4543,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="147"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4539,12 +4559,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="147"/>
-      <c r="I26" s="147"/>
-      <c r="J26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="148"/>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4555,12 +4575,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="147"/>
-      <c r="I27" s="147"/>
-      <c r="J27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4571,12 +4591,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="147"/>
-      <c r="I28" s="147"/>
-      <c r="J28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4587,12 +4607,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="148"/>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4603,12 +4623,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="147"/>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4619,12 +4639,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4635,12 +4655,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="147"/>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4651,12 +4671,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="147"/>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4667,12 +4687,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="147"/>
-      <c r="H34" s="147"/>
-      <c r="I34" s="147"/>
-      <c r="J34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="148"/>
+      <c r="G34" s="148"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4683,12 +4703,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="147"/>
-      <c r="H35" s="147"/>
-      <c r="I35" s="147"/>
-      <c r="J35" s="147"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4699,12 +4719,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="147"/>
-      <c r="I36" s="147"/>
-      <c r="J36" s="147"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4715,12 +4735,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="147"/>
-      <c r="I37" s="147"/>
-      <c r="J37" s="147"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4731,12 +4751,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="147"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="147"/>
-      <c r="I38" s="147"/>
-      <c r="J38" s="147"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4747,12 +4767,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="147"/>
-      <c r="F39" s="147"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="147"/>
-      <c r="I39" s="147"/>
-      <c r="J39" s="147"/>
+      <c r="E39" s="148"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="148"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4763,12 +4783,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="147"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="147"/>
-      <c r="I40" s="147"/>
-      <c r="J40" s="147"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="148"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4779,12 +4799,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="147"/>
-      <c r="G41" s="147"/>
-      <c r="H41" s="147"/>
-      <c r="I41" s="147"/>
-      <c r="J41" s="147"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="148"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4795,12 +4815,12 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="147"/>
-      <c r="G42" s="147"/>
-      <c r="H42" s="147"/>
-      <c r="I42" s="147"/>
-      <c r="J42" s="147"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -5041,7 +5061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
@@ -5060,10 +5080,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5094,8 +5114,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5126,20 +5146,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="151" t="s">
+      <c r="A4" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="152"/>
-      <c r="I4" s="151" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="152"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -5150,10 +5170,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="160" t="s">
+      <c r="I5" s="161" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="161"/>
+      <c r="J5" s="162"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -5164,8 +5184,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="162"/>
-      <c r="J6" s="163"/>
+      <c r="I6" s="163"/>
+      <c r="J6" s="164"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -5176,8 +5196,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="162"/>
-      <c r="J7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="164"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -5188,8 +5208,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="162"/>
-      <c r="J8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="164"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -5200,8 +5220,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="164"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -5212,8 +5232,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="166"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -5224,10 +5244,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="151" t="s">
+      <c r="I11" s="152" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="152"/>
+      <c r="J11" s="153"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -5238,10 +5258,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="154" t="s">
-        <v>173</v>
-      </c>
-      <c r="J12" s="155"/>
+      <c r="I12" s="155" t="s">
+        <v>338</v>
+      </c>
+      <c r="J12" s="156"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -5252,8 +5272,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="157"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="158"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -5264,8 +5284,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="158"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5276,8 +5296,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="157"/>
+      <c r="I15" s="157"/>
+      <c r="J15" s="158"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5288,8 +5308,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="156"/>
-      <c r="J16" s="157"/>
+      <c r="I16" s="157"/>
+      <c r="J16" s="158"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5300,8 +5320,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="156"/>
-      <c r="J17" s="157"/>
+      <c r="I17" s="157"/>
+      <c r="J17" s="158"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5312,8 +5332,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="156"/>
-      <c r="J18" s="157"/>
+      <c r="I18" s="157"/>
+      <c r="J18" s="158"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5324,8 +5344,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="156"/>
-      <c r="J19" s="157"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="158"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5336,8 +5356,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="156"/>
-      <c r="J20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="158"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5348,8 +5368,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="156"/>
-      <c r="J21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="158"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5360,8 +5380,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="158"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5372,8 +5392,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="156"/>
-      <c r="J23" s="157"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="158"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5384,8 +5404,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="156"/>
-      <c r="J24" s="157"/>
+      <c r="I24" s="157"/>
+      <c r="J24" s="158"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5396,8 +5416,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5408,8 +5428,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="156"/>
-      <c r="J26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="158"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5420,8 +5440,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="156"/>
-      <c r="J27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="158"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5432,8 +5452,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="157"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="158"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5444,8 +5464,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
+      <c r="I29" s="157"/>
+      <c r="J29" s="158"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5456,8 +5476,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="158"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5468,8 +5488,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="156"/>
-      <c r="J31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="158"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5480,8 +5500,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="156"/>
-      <c r="J32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="158"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5492,8 +5512,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="156"/>
-      <c r="J33" s="157"/>
+      <c r="I33" s="157"/>
+      <c r="J33" s="158"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5504,8 +5524,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="156"/>
-      <c r="J34" s="157"/>
+      <c r="I34" s="157"/>
+      <c r="J34" s="158"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5516,8 +5536,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="156"/>
-      <c r="J35" s="157"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5528,8 +5548,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="156"/>
-      <c r="J36" s="157"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="158"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5540,8 +5560,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="156"/>
-      <c r="J37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="158"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5552,8 +5572,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="156"/>
-      <c r="J38" s="157"/>
+      <c r="I38" s="157"/>
+      <c r="J38" s="158"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5564,8 +5584,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="156"/>
-      <c r="J39" s="157"/>
+      <c r="I39" s="157"/>
+      <c r="J39" s="158"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5576,8 +5596,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="156"/>
-      <c r="J40" s="157"/>
+      <c r="I40" s="157"/>
+      <c r="J40" s="158"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5588,8 +5608,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="156"/>
-      <c r="J41" s="157"/>
+      <c r="I41" s="157"/>
+      <c r="J41" s="158"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5600,8 +5620,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="156"/>
-      <c r="J42" s="157"/>
+      <c r="I42" s="157"/>
+      <c r="J42" s="158"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5612,8 +5632,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="159"/>
+      <c r="I43" s="159"/>
+      <c r="J43" s="160"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5644,7 +5664,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
@@ -5672,13 +5692,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5686,16 +5706,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="166" t="s">
+      <c r="H1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="167"/>
-      <c r="J1" s="168" t="str">
+      <c r="I1" s="168"/>
+      <c r="J1" s="169" t="str">
         <f>'Update History'!F1</f>
         <v>CF0144</v>
       </c>
-      <c r="K1" s="169"/>
-      <c r="L1" s="170"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="171"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5712,11 +5732,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5724,16 +5744,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="166" t="s">
+      <c r="H2" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="167"/>
-      <c r="J2" s="168" t="str">
+      <c r="I2" s="168"/>
+      <c r="J2" s="169" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="169"/>
-      <c r="L2" s="170"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="171"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -7150,7 +7170,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7491,19 +7511,33 @@
       <c r="K11" s="69"/>
       <c r="L11" s="110"/>
     </row>
-    <row r="12" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
+      <c r="B12" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C12" s="33">
+        <v>51</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>247</v>
+      </c>
       <c r="F12" s="40"/>
       <c r="G12" s="62"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="82"/>
+      <c r="H12" s="138" t="s">
+        <v>336</v>
+      </c>
+      <c r="I12" s="138" t="s">
+        <v>252</v>
+      </c>
+      <c r="J12" s="63" t="s">
+        <v>335</v>
+      </c>
       <c r="K12" s="69"/>
       <c r="L12" s="110"/>
     </row>
@@ -8219,10 +8253,10 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H16 H24:H52 J24:J52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J24:J52 H24:H52 H13:H16">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J23 K12:L16 I5:I11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J17:J23 K12:L16 I5:I12">
       <formula1>"Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E52">
@@ -8270,7 +8304,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="127"/>
@@ -8307,7 +8341,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="177"/>
+      <c r="A2" s="178"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
       <c r="D2" s="31" t="s">
@@ -8360,15 +8394,15 @@
       <c r="F4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="G4" s="145" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144" t="s">
+      <c r="H4" s="145"/>
+      <c r="I4" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -8389,13 +8423,13 @@
       <c r="F5" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="174" t="s">
+      <c r="G5" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="175"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="172"/>
-      <c r="K5" s="173"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="172"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="174"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -8416,13 +8450,13 @@
       <c r="F6" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G6" s="174" t="s">
+      <c r="G6" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="175"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="173"/>
+      <c r="H6" s="176"/>
+      <c r="I6" s="172"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="174"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8443,13 +8477,13 @@
       <c r="F7" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="174" t="s">
+      <c r="G7" s="175" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="171"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="173"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="174"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8460,11 +8494,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="173"/>
+      <c r="G8" s="175"/>
+      <c r="H8" s="176"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="174"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8475,11 +8509,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="173"/>
+      <c r="G9" s="175"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="174"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8490,11 +8524,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="173"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="174"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8505,11 +8539,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="173"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="174"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8520,11 +8554,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="173"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="174"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8535,11 +8569,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="173"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="174"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8550,11 +8584,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="174"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="173"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="174"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8565,11 +8599,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="174"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="173"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="174"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8580,11 +8614,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
-      <c r="K16" s="173"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="176"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="174"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8595,11 +8629,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="173"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="174"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8610,11 +8644,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="174"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="173"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="174"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8625,11 +8659,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="173"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="174"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8640,11 +8674,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="174"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="173"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="176"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="174"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8655,11 +8689,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="174"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="173"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="176"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="174"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8670,11 +8704,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="173"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="174"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8685,11 +8719,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="173"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="174"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8700,11 +8734,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="140"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="173"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="141"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="174"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8715,11 +8749,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="173"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="174"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8730,11 +8764,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="173"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="174"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8745,11 +8779,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="173"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="174"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8760,11 +8794,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="173"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="174"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8775,11 +8809,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="173"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="174"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8790,11 +8824,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="173"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="141"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="174"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8805,11 +8839,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="173"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="174"/>
     </row>
     <row r="32" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -8820,11 +8854,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="173"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="141"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="174"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -8842,11 +8876,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="173"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="174"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8864,11 +8898,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="173"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="174"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8886,11 +8920,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="173"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="174"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8908,11 +8942,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="173"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="174"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8930,11 +8964,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="173"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="174"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8952,11 +8986,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="173"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="141"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="174"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -8974,11 +9008,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="140"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="173"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="174"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -8996,11 +9030,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="140"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="173"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="141"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="174"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9018,11 +9052,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="138"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="173"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="174"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9040,11 +9074,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="173"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="174"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9062,11 +9096,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="138"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="173"/>
+      <c r="G43" s="139"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="174"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9084,11 +9118,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="172"/>
-      <c r="K44" s="173"/>
+      <c r="G44" s="139"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="174"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9106,11 +9140,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="138"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="172"/>
-      <c r="K45" s="173"/>
+      <c r="G45" s="139"/>
+      <c r="H45" s="141"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="174"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9128,11 +9162,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="138"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="172"/>
-      <c r="K46" s="173"/>
+      <c r="G46" s="139"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="173"/>
+      <c r="K46" s="174"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9150,11 +9184,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="138"/>
-      <c r="H47" s="140"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="172"/>
-      <c r="K47" s="173"/>
+      <c r="G47" s="139"/>
+      <c r="H47" s="141"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="173"/>
+      <c r="K47" s="174"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9172,11 +9206,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="138"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="172"/>
-      <c r="K48" s="173"/>
+      <c r="G48" s="139"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="173"/>
+      <c r="K48" s="174"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9194,11 +9228,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="138"/>
-      <c r="H49" s="140"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="172"/>
-      <c r="K49" s="173"/>
+      <c r="G49" s="139"/>
+      <c r="H49" s="141"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="173"/>
+      <c r="K49" s="174"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9216,11 +9250,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="172"/>
-      <c r="K50" s="173"/>
+      <c r="G50" s="139"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="173"/>
+      <c r="K50" s="174"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9238,11 +9272,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="172"/>
-      <c r="K51" s="173"/>
+      <c r="G51" s="139"/>
+      <c r="H51" s="141"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="173"/>
+      <c r="K51" s="174"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9260,11 +9294,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="138"/>
-      <c r="H52" s="140"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="172"/>
-      <c r="K52" s="173"/>
+      <c r="G52" s="139"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="173"/>
+      <c r="K52" s="174"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -9282,11 +9316,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="138"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="172"/>
-      <c r="K53" s="173"/>
+      <c r="G53" s="139"/>
+      <c r="H53" s="141"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="174"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -9304,11 +9338,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="138"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="172"/>
-      <c r="K54" s="173"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="174"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -9326,11 +9360,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="138"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="172"/>
-      <c r="K55" s="173"/>
+      <c r="G55" s="139"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="173"/>
+      <c r="K55" s="174"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9348,11 +9382,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="138"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="172"/>
-      <c r="K56" s="173"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="173"/>
+      <c r="K56" s="174"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9522,24 +9556,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
+      <c r="E1" s="145"/>
+      <c r="F1" s="145"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="181" t="str">
+      <c r="J1" s="182" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="181"/>
+      <c r="K1" s="182"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9567,22 +9601,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="181" t="str">
+      <c r="J2" s="182" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="181"/>
+      <c r="K2" s="182"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9640,12 +9674,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="151" t="s">
+      <c r="K4" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="153"/>
-      <c r="M4" s="153"/>
-      <c r="N4" s="152"/>
+      <c r="L4" s="154"/>
+      <c r="M4" s="154"/>
+      <c r="N4" s="153"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9693,12 +9727,12 @@
       <c r="J5" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="141" t="s">
+      <c r="K5" s="142" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="142"/>
-      <c r="M5" s="142"/>
-      <c r="N5" s="143"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="143"/>
+      <c r="N5" s="144"/>
       <c r="O5" s="125" t="s">
         <v>270</v>
       </c>
@@ -9744,12 +9778,12 @@
       <c r="J6" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="142" t="s">
         <v>269</v>
       </c>
-      <c r="L6" s="142"/>
-      <c r="M6" s="142"/>
-      <c r="N6" s="143"/>
+      <c r="L6" s="143"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="144"/>
       <c r="O6" s="125" t="s">
         <v>272</v>
       </c>
@@ -9795,12 +9829,12 @@
       <c r="J7" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="141" t="s">
+      <c r="K7" s="142" t="s">
         <v>281</v>
       </c>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="144"/>
       <c r="O7" s="125" t="s">
         <v>282</v>
       </c>
@@ -9844,12 +9878,12 @@
       <c r="J8" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="141" t="s">
+      <c r="K8" s="142" t="s">
         <v>287</v>
       </c>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="144"/>
       <c r="O8" s="125" t="s">
         <v>288</v>
       </c>
@@ -9899,12 +9933,12 @@
       <c r="J9" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="141" t="s">
+      <c r="K9" s="142" t="s">
         <v>333</v>
       </c>
-      <c r="L9" s="142"/>
-      <c r="M9" s="142"/>
-      <c r="N9" s="143"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="144"/>
       <c r="O9" s="125" t="s">
         <v>295</v>
       </c>
@@ -9954,12 +9988,12 @@
       <c r="J10" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="K10" s="141" t="s">
+      <c r="K10" s="142" t="s">
         <v>330</v>
       </c>
-      <c r="L10" s="142"/>
-      <c r="M10" s="142"/>
-      <c r="N10" s="143"/>
+      <c r="L10" s="143"/>
+      <c r="M10" s="143"/>
+      <c r="N10" s="144"/>
       <c r="O10" s="129" t="s">
         <v>331</v>
       </c>
@@ -10005,12 +10039,12 @@
       <c r="J11" s="121" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="141" t="s">
+      <c r="K11" s="142" t="s">
         <v>305</v>
       </c>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="143"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="143"/>
+      <c r="N11" s="144"/>
       <c r="O11" s="125" t="s">
         <v>308</v>
       </c>
@@ -10056,12 +10090,12 @@
       <c r="J12" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="141" t="s">
+      <c r="K12" s="142" t="s">
         <v>306</v>
       </c>
-      <c r="L12" s="142"/>
-      <c r="M12" s="142"/>
-      <c r="N12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
+      <c r="N12" s="144"/>
       <c r="O12" s="125" t="s">
         <v>295</v>
       </c>
@@ -10111,12 +10145,12 @@
       <c r="J13" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="141" t="s">
+      <c r="K13" s="142" t="s">
         <v>291</v>
       </c>
-      <c r="L13" s="142"/>
-      <c r="M13" s="142"/>
-      <c r="N13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
+      <c r="N13" s="144"/>
       <c r="O13" s="125" t="s">
         <v>135</v>
       </c>
@@ -10148,10 +10182,10 @@
       <c r="H14" s="63"/>
       <c r="I14" s="63"/>
       <c r="J14" s="82"/>
-      <c r="K14" s="178"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="180"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="180"/>
+      <c r="M14" s="180"/>
+      <c r="N14" s="181"/>
       <c r="O14" s="85"/>
       <c r="P14" s="85"/>
       <c r="Q14" s="76"/>
@@ -10173,10 +10207,10 @@
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="180"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="180"/>
+      <c r="M15" s="180"/>
+      <c r="N15" s="181"/>
       <c r="O15" s="81"/>
       <c r="P15" s="81"/>
       <c r="Q15" s="76"/>
@@ -10198,10 +10232,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="178"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="180"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="181"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -10223,10 +10257,10 @@
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="178"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="180"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="181"/>
       <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="76"/>
@@ -10248,10 +10282,10 @@
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="180"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
       <c r="O18" s="60"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
@@ -10273,10 +10307,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="178"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="180"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="181"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -10298,10 +10332,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="178"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
-      <c r="N20" s="180"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="181"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -10323,10 +10357,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="180"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="181"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -10348,10 +10382,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="180"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="181"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -10373,10 +10407,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="180"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="181"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -10398,10 +10432,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="180"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="181"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -10423,10 +10457,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="180"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="181"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -10448,10 +10482,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="180"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="181"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -10473,10 +10507,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="180"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="181"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -10498,10 +10532,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="180"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="181"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10523,10 +10557,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="180"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="181"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10548,10 +10582,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="180"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="181"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10573,10 +10607,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="180"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="181"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10598,10 +10632,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="180"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="181"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10623,10 +10657,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="180"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="181"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10648,10 +10682,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="179"/>
-      <c r="M34" s="179"/>
-      <c r="N34" s="180"/>
+      <c r="K34" s="179"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="181"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10673,10 +10707,10 @@
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="82"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="180"/>
+      <c r="K35" s="179"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="181"/>
       <c r="O35" s="85"/>
       <c r="P35" s="85"/>
       <c r="Q35" s="76"/>
@@ -10698,10 +10732,10 @@
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
       <c r="J36" s="40"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="179"/>
-      <c r="M36" s="179"/>
-      <c r="N36" s="180"/>
+      <c r="K36" s="179"/>
+      <c r="L36" s="180"/>
+      <c r="M36" s="180"/>
+      <c r="N36" s="181"/>
       <c r="O36" s="60"/>
       <c r="P36" s="60"/>
       <c r="Q36" s="76"/>
@@ -10723,10 +10757,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="178"/>
-      <c r="L37" s="179"/>
-      <c r="M37" s="179"/>
-      <c r="N37" s="180"/>
+      <c r="K37" s="179"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="180"/>
+      <c r="N37" s="181"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10748,10 +10782,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="178"/>
-      <c r="L38" s="179"/>
-      <c r="M38" s="179"/>
-      <c r="N38" s="180"/>
+      <c r="K38" s="179"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="181"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10773,10 +10807,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="178"/>
-      <c r="L39" s="179"/>
-      <c r="M39" s="179"/>
-      <c r="N39" s="180"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="181"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10798,10 +10832,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="178"/>
-      <c r="L40" s="179"/>
-      <c r="M40" s="179"/>
-      <c r="N40" s="180"/>
+      <c r="K40" s="179"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="181"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10823,10 +10857,10 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="178"/>
-      <c r="L41" s="179"/>
-      <c r="M41" s="179"/>
-      <c r="N41" s="180"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="181"/>
       <c r="O41" s="74"/>
       <c r="P41" s="74"/>
       <c r="Q41" s="76"/>
@@ -10848,10 +10882,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="178"/>
-      <c r="L42" s="179"/>
-      <c r="M42" s="179"/>
-      <c r="N42" s="180"/>
+      <c r="K42" s="179"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="180"/>
+      <c r="N42" s="181"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10873,10 +10907,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="178"/>
-      <c r="L43" s="179"/>
-      <c r="M43" s="179"/>
-      <c r="N43" s="180"/>
+      <c r="K43" s="179"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="180"/>
+      <c r="N43" s="181"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10898,10 +10932,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="178"/>
-      <c r="L44" s="179"/>
-      <c r="M44" s="179"/>
-      <c r="N44" s="180"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="180"/>
+      <c r="N44" s="181"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10923,10 +10957,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="178"/>
-      <c r="L45" s="179"/>
-      <c r="M45" s="179"/>
-      <c r="N45" s="180"/>
+      <c r="K45" s="179"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="180"/>
+      <c r="N45" s="181"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10948,10 +10982,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="178"/>
-      <c r="L46" s="179"/>
-      <c r="M46" s="179"/>
-      <c r="N46" s="180"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="180"/>
+      <c r="N46" s="181"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10973,10 +11007,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="178"/>
-      <c r="L47" s="179"/>
-      <c r="M47" s="179"/>
-      <c r="N47" s="180"/>
+      <c r="K47" s="179"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="180"/>
+      <c r="N47" s="181"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -10998,10 +11032,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="178"/>
-      <c r="L48" s="179"/>
-      <c r="M48" s="179"/>
-      <c r="N48" s="180"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="180"/>
+      <c r="M48" s="180"/>
+      <c r="N48" s="181"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -11023,10 +11057,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="178"/>
-      <c r="L49" s="179"/>
-      <c r="M49" s="179"/>
-      <c r="N49" s="180"/>
+      <c r="K49" s="179"/>
+      <c r="L49" s="180"/>
+      <c r="M49" s="180"/>
+      <c r="N49" s="181"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -11048,10 +11082,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="178"/>
-      <c r="L50" s="179"/>
-      <c r="M50" s="179"/>
-      <c r="N50" s="180"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="180"/>
+      <c r="N50" s="181"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -11073,10 +11107,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="178"/>
-      <c r="L51" s="179"/>
-      <c r="M51" s="179"/>
-      <c r="N51" s="180"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="180"/>
+      <c r="N51" s="181"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -11098,10 +11132,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="178"/>
-      <c r="L52" s="179"/>
-      <c r="M52" s="179"/>
-      <c r="N52" s="180"/>
+      <c r="K52" s="179"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="180"/>
+      <c r="N52" s="181"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -11123,10 +11157,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="178"/>
-      <c r="L53" s="179"/>
-      <c r="M53" s="179"/>
-      <c r="N53" s="180"/>
+      <c r="K53" s="179"/>
+      <c r="L53" s="180"/>
+      <c r="M53" s="180"/>
+      <c r="N53" s="181"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -11148,10 +11182,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="178"/>
-      <c r="L54" s="179"/>
-      <c r="M54" s="179"/>
-      <c r="N54" s="180"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="180"/>
+      <c r="N54" s="181"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -11173,10 +11207,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="178"/>
-      <c r="L55" s="179"/>
-      <c r="M55" s="179"/>
-      <c r="N55" s="180"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="180"/>
+      <c r="N55" s="181"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -11198,10 +11232,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="178"/>
-      <c r="L56" s="179"/>
-      <c r="M56" s="179"/>
-      <c r="N56" s="180"/>
+      <c r="K56" s="179"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="180"/>
+      <c r="N56" s="181"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -11223,10 +11257,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="178"/>
-      <c r="L57" s="179"/>
-      <c r="M57" s="179"/>
-      <c r="N57" s="180"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="180"/>
+      <c r="M57" s="180"/>
+      <c r="N57" s="181"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -11248,10 +11282,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="178"/>
-      <c r="L58" s="179"/>
-      <c r="M58" s="179"/>
-      <c r="N58" s="180"/>
+      <c r="K58" s="179"/>
+      <c r="L58" s="180"/>
+      <c r="M58" s="180"/>
+      <c r="N58" s="181"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -11273,10 +11307,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="178"/>
-      <c r="L59" s="179"/>
-      <c r="M59" s="179"/>
-      <c r="N59" s="180"/>
+      <c r="K59" s="179"/>
+      <c r="L59" s="180"/>
+      <c r="M59" s="180"/>
+      <c r="N59" s="181"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -11298,10 +11332,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="178"/>
-      <c r="L60" s="179"/>
-      <c r="M60" s="179"/>
-      <c r="N60" s="180"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="180"/>
+      <c r="M60" s="180"/>
+      <c r="N60" s="181"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -11323,10 +11357,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="178"/>
-      <c r="L61" s="179"/>
-      <c r="M61" s="179"/>
-      <c r="N61" s="180"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="180"/>
+      <c r="M61" s="180"/>
+      <c r="N61" s="181"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -11348,10 +11382,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="178"/>
-      <c r="L62" s="179"/>
-      <c r="M62" s="179"/>
-      <c r="N62" s="180"/>
+      <c r="K62" s="179"/>
+      <c r="L62" s="180"/>
+      <c r="M62" s="180"/>
+      <c r="N62" s="181"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -11373,10 +11407,10 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="178"/>
-      <c r="L63" s="179"/>
-      <c r="M63" s="179"/>
-      <c r="N63" s="180"/>
+      <c r="K63" s="179"/>
+      <c r="L63" s="180"/>
+      <c r="M63" s="180"/>
+      <c r="N63" s="181"/>
       <c r="O63" s="84"/>
       <c r="P63" s="84"/>
       <c r="Q63" s="76"/>
@@ -11398,10 +11432,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="178"/>
-      <c r="L64" s="179"/>
-      <c r="M64" s="179"/>
-      <c r="N64" s="180"/>
+      <c r="K64" s="179"/>
+      <c r="L64" s="180"/>
+      <c r="M64" s="180"/>
+      <c r="N64" s="181"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -11423,10 +11457,10 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="178"/>
-      <c r="L65" s="179"/>
-      <c r="M65" s="179"/>
-      <c r="N65" s="180"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="180"/>
+      <c r="M65" s="180"/>
+      <c r="N65" s="181"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
@@ -11446,10 +11480,10 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="178"/>
-      <c r="L66" s="179"/>
-      <c r="M66" s="179"/>
-      <c r="N66" s="180"/>
+      <c r="K66" s="179"/>
+      <c r="L66" s="180"/>
+      <c r="M66" s="180"/>
+      <c r="N66" s="181"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
@@ -11469,10 +11503,10 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="178"/>
-      <c r="L67" s="179"/>
-      <c r="M67" s="179"/>
-      <c r="N67" s="180"/>
+      <c r="K67" s="179"/>
+      <c r="L67" s="180"/>
+      <c r="M67" s="180"/>
+      <c r="N67" s="181"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
@@ -11492,10 +11526,10 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="178"/>
-      <c r="L68" s="179"/>
-      <c r="M68" s="179"/>
-      <c r="N68" s="180"/>
+      <c r="K68" s="179"/>
+      <c r="L68" s="180"/>
+      <c r="M68" s="180"/>
+      <c r="N68" s="181"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
@@ -11515,10 +11549,10 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="178"/>
-      <c r="L69" s="179"/>
-      <c r="M69" s="179"/>
-      <c r="N69" s="180"/>
+      <c r="K69" s="179"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="180"/>
+      <c r="N69" s="181"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
@@ -11538,10 +11572,10 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="178"/>
-      <c r="L70" s="179"/>
-      <c r="M70" s="179"/>
-      <c r="N70" s="180"/>
+      <c r="K70" s="179"/>
+      <c r="L70" s="180"/>
+      <c r="M70" s="180"/>
+      <c r="N70" s="181"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
@@ -11561,10 +11595,10 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="178"/>
-      <c r="L71" s="179"/>
-      <c r="M71" s="179"/>
-      <c r="N71" s="180"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="180"/>
+      <c r="M71" s="180"/>
+      <c r="N71" s="181"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
@@ -11584,10 +11618,10 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="178"/>
-      <c r="L72" s="179"/>
-      <c r="M72" s="179"/>
-      <c r="N72" s="180"/>
+      <c r="K72" s="179"/>
+      <c r="L72" s="180"/>
+      <c r="M72" s="180"/>
+      <c r="N72" s="181"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
@@ -11607,10 +11641,10 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="178"/>
-      <c r="L73" s="179"/>
-      <c r="M73" s="179"/>
-      <c r="N73" s="180"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="180"/>
+      <c r="M73" s="180"/>
+      <c r="N73" s="181"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
@@ -11630,10 +11664,10 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="178"/>
-      <c r="L74" s="179"/>
-      <c r="M74" s="179"/>
-      <c r="N74" s="180"/>
+      <c r="K74" s="179"/>
+      <c r="L74" s="180"/>
+      <c r="M74" s="180"/>
+      <c r="N74" s="181"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
@@ -11653,10 +11687,10 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="178"/>
-      <c r="L75" s="179"/>
-      <c r="M75" s="179"/>
-      <c r="N75" s="180"/>
+      <c r="K75" s="179"/>
+      <c r="L75" s="180"/>
+      <c r="M75" s="180"/>
+      <c r="N75" s="181"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
@@ -11676,10 +11710,10 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="178"/>
-      <c r="L76" s="179"/>
-      <c r="M76" s="179"/>
-      <c r="N76" s="180"/>
+      <c r="K76" s="179"/>
+      <c r="L76" s="180"/>
+      <c r="M76" s="180"/>
+      <c r="N76" s="181"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
@@ -11699,10 +11733,10 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="178"/>
-      <c r="L77" s="179"/>
-      <c r="M77" s="179"/>
-      <c r="N77" s="180"/>
+      <c r="K77" s="179"/>
+      <c r="L77" s="180"/>
+      <c r="M77" s="180"/>
+      <c r="N77" s="181"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
@@ -11722,10 +11756,10 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="178"/>
-      <c r="L78" s="179"/>
-      <c r="M78" s="179"/>
-      <c r="N78" s="180"/>
+      <c r="K78" s="179"/>
+      <c r="L78" s="180"/>
+      <c r="M78" s="180"/>
+      <c r="N78" s="181"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
@@ -11745,10 +11779,10 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="178"/>
-      <c r="L79" s="179"/>
-      <c r="M79" s="179"/>
-      <c r="N79" s="180"/>
+      <c r="K79" s="179"/>
+      <c r="L79" s="180"/>
+      <c r="M79" s="180"/>
+      <c r="N79" s="181"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
@@ -11768,10 +11802,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="178"/>
-      <c r="L80" s="179"/>
-      <c r="M80" s="179"/>
-      <c r="N80" s="180"/>
+      <c r="K80" s="179"/>
+      <c r="L80" s="180"/>
+      <c r="M80" s="180"/>
+      <c r="N80" s="181"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11791,10 +11825,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="178"/>
-      <c r="L81" s="179"/>
-      <c r="M81" s="179"/>
-      <c r="N81" s="180"/>
+      <c r="K81" s="179"/>
+      <c r="L81" s="180"/>
+      <c r="M81" s="180"/>
+      <c r="N81" s="181"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11814,10 +11848,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="178"/>
-      <c r="L82" s="179"/>
-      <c r="M82" s="179"/>
-      <c r="N82" s="180"/>
+      <c r="K82" s="179"/>
+      <c r="L82" s="180"/>
+      <c r="M82" s="180"/>
+      <c r="N82" s="181"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11837,10 +11871,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="178"/>
-      <c r="L83" s="179"/>
-      <c r="M83" s="179"/>
-      <c r="N83" s="180"/>
+      <c r="K83" s="179"/>
+      <c r="L83" s="180"/>
+      <c r="M83" s="180"/>
+      <c r="N83" s="181"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11860,10 +11894,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="178"/>
-      <c r="L84" s="179"/>
-      <c r="M84" s="179"/>
-      <c r="N84" s="180"/>
+      <c r="K84" s="179"/>
+      <c r="L84" s="180"/>
+      <c r="M84" s="180"/>
+      <c r="N84" s="181"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11883,10 +11917,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="178"/>
-      <c r="L85" s="179"/>
-      <c r="M85" s="179"/>
-      <c r="N85" s="180"/>
+      <c r="K85" s="179"/>
+      <c r="L85" s="180"/>
+      <c r="M85" s="180"/>
+      <c r="N85" s="181"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11906,10 +11940,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="178"/>
-      <c r="L86" s="179"/>
-      <c r="M86" s="179"/>
-      <c r="N86" s="180"/>
+      <c r="K86" s="179"/>
+      <c r="L86" s="180"/>
+      <c r="M86" s="180"/>
+      <c r="N86" s="181"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11929,10 +11963,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="178"/>
-      <c r="L87" s="179"/>
-      <c r="M87" s="179"/>
-      <c r="N87" s="180"/>
+      <c r="K87" s="179"/>
+      <c r="L87" s="180"/>
+      <c r="M87" s="180"/>
+      <c r="N87" s="181"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -11952,10 +11986,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="178"/>
-      <c r="L88" s="179"/>
-      <c r="M88" s="179"/>
-      <c r="N88" s="180"/>
+      <c r="K88" s="179"/>
+      <c r="L88" s="180"/>
+      <c r="M88" s="180"/>
+      <c r="N88" s="181"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -11975,10 +12009,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="178"/>
-      <c r="L89" s="179"/>
-      <c r="M89" s="179"/>
-      <c r="N89" s="180"/>
+      <c r="K89" s="179"/>
+      <c r="L89" s="180"/>
+      <c r="M89" s="180"/>
+      <c r="N89" s="181"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -11998,10 +12032,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="178"/>
-      <c r="L90" s="179"/>
-      <c r="M90" s="179"/>
-      <c r="N90" s="180"/>
+      <c r="K90" s="179"/>
+      <c r="L90" s="180"/>
+      <c r="M90" s="180"/>
+      <c r="N90" s="181"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -12021,10 +12055,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="178"/>
-      <c r="L91" s="179"/>
-      <c r="M91" s="179"/>
-      <c r="N91" s="180"/>
+      <c r="K91" s="179"/>
+      <c r="L91" s="180"/>
+      <c r="M91" s="180"/>
+      <c r="N91" s="181"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -12044,10 +12078,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="178"/>
-      <c r="L92" s="179"/>
-      <c r="M92" s="179"/>
-      <c r="N92" s="180"/>
+      <c r="K92" s="179"/>
+      <c r="L92" s="180"/>
+      <c r="M92" s="180"/>
+      <c r="N92" s="181"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -12067,10 +12101,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="178"/>
-      <c r="L93" s="179"/>
-      <c r="M93" s="179"/>
-      <c r="N93" s="180"/>
+      <c r="K93" s="179"/>
+      <c r="L93" s="180"/>
+      <c r="M93" s="180"/>
+      <c r="N93" s="181"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -12090,10 +12124,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="178"/>
-      <c r="L94" s="179"/>
-      <c r="M94" s="179"/>
-      <c r="N94" s="180"/>
+      <c r="K94" s="179"/>
+      <c r="L94" s="180"/>
+      <c r="M94" s="180"/>
+      <c r="N94" s="181"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -12113,10 +12147,10 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="178"/>
-      <c r="L95" s="179"/>
-      <c r="M95" s="179"/>
-      <c r="N95" s="180"/>
+      <c r="K95" s="179"/>
+      <c r="L95" s="180"/>
+      <c r="M95" s="180"/>
+      <c r="N95" s="181"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
@@ -12252,8 +12286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12269,10 +12303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12303,8 +12337,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12601,13 +12635,13 @@
     <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="73"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="188" t="s">
+      <c r="C25" s="185" t="s">
         <v>334</v>
       </c>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
@@ -12643,12 +12677,12 @@
     <row r="28" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="73"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="182" t="s">
+      <c r="C28" s="183" t="s">
         <v>316</v>
       </c>
-      <c r="D28" s="182"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
@@ -12685,12 +12719,12 @@
     <row r="31" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="73"/>
       <c r="B31" s="43"/>
-      <c r="C31" s="183" t="s">
+      <c r="C31" s="184" t="s">
         <v>320</v>
       </c>
-      <c r="D31" s="183"/>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -13496,10 +13530,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="144"/>
+      <c r="B1" s="145"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13527,8 +13561,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="144"/>
-      <c r="B2" s="144"/>
+      <c r="A2" s="145"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13939,14 +13973,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="184" t="s">
+      <c r="B1" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -14139,11 +14173,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="185" t="s">
+      <c r="E27" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="186"/>
-      <c r="G27" s="187"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="189"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="754" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="754" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="339">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2736,15 +2736,6 @@
     <t>Not In List</t>
   </si>
   <si>
-    <t>LinkAdd</t>
-  </si>
-  <si>
-    <t>LinkEdit</t>
-  </si>
-  <si>
-    <t>LinkView</t>
-  </si>
-  <si>
     <t>EXEC PROCEDURE [dbo].[CP0144]  
  @DivisionID NVARCHAR(50),
  @RouteID NVARCHAR(50), @UserID AS VARCHAR(50) = ''</t>
@@ -2784,6 +2775,15 @@
 -&gt;Danh mục sơ đồ tuyến 
 -&gt; Click Thực hiện / RightClick GirdData
 -&gt;Cập nhật sơ đồ tuyến</t>
+  </si>
+  <si>
+    <t>Click LinkAdd</t>
+  </si>
+  <si>
+    <t>Click LinkEdit</t>
+  </si>
+  <si>
+    <t>Click LinkView</t>
   </si>
 </sst>
 </file>
@@ -3591,6 +3591,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3618,9 +3621,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3691,6 +3691,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3698,18 +3710,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4127,10 +4127,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4157,8 +4157,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4197,14 +4197,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="146"/>
-      <c r="G4" s="146"/>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146"/>
-      <c r="J4" s="146"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -4221,14 +4221,14 @@
         <f>H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="148" t="s">
         <v>325</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="139"/>
+      <c r="H5" s="139"/>
+      <c r="I5" s="139"/>
+      <c r="J5" s="139"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="90">
@@ -4255,12 +4255,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="139"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="141"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -4271,12 +4271,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="144"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="144"/>
+      <c r="G8" s="144"/>
+      <c r="H8" s="144"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -4287,12 +4287,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="142"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -4303,12 +4303,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="142"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -4319,12 +4319,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="141"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="142"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -4351,12 +4351,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="141"/>
+      <c r="E13" s="140"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="141"/>
+      <c r="I13" s="141"/>
+      <c r="J13" s="142"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -4367,12 +4367,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="139"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="141"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="142"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="148"/>
+      <c r="E15" s="139"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="139"/>
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4399,12 +4399,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4415,12 +4415,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="148"/>
-      <c r="F17" s="148"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="148"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="148"/>
+      <c r="E17" s="139"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4431,12 +4431,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
+      <c r="E18" s="139"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="139"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="139"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4447,12 +4447,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="148"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="148"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="148"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="139"/>
+      <c r="H19" s="139"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="139"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4463,12 +4463,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="148"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="148"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="139"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4479,12 +4479,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="148"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="148"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="148"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="139"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="139"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4495,12 +4495,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="148"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="148"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="148"/>
+      <c r="E22" s="139"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="139"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4511,12 +4511,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
+      <c r="E23" s="139"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="139"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4527,12 +4527,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="148"/>
-      <c r="F24" s="148"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="148"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="148"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="139"/>
+      <c r="I24" s="139"/>
+      <c r="J24" s="139"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4543,12 +4543,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="139"/>
+      <c r="I25" s="139"/>
+      <c r="J25" s="139"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4559,12 +4559,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="148"/>
-      <c r="F26" s="148"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="148"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="148"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="139"/>
+      <c r="I26" s="139"/>
+      <c r="J26" s="139"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4575,12 +4575,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="148"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="148"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="139"/>
+      <c r="J27" s="139"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4591,12 +4591,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="148"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="148"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4607,12 +4607,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="148"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="148"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4623,12 +4623,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="148"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4639,12 +4639,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="148"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="148"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4655,12 +4655,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="148"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="148"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="148"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4671,12 +4671,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="148"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="148"/>
+      <c r="E33" s="139"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
+      <c r="J33" s="139"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4687,12 +4687,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4703,12 +4703,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="148"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
+      <c r="H35" s="139"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="139"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4719,12 +4719,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="148"/>
-      <c r="F36" s="148"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="148"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
+      <c r="E36" s="139"/>
+      <c r="F36" s="139"/>
+      <c r="G36" s="139"/>
+      <c r="H36" s="139"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="139"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4735,12 +4735,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
+      <c r="J37" s="139"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4751,12 +4751,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
+      <c r="E38" s="139"/>
+      <c r="F38" s="139"/>
+      <c r="G38" s="139"/>
+      <c r="H38" s="139"/>
+      <c r="I38" s="139"/>
+      <c r="J38" s="139"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4767,12 +4767,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="148"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="148"/>
-      <c r="H39" s="148"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="148"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="139"/>
+      <c r="J39" s="139"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4783,12 +4783,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="148"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="148"/>
-      <c r="H40" s="148"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="148"/>
+      <c r="E40" s="139"/>
+      <c r="F40" s="139"/>
+      <c r="G40" s="139"/>
+      <c r="H40" s="139"/>
+      <c r="I40" s="139"/>
+      <c r="J40" s="139"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4799,12 +4799,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="148"/>
-      <c r="F41" s="148"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="148"/>
+      <c r="E41" s="139"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="139"/>
+      <c r="H41" s="139"/>
+      <c r="I41" s="139"/>
+      <c r="J41" s="139"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4815,32 +4815,23 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="148"/>
-      <c r="F42" s="148"/>
-      <c r="G42" s="148"/>
-      <c r="H42" s="148"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="148"/>
+      <c r="E42" s="139"/>
+      <c r="F42" s="139"/>
+      <c r="G42" s="139"/>
+      <c r="H42" s="139"/>
+      <c r="I42" s="139"/>
+      <c r="J42" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4856,14 +4847,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -5061,7 +5061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="I12" sqref="I12:J43"/>
     </sheetView>
   </sheetViews>
@@ -5080,10 +5080,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5114,8 +5114,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5259,7 +5259,7 @@
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
       <c r="I12" s="155" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="J12" s="156"/>
     </row>
@@ -5692,13 +5692,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5732,11 +5732,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -7522,7 +7522,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E12" s="84" t="s">
         <v>247</v>
@@ -7530,13 +7530,13 @@
       <c r="F12" s="40"/>
       <c r="G12" s="62"/>
       <c r="H12" s="138" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I12" s="138" t="s">
         <v>252</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="K12" s="69"/>
       <c r="L12" s="110"/>
@@ -8278,8 +8278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8304,7 +8304,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="127"/>
@@ -8341,7 +8341,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="178"/>
+      <c r="A2" s="175"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
       <c r="D2" s="31" t="s">
@@ -8394,15 +8394,15 @@
       <c r="F4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="145" t="s">
+      <c r="G4" s="146" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145" t="s">
+      <c r="H4" s="146"/>
+      <c r="I4" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="145"/>
-      <c r="K4" s="145"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -8414,22 +8414,20 @@
       <c r="C5" s="33">
         <v>51</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>327</v>
-      </c>
+      <c r="D5" s="33"/>
       <c r="E5" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G5" s="175" t="s">
+      <c r="F5" s="32"/>
+      <c r="G5" s="172" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="176"/>
-      <c r="I5" s="172"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="174"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="176" t="s">
+        <v>336</v>
+      </c>
+      <c r="J5" s="177"/>
+      <c r="K5" s="178"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -8441,22 +8439,20 @@
       <c r="C6" s="33">
         <v>51</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>328</v>
-      </c>
+      <c r="D6" s="33"/>
       <c r="E6" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G6" s="175" t="s">
+      <c r="F6" s="32"/>
+      <c r="G6" s="172" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="176"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="173"/>
-      <c r="K6" s="174"/>
+      <c r="H6" s="173"/>
+      <c r="I6" s="176" t="s">
+        <v>337</v>
+      </c>
+      <c r="J6" s="177"/>
+      <c r="K6" s="178"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8468,22 +8464,20 @@
       <c r="C7" s="33">
         <v>51</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>329</v>
-      </c>
+      <c r="D7" s="33"/>
       <c r="E7" s="132" t="s">
         <v>261</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="175" t="s">
+      <c r="F7" s="32"/>
+      <c r="G7" s="172" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="176"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="173"/>
-      <c r="K7" s="174"/>
+      <c r="H7" s="173"/>
+      <c r="I7" s="176" t="s">
+        <v>338</v>
+      </c>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8494,11 +8488,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="176"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="174"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="178"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8509,11 +8503,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="173"/>
-      <c r="K9" s="174"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8524,11 +8518,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="174"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8539,11 +8533,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="173"/>
-      <c r="K11" s="174"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8554,11 +8548,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="173"/>
-      <c r="K12" s="174"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="178"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8569,11 +8563,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="174"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8584,11 +8578,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="176"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="173"/>
-      <c r="K14" s="174"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8599,11 +8593,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="173"/>
-      <c r="K15" s="174"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="178"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8614,11 +8608,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="176"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
-      <c r="K16" s="174"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8629,11 +8623,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="176"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="173"/>
-      <c r="K17" s="174"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8644,11 +8638,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="174"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="178"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8659,11 +8653,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="176"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="173"/>
-      <c r="K19" s="174"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="178"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8674,11 +8668,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="173"/>
-      <c r="K20" s="174"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="178"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8689,11 +8683,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="176"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="174"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="178"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8704,11 +8698,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="141"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="173"/>
-      <c r="K22" s="174"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="178"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8719,11 +8713,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="173"/>
-      <c r="K23" s="174"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8734,11 +8728,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="141"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="173"/>
-      <c r="K24" s="174"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="142"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="178"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8749,11 +8743,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="141"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="174"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8764,11 +8758,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="173"/>
-      <c r="K26" s="174"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="142"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="178"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8779,11 +8773,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="141"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="173"/>
-      <c r="K27" s="174"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="178"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8794,11 +8788,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="173"/>
-      <c r="K28" s="174"/>
+      <c r="G28" s="140"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8809,11 +8803,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="141"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="173"/>
-      <c r="K29" s="174"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="178"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8824,11 +8818,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="141"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="173"/>
-      <c r="K30" s="174"/>
+      <c r="G30" s="140"/>
+      <c r="H30" s="142"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="178"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8839,11 +8833,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="141"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="173"/>
-      <c r="K31" s="174"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="142"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="178"/>
     </row>
     <row r="32" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -8854,11 +8848,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="141"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="173"/>
-      <c r="K32" s="174"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="142"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="178"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -8876,11 +8870,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="141"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="173"/>
-      <c r="K33" s="174"/>
+      <c r="G33" s="140"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8898,11 +8892,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="173"/>
-      <c r="K34" s="174"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="142"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="178"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8920,11 +8914,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="141"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="174"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="178"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8942,11 +8936,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="173"/>
-      <c r="K36" s="174"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="142"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="178"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8964,11 +8958,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="141"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="173"/>
-      <c r="K37" s="174"/>
+      <c r="G37" s="140"/>
+      <c r="H37" s="142"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="178"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8986,11 +8980,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="173"/>
-      <c r="K38" s="174"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="178"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9008,11 +9002,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="141"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="173"/>
-      <c r="K39" s="174"/>
+      <c r="G39" s="140"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="178"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9030,11 +9024,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="141"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173"/>
-      <c r="K40" s="174"/>
+      <c r="G40" s="140"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="178"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9052,11 +9046,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="173"/>
-      <c r="K41" s="174"/>
+      <c r="G41" s="140"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="178"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9074,11 +9068,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="141"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="173"/>
-      <c r="K42" s="174"/>
+      <c r="G42" s="140"/>
+      <c r="H42" s="142"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="178"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9096,11 +9090,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="141"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="173"/>
-      <c r="K43" s="174"/>
+      <c r="G43" s="140"/>
+      <c r="H43" s="142"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="178"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9118,11 +9112,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="141"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="173"/>
-      <c r="K44" s="174"/>
+      <c r="G44" s="140"/>
+      <c r="H44" s="142"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="178"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9140,11 +9134,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="139"/>
-      <c r="H45" s="141"/>
-      <c r="I45" s="172"/>
-      <c r="J45" s="173"/>
-      <c r="K45" s="174"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="142"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="177"/>
+      <c r="K45" s="178"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9162,11 +9156,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="141"/>
-      <c r="I46" s="172"/>
-      <c r="J46" s="173"/>
-      <c r="K46" s="174"/>
+      <c r="G46" s="140"/>
+      <c r="H46" s="142"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="178"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9184,11 +9178,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="139"/>
-      <c r="H47" s="141"/>
-      <c r="I47" s="172"/>
-      <c r="J47" s="173"/>
-      <c r="K47" s="174"/>
+      <c r="G47" s="140"/>
+      <c r="H47" s="142"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="177"/>
+      <c r="K47" s="178"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9206,11 +9200,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="139"/>
-      <c r="H48" s="141"/>
-      <c r="I48" s="172"/>
-      <c r="J48" s="173"/>
-      <c r="K48" s="174"/>
+      <c r="G48" s="140"/>
+      <c r="H48" s="142"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="177"/>
+      <c r="K48" s="178"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9228,11 +9222,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="139"/>
-      <c r="H49" s="141"/>
-      <c r="I49" s="172"/>
-      <c r="J49" s="173"/>
-      <c r="K49" s="174"/>
+      <c r="G49" s="140"/>
+      <c r="H49" s="142"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="177"/>
+      <c r="K49" s="178"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9250,11 +9244,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="141"/>
-      <c r="I50" s="172"/>
-      <c r="J50" s="173"/>
-      <c r="K50" s="174"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="142"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="178"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9272,11 +9266,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="141"/>
-      <c r="I51" s="172"/>
-      <c r="J51" s="173"/>
-      <c r="K51" s="174"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="177"/>
+      <c r="K51" s="178"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9294,11 +9288,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="139"/>
-      <c r="H52" s="141"/>
-      <c r="I52" s="172"/>
-      <c r="J52" s="173"/>
-      <c r="K52" s="174"/>
+      <c r="G52" s="140"/>
+      <c r="H52" s="142"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="177"/>
+      <c r="K52" s="178"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -9316,11 +9310,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="139"/>
-      <c r="H53" s="141"/>
-      <c r="I53" s="172"/>
-      <c r="J53" s="173"/>
-      <c r="K53" s="174"/>
+      <c r="G53" s="140"/>
+      <c r="H53" s="142"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="177"/>
+      <c r="K53" s="178"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -9338,11 +9332,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="172"/>
-      <c r="J54" s="173"/>
-      <c r="K54" s="174"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="142"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="177"/>
+      <c r="K54" s="178"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -9360,11 +9354,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="139"/>
-      <c r="H55" s="141"/>
-      <c r="I55" s="172"/>
-      <c r="J55" s="173"/>
-      <c r="K55" s="174"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="142"/>
+      <c r="I55" s="176"/>
+      <c r="J55" s="177"/>
+      <c r="K55" s="178"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9382,11 +9376,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="172"/>
-      <c r="J56" s="173"/>
-      <c r="K56" s="174"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="142"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="177"/>
+      <c r="K56" s="178"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9398,25 +9392,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -9431,80 +9480,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -9556,16 +9550,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
@@ -9601,14 +9595,14 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="145"/>
-      <c r="F2" s="145"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
@@ -9727,12 +9721,12 @@
       <c r="J5" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="142" t="s">
+      <c r="K5" s="143" t="s">
         <v>268</v>
       </c>
-      <c r="L5" s="143"/>
-      <c r="M5" s="143"/>
-      <c r="N5" s="144"/>
+      <c r="L5" s="144"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="145"/>
       <c r="O5" s="125" t="s">
         <v>270</v>
       </c>
@@ -9778,12 +9772,12 @@
       <c r="J6" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="K6" s="142" t="s">
+      <c r="K6" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="L6" s="143"/>
-      <c r="M6" s="143"/>
-      <c r="N6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="145"/>
       <c r="O6" s="125" t="s">
         <v>272</v>
       </c>
@@ -9829,12 +9823,12 @@
       <c r="J7" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="142" t="s">
+      <c r="K7" s="143" t="s">
         <v>281</v>
       </c>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="145"/>
       <c r="O7" s="125" t="s">
         <v>282</v>
       </c>
@@ -9878,12 +9872,12 @@
       <c r="J8" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="142" t="s">
+      <c r="K8" s="143" t="s">
         <v>287</v>
       </c>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="144"/>
+      <c r="L8" s="144"/>
+      <c r="M8" s="144"/>
+      <c r="N8" s="145"/>
       <c r="O8" s="125" t="s">
         <v>288</v>
       </c>
@@ -9933,12 +9927,12 @@
       <c r="J9" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="142" t="s">
-        <v>333</v>
-      </c>
-      <c r="L9" s="143"/>
-      <c r="M9" s="143"/>
-      <c r="N9" s="144"/>
+      <c r="K9" s="143" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="145"/>
       <c r="O9" s="125" t="s">
         <v>295</v>
       </c>
@@ -9988,17 +9982,17 @@
       <c r="J10" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="K10" s="142" t="s">
-        <v>330</v>
-      </c>
-      <c r="L10" s="143"/>
-      <c r="M10" s="143"/>
-      <c r="N10" s="144"/>
+      <c r="K10" s="143" t="s">
+        <v>327</v>
+      </c>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="145"/>
       <c r="O10" s="129" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="P10" s="129" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="76" t="s">
         <v>106</v>
@@ -10039,12 +10033,12 @@
       <c r="J11" s="121" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="142" t="s">
+      <c r="K11" s="143" t="s">
         <v>305</v>
       </c>
-      <c r="L11" s="143"/>
-      <c r="M11" s="143"/>
-      <c r="N11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="145"/>
       <c r="O11" s="125" t="s">
         <v>308</v>
       </c>
@@ -10090,12 +10084,12 @@
       <c r="J12" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="142" t="s">
+      <c r="K12" s="143" t="s">
         <v>306</v>
       </c>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
-      <c r="N12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="145"/>
       <c r="O12" s="125" t="s">
         <v>295</v>
       </c>
@@ -10145,12 +10139,12 @@
       <c r="J13" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="K13" s="142" t="s">
+      <c r="K13" s="143" t="s">
         <v>291</v>
       </c>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
-      <c r="N13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="145"/>
       <c r="O13" s="125" t="s">
         <v>135</v>
       </c>
@@ -12163,33 +12157,58 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="95">
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K52:N52"/>
     <mergeCell ref="K94:N94"/>
     <mergeCell ref="K95:N95"/>
     <mergeCell ref="K5:N5"/>
@@ -12206,58 +12225,33 @@
     <mergeCell ref="K70:N70"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K72:N72"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K53:N53"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
@@ -12303,10 +12297,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12337,8 +12331,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12636,7 +12630,7 @@
       <c r="A25" s="73"/>
       <c r="B25" s="43"/>
       <c r="C25" s="185" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D25" s="185"/>
       <c r="E25" s="185"/>
@@ -13530,10 +13524,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="145"/>
+      <c r="B1" s="146"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13561,8 +13555,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="145"/>
-      <c r="B2" s="145"/>
+      <c r="A2" s="146"/>
+      <c r="B2" s="146"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="754" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="754" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
   <definedNames>
     <definedName name="OLE_LINK1" localSheetId="9">'Code Standar'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Data Definition'!$A$1:$Q$58</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'Data Input'!$A$1:$S$96</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Form Func Spec'!$A$1:$J$59</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Func Spec'!$A$1:$J$32</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">Help!$A$1:$K$62</definedName>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="354">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2376,6 +2376,337 @@
     <t>00ML000061</t>
   </si>
   <si>
+    <t>Cho phép thêm mới, sửa và xem một sơ đồ tuyến</t>
+  </si>
+  <si>
+    <t>1. Thêm mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT CT41.StationID, CT41.StationName, CT41.[Address], CT41.Street, CT41.Ward, CT41.District,
+       CT41.[Description] AS Notes
+FROM CT0141 CT41
+WHERE CT41.DivisionID = @DivisionID AND CT41.[Disabled] = 0
+ORDER BY CT41.StationID
+</t>
+  </si>
+  <si>
+    <t>SELECT TOP 1 1 
+FROM CT0143
+WHERE DivisionID = @DivisionID AND RouteID = @RouteID</t>
+  </si>
+  <si>
+    <t>@DivisionID
+@Disabled</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+0</t>
+  </si>
+  <si>
+    <t>@DivisionID
+@RouteID</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+@@RouteID</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>ColumnGird StationID</t>
+  </si>
+  <si>
+    <t>Load combo cho SationID</t>
+  </si>
+  <si>
+    <t>CT0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StaionID, StationName, Address, Street, Ward, District, Description   </t>
+  </si>
+  <si>
+    <t>Mã địa điểm, Tên địa điểm, Địa chỉ, Đường, Phường/Xã, Quận/Huyện, Ghi chú</t>
+  </si>
+  <si>
+    <t>CT0143</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Kiểm tra điều kiện @DivisionID và @RouteID trước khi lưu</t>
+  </si>
+  <si>
+    <t>Thỏa câu @SQL0002 thực thi câu SQL này để Insert dữ liệu vào DB</t>
+  </si>
+  <si>
+    <t>INSERT INTO CT0144(DivisionID, RouteID, TransactionID, StationID, StationOrder, Notes)
+VALUES(@DivisionID, @RouteID, @TransactionID,@StationID, @StationOrder, @Notes)</t>
+  </si>
+  <si>
+    <t>@DivisionID @RouteID @TransactionID @StationID @StationOrder @Notes</t>
+  </si>
+  <si>
+    <t>Thỏa câu @SQL0002 thực thi câu SQL này để Insert dữ liệu vào DB
+TransactionID sinh theo nguyên tắc APK(NEWID())</t>
+  </si>
+  <si>
+    <t>@@DivisionID
+@@RouteID
+@@TransactionID
+@@StationID
+@@StationOrder
+@@Notes</t>
+  </si>
+  <si>
+    <t>@SQL0009</t>
+  </si>
+  <si>
+    <t>@@DivisionID</t>
+  </si>
+  <si>
+    <t>Load DB lên Form CF0143</t>
+  </si>
+  <si>
+    <t>@DivisionID @RouteID</t>
+  </si>
+  <si>
+    <t>@@DivisionID CF0143.Grid.RouteID</t>
+  </si>
+  <si>
+    <t>Load dữ liệu lên Form Master</t>
+  </si>
+  <si>
+    <t>Load form khi Edit, View Master</t>
+  </si>
+  <si>
+    <t>Load form khi Edit, View Detail</t>
+  </si>
+  <si>
+    <t>CT0144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StationOrder, StaionID, StationName, Address, Street, Ward, District, Description   </t>
+  </si>
+  <si>
+    <t>Thứ tự địa điểm, Mã địa điểm, Tên địa điểm, Địa chỉ, Đường, Phường/Xã, Quận/Huyện, Ghi chú</t>
+  </si>
+  <si>
+    <t>DELETE FROM CT0144
+WHERE DivisionID = @DivisionID AND RouteID = @RouteID</t>
+  </si>
+  <si>
+    <t>Load lưới truy vấn form CF0143</t>
+  </si>
+  <si>
+    <t>Update dữ liệu khi thực hiện lưu sau khi Edit</t>
+  </si>
+  <si>
+    <t>Thực hiện khi sửa dữ liêu trong form detail</t>
+  </si>
+  <si>
+    <t>- Tham khảo luồng nghiệp vụ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Nếu =1 cảnh báo message 00ML000053 và không cho lưu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Edit </t>
+  </si>
+  <si>
+    <t>- Tham khảo luồng nghiệp vụ 2</t>
+  </si>
+  <si>
+    <t>Load dữ liệu lên Form Detail
+TransactionID sinh theo kiểu APK (NEWID())</t>
+  </si>
+  <si>
+    <t>@StationOrder</t>
+  </si>
+  <si>
+    <t>Nhập thứ tự hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tạo mới tài liệu
+- Cập nhật sơ đồ tuyến </t>
+  </si>
+  <si>
+    <t>Not In List</t>
+  </si>
+  <si>
+    <t>EXEC PROCEDURE [dbo].[CP0144]  
+ @DivisionID NVARCHAR(50),
+ @RouteID NVARCHAR(50), @UserID AS VARCHAR(50) = ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@DivisionID @RouteID
+@UserID
+</t>
+  </si>
+  <si>
+    <t>@@DivisionID CF0143.Grid.RouteID
+@@UserID</t>
+  </si>
+  <si>
+    <t>- Click BtnSave confirm message 00ML000016 nếu chọn Yes
+- Kiểm tra Input Check nếu không thỏa thì hiển thị thông báo và không cho Lưu</t>
+  </si>
+  <si>
+    <t>00ML000088</t>
+  </si>
+  <si>
+    <t>Copy mã chứa dấu or ký tự đặc biệt</t>
+  </si>
+  <si>
+    <t>Login -&gt; S 
+-&gt; Phân hệ
+-&gt; Thông tin dùng chung - ASOFT - CI 
+-&gt;Danh mục sơ đồ tuyến 
+-&gt; Click Thực hiện / RightClick GirdData
+-&gt;Cập nhật sơ đồ tuyến</t>
+  </si>
+  <si>
+    <t>Click LinkAdd</t>
+  </si>
+  <si>
+    <t>Click LinkEdit</t>
+  </si>
+  <si>
+    <t>Click LinkView</t>
+  </si>
+  <si>
+    <t>Nhân viên giao hàng</t>
+  </si>
+  <si>
+    <t>Dùng chung</t>
+  </si>
+  <si>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>IsCommon</t>
+  </si>
+  <si>
+    <t>ComboBox</t>
+  </si>
+  <si>
+    <t>Form Detail</t>
+  </si>
+  <si>
+    <t>AT1103</t>
+  </si>
+  <si>
+    <t>Load combobox EmployeeID trên master</t>
+  </si>
+  <si>
+    <t>@SQL0010</t>
+  </si>
+  <si>
+    <t>EmployeeName</t>
+  </si>
+  <si>
+    <t>Fill ra khi chọn EmployeeID</t>
+  </si>
+  <si>
+    <t>SELECT EmployeeID, EmployeeName 
+FROM AT1103 
+WHERE DivisionID = @DivisionID AND Disabled = 0
+ORDER BY EmployeeID</t>
+  </si>
+  <si>
+    <t>@DivisonID
+@Disabled</t>
+  </si>
+  <si>
+    <t>@@DivisonID
+0</t>
+  </si>
+  <si>
+    <t>Load combo cho Nhân viên giao hàng</t>
+  </si>
+  <si>
+    <t>INSERT INTO CT0143 (DivisionID, RouteID, RouteName, [Description], [Disabled], EmployeeID, IsCommon, CreateUserID, CreateDate, LastModifyUserID, LastModifyDate)
+VALUES (@DivisionID, @RouteID, @RouteName, @Description, @Disabled, @CreateUserID, @CreateDate, @LastModifyUserID, @LastModifyDate)</t>
+  </si>
+  <si>
+    <t>@DivisionID @RouteID @RouteName @Description @Disabled
+@EmployeeID
+@IsCommon @CreateUserID @CreateDate @LastModifyUserID @LastModifyDate</t>
+  </si>
+  <si>
+    <t>@@DivisionID @@RouteID @@RouteName @@Description @@Disabled 
+@@EmployeeID
+@@IsCommon
+@@CreateUserID GETDATE() @@LastModifyUserID GETDATE()</t>
+  </si>
+  <si>
+    <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description],CT43.[Disabled], CT43.EmployeeID, CT43.IsCommon
+FROM CT0143 CT43
+WHERE CT43.DivisionID = @DivisionID AND CT43.RouteID = @RouteID
+ORDER BY CT43.RouteID</t>
+  </si>
+  <si>
+    <t>CT43.RouteID CT43.RouteName CT43.[Description CT43.[Disabled]
+CT43.EmployeeID
+CT43.IsCommon</t>
+  </si>
+  <si>
+    <t>Mã số tuyến Tên tuyến 
+Diễn giả 
+Không hiển thị
+Nhân viên giao hàng
+Dùng chung</t>
+  </si>
+  <si>
+    <t>Mã địa điểm, Mã số tuyến, Nhân viên giao hàng</t>
+  </si>
+  <si>
+    <t>UPDATE CT0143 SET 
+ RouteName = @RouteName,
+    [Description] = @Description,
+    [Disabled] = @Disabled,
+    EmployeeID=@EmployeeID
+    IsCommon = @IsCommon
+    LastModifyUserID = @LastModifyUserID,
+    LastModifyDate = @LastModifyDate
+WHERE DivisionID = @DivisionID AND RouteID = @RouteID</t>
+  </si>
+  <si>
+    <t>@RouteName @Description
+@Disabled 
+@EmployeeID
+@IsCommon
+@LastModifyUserID
+@LastModifyDate
+@DivisionID
+@RouteID</t>
+  </si>
+  <si>
+    <t>@@RouteName @@Description
+@@Disabled 
+@@EmployeeID
+@@IsCommon
+@@LastModifyUserID
+GETDATE()
+@@DivisionID
+@@RouteID</t>
+  </si>
+  <si>
+    <t>SELECT RouteID, RouteName, Description, Disabled, EmployeeID, IsCommon
+FROM CT0143 
+WHERE DivisionID = @DivisionID
+ORDER BY RouteID</t>
+  </si>
+  <si>
+    <t>RouteID
+RouteName
+Description
+Disabled
+EmployeeID
+IsCommon</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Thực thi </t>
     </r>
@@ -2387,7 +2718,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>@SQL0001</t>
+      <t>@SQL0001, @SQL0002</t>
     </r>
     <r>
       <rPr>
@@ -2396,291 +2727,7 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Load combobox StationID trên lưới</t>
-    </r>
-  </si>
-  <si>
-    <t>Cho phép thêm mới, sửa và xem một sơ đồ tuyến</t>
-  </si>
-  <si>
-    <t>1. Thêm mới</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELECT CT41.StationID, CT41.StationName, CT41.[Address], CT41.Street, CT41.Ward, CT41.District,
-       CT41.[Description] AS Notes
-FROM CT0141 CT41
-WHERE CT41.DivisionID = @DivisionID AND CT41.[Disabled] = 0
-ORDER BY CT41.StationID
-</t>
-  </si>
-  <si>
-    <t>SELECT TOP 1 1 
-FROM CT0143
-WHERE DivisionID = @DivisionID AND RouteID = @RouteID</t>
-  </si>
-  <si>
-    <t>@DivisionID
-@Disabled</t>
-  </si>
-  <si>
-    <t>@@DivisionID
-0</t>
-  </si>
-  <si>
-    <t>@DivisionID
-@RouteID</t>
-  </si>
-  <si>
-    <t>@@DivisionID
-@@RouteID</t>
-  </si>
-  <si>
-    <t>Load</t>
-  </si>
-  <si>
-    <t>ColumnGird StationID</t>
-  </si>
-  <si>
-    <t>Load combo cho SationID</t>
-  </si>
-  <si>
-    <t>CT0141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StaionID, StationName, Address, Street, Ward, District, Description   </t>
-  </si>
-  <si>
-    <t>Mã địa điểm, Tên địa điểm, Địa chỉ, Đường, Phường/Xã, Quận/Huyện, Ghi chú</t>
-  </si>
-  <si>
-    <t>CT0143</t>
-  </si>
-  <si>
-    <t>INSERT INTO CT0143 (DivisionID, RouteID, RouteName, [Description], [Disabled], CreateUserID, CreateDate, LastModifyUserID, LastModifyDate)
-VALUES (@DivisionID, @RouteID, @RouteName, @Description, @Disabled, @CreateUserID, @CreateDate, @LastModifyUserID, @LastModifyDate)</t>
-  </si>
-  <si>
-    <t>@DivisionID @RouteID @RouteName @Description @Disabled @CreateUserID @CreateDate @LastModifyUserID @LastModifyDate</t>
-  </si>
-  <si>
-    <t>@@DivisionID @@RouteID @@RouteName @@Description @@Disabled @@CreateUserID GETDATE() @@LastModifyUserID GETDATE()</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Kiểm tra điều kiện @DivisionID và @RouteID trước khi lưu</t>
-  </si>
-  <si>
-    <t>Thỏa câu @SQL0002 thực thi câu SQL này để Insert dữ liệu vào DB</t>
-  </si>
-  <si>
-    <t>INSERT INTO CT0144(DivisionID, RouteID, TransactionID, StationID, StationOrder, Notes)
-VALUES(@DivisionID, @RouteID, @TransactionID,@StationID, @StationOrder, @Notes)</t>
-  </si>
-  <si>
-    <t>@DivisionID @RouteID @TransactionID @StationID @StationOrder @Notes</t>
-  </si>
-  <si>
-    <t>Thỏa câu @SQL0002 thực thi câu SQL này để Insert dữ liệu vào DB
-TransactionID sinh theo nguyên tắc APK(NEWID())</t>
-  </si>
-  <si>
-    <t>@@DivisionID
-@@RouteID
-@@TransactionID
-@@StationID
-@@StationOrder
-@@Notes</t>
-  </si>
-  <si>
-    <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description], CT43.[Disabled] 
-FROM CT0143 CT43
-WHERE CT43.DivisionID = @DivisionID
-ORDER BY CT43.RouteID</t>
-  </si>
-  <si>
-    <t>@SQL0009</t>
-  </si>
-  <si>
-    <t>@@DivisionID</t>
-  </si>
-  <si>
-    <t>Load DB lên Form CF0143</t>
-  </si>
-  <si>
-    <t>@DivisionID @RouteID</t>
-  </si>
-  <si>
-    <t>@@DivisionID CF0143.Grid.RouteID</t>
-  </si>
-  <si>
-    <t>Load dữ liệu lên Form Master</t>
-  </si>
-  <si>
-    <t>Load form khi Edit, View Master</t>
-  </si>
-  <si>
-    <t>Load form khi Edit, View Detail</t>
-  </si>
-  <si>
-    <t>CT0144</t>
-  </si>
-  <si>
-    <t>CT43.RouteID CT43.RouteName CT43.[Description CT43.[Disabled]</t>
-  </si>
-  <si>
-    <t>Mã số tuyến Tên tuyến 
-Diễn giả 
-Không hiển thị</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StationOrder, StaionID, StationName, Address, Street, Ward, District, Description   </t>
-  </si>
-  <si>
-    <t>Thứ tự địa điểm, Mã địa điểm, Tên địa điểm, Địa chỉ, Đường, Phường/Xã, Quận/Huyện, Ghi chú</t>
-  </si>
-  <si>
-    <t>UPDATE CT0143 SET 
- RouteName = @RouteName,
-    [Description] = @Description,
-    [Disabled] = @Disabled,
-    LastModifyUserID = @LastModifyUserID,
-    LastModifyDate = @LastModifyDate
-WHERE DivisionID = @DivisionID AND RouteID = @RouteID</t>
-  </si>
-  <si>
-    <t>DELETE FROM CT0144
-WHERE DivisionID = @DivisionID AND RouteID = @RouteID</t>
-  </si>
-  <si>
-    <t>Load lưới truy vấn form CF0143</t>
-  </si>
-  <si>
-    <t>@RouteName @Description
-@Disabled 
-@LastModifyUserID
-@LastModifyDate
-@DivisionID
-@RouteID</t>
-  </si>
-  <si>
-    <t>Update dữ liệu khi thực hiện lưu sau khi Edit</t>
-  </si>
-  <si>
-    <t>Thực hiện khi sửa dữ liêu trong form detail</t>
-  </si>
-  <si>
-    <t>@@RouteName @@Description
-@@Disabled 
-@@LastModifyUserID
-GETDATE()
-@@DivisionID
-@@RouteID</t>
-  </si>
-  <si>
-    <t>- Tham khảo luồng nghiệp vụ 1</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Thực thi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">@SQL0002 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">để kiểm tra điều kiện trước khi lưu </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> + Nếu =1 cảnh báo message 00ML000053 và không cho lưu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Edit </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> + Nếu =0
-   * Thực thì câu </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">@SQL0003 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">để lưu dữ liệu Master và </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>@SQL0004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> để lưu dữ liệu Detail
-   * Dialog message 00ML000015 và thực thi @SQL0009 để load dữ liệu lên Form CF0143</t>
-    </r>
-  </si>
-  <si>
-    <t>- Tham khảo luồng nghiệp vụ 2</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Thực thi </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">@SQL0005 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>Load form khi Edit, View Master</t>
+      <t xml:space="preserve"> Load combobox StationID và EmployeeID </t>
     </r>
   </si>
   <si>
@@ -2704,86 +2751,106 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
+      <t>Load form khi Edit, View Master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thực thi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">@SQL0007 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
       <t>Load form khi Edit, View Detail</t>
     </r>
   </si>
   <si>
-    <t>- Thực thi @SQL0007 để lưu dữ lưu dữ liệu detail
-- Thực thi @SQL0008 để xóa dữ liệu detail và @SQL0004 để lưu dữ liệu Detail mới
-- Dialog message 00ML000015 và thực thi @SQL0009 để load dữ liệu lên Form CF0143</t>
-  </si>
-  <si>
-    <t>Load dữ liệu lên Form Detail
-TransactionID sinh theo kiểu APK (NEWID())</t>
-  </si>
-  <si>
-    <t>@StationOrder</t>
-  </si>
-  <si>
-    <t>Nhập thứ tự hiển thị</t>
-  </si>
-  <si>
-    <t>RouteID
-RouteName
-Description
-Disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Tạo mới tài liệu
-- Cập nhật sơ đồ tuyến </t>
-  </si>
-  <si>
-    <t>Not In List</t>
-  </si>
-  <si>
-    <t>EXEC PROCEDURE [dbo].[CP0144]  
- @DivisionID NVARCHAR(50),
- @RouteID NVARCHAR(50), @UserID AS VARCHAR(50) = ''</t>
-  </si>
-  <si>
-    <t xml:space="preserve">@DivisionID @RouteID
-@UserID
-</t>
-  </si>
-  <si>
-    <t>@@DivisionID CF0143.Grid.RouteID
-@@UserID</t>
-  </si>
-  <si>
-    <t>SELECT CT43.RouteID, CT43.RouteName, CT43.[Description],CT43.[Disabled] 
-FROM CT0143 CT43
-WHERE CT43.DivisionID = @DivisionID AND CT43.RouteID = @RouteID
-ORDER BY CT43.RouteID</t>
-  </si>
-  <si>
-    <t>- Click BtnSave confirm message 00ML000016 nếu chọn Yes
-- Kiểm tra Input Check nếu không thỏa thì hiển thị thông báo và không cho Lưu</t>
-  </si>
-  <si>
-    <t>00ML000088</t>
-  </si>
-  <si>
-    <t>Copy mã chứa dấu or ký tự đặc biệt</t>
-  </si>
-  <si>
-    <t>Mã địa điểm, Mã số tuyến</t>
-  </si>
-  <si>
-    <t>Login -&gt; S 
--&gt; Phân hệ
--&gt; Thông tin dùng chung - ASOFT - CI 
--&gt;Danh mục sơ đồ tuyến 
--&gt; Click Thực hiện / RightClick GirdData
--&gt;Cập nhật sơ đồ tuyến</t>
-  </si>
-  <si>
-    <t>Click LinkAdd</t>
-  </si>
-  <si>
-    <t>Click LinkEdit</t>
-  </si>
-  <si>
-    <t>Click LinkView</t>
+    <r>
+      <t xml:space="preserve">- Thực thi </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">@SQL0003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">để kiểm tra điều kiện trước khi lưu </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> + Nếu =0
+   * Thực thì câu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">@SQL0004 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">để lưu dữ liệu Master và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>@SQL0005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> để lưu dữ liệu Detail
+   * Dialog message 00ML000015 và thực thi @SQL0009 để load dữ liệu lên Form CF0143</t>
+    </r>
+  </si>
+  <si>
+    <t>- Thực thi @SQL0008 để lưu dữ lưu dữ liệu detail
+- Thực thi @SQL0009 để xóa dữ liệu detail và @SQL0005 để lưu dữ liệu Detail mới
+- Dialog message 00ML000015 và thực thi @SQL00010 để load dữ liệu lên Form CF0143</t>
   </si>
 </sst>
 </file>
@@ -3243,7 +3310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3594,6 +3661,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3621,6 +3691,9 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3691,6 +3764,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3702,15 +3784,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3743,6 +3816,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3766,19 +3845,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1933575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1390650</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="5" name="Picture 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3798,8 +3877,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="752475" y="876300"/>
-          <a:ext cx="8058150" cy="4457700"/>
+          <a:off x="914400" y="1019175"/>
+          <a:ext cx="7353300" cy="4086225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4127,10 +4206,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4157,8 +4236,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4197,14 +4276,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
+      <c r="F4" s="148"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="148"/>
+      <c r="I4" s="148"/>
+      <c r="J4" s="148"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -4221,14 +4300,14 @@
         <f>H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="E5" s="148" t="s">
-        <v>325</v>
-      </c>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
+      <c r="E5" s="149" t="s">
+        <v>309</v>
+      </c>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="90">
@@ -4239,12 +4318,12 @@
       </c>
       <c r="C6" s="78"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="149"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="91">
@@ -4255,12 +4334,12 @@
       </c>
       <c r="C7" s="79"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="142"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="143"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92">
@@ -4271,12 +4350,12 @@
       </c>
       <c r="C8" s="79"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="144"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145"/>
+      <c r="E8" s="144"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93">
@@ -4287,12 +4366,12 @@
       </c>
       <c r="C9" s="79"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="141"/>
-      <c r="G9" s="141"/>
-      <c r="H9" s="141"/>
-      <c r="I9" s="141"/>
-      <c r="J9" s="142"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="142"/>
+      <c r="I9" s="142"/>
+      <c r="J9" s="143"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="94">
@@ -4303,12 +4382,12 @@
       </c>
       <c r="C10" s="79"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="142"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="143"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="95">
@@ -4319,12 +4398,12 @@
       </c>
       <c r="C11" s="79"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="141"/>
-      <c r="I11" s="141"/>
-      <c r="J11" s="142"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="143"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="96">
@@ -4335,12 +4414,12 @@
       </c>
       <c r="C12" s="79"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="141"/>
-      <c r="J12" s="142"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="142"/>
+      <c r="I12" s="142"/>
+      <c r="J12" s="143"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
@@ -4351,12 +4430,12 @@
       </c>
       <c r="C13" s="79"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="142"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="143"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="98">
@@ -4367,12 +4446,12 @@
       </c>
       <c r="C14" s="79"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="142"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="143"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4383,12 +4462,12 @@
       </c>
       <c r="C15" s="79"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
+      <c r="E15" s="150"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="150"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="150"/>
+      <c r="J15" s="150"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
@@ -4399,12 +4478,12 @@
       </c>
       <c r="C16" s="79"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
+      <c r="E16" s="150"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="150"/>
+      <c r="H16" s="150"/>
+      <c r="I16" s="150"/>
+      <c r="J16" s="150"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91">
@@ -4415,12 +4494,12 @@
       </c>
       <c r="C17" s="79"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="92">
@@ -4431,12 +4510,12 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="150"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93">
@@ -4447,12 +4526,12 @@
       </c>
       <c r="C19" s="79"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
+      <c r="E19" s="150"/>
+      <c r="F19" s="150"/>
+      <c r="G19" s="150"/>
+      <c r="H19" s="150"/>
+      <c r="I19" s="150"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="94">
@@ -4463,12 +4542,12 @@
       </c>
       <c r="C20" s="79"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="150"/>
+      <c r="G20" s="150"/>
+      <c r="H20" s="150"/>
+      <c r="I20" s="150"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="95">
@@ -4479,12 +4558,12 @@
       </c>
       <c r="C21" s="79"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="96">
@@ -4495,12 +4574,12 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="150"/>
+      <c r="I22" s="150"/>
+      <c r="J22" s="150"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97">
@@ -4511,12 +4590,12 @@
       </c>
       <c r="C23" s="79"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="150"/>
+      <c r="J23" s="150"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="98">
@@ -4527,12 +4606,12 @@
       </c>
       <c r="C24" s="79"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
+      <c r="I24" s="150"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4543,12 +4622,12 @@
       </c>
       <c r="C25" s="79"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="90">
@@ -4559,12 +4638,12 @@
       </c>
       <c r="C26" s="79"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
+      <c r="E26" s="150"/>
+      <c r="F26" s="150"/>
+      <c r="G26" s="150"/>
+      <c r="H26" s="150"/>
+      <c r="I26" s="150"/>
+      <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91">
@@ -4575,12 +4654,12 @@
       </c>
       <c r="C27" s="79"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
+      <c r="E27" s="150"/>
+      <c r="F27" s="150"/>
+      <c r="G27" s="150"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="92">
@@ -4591,12 +4670,12 @@
       </c>
       <c r="C28" s="79"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="93">
@@ -4607,12 +4686,12 @@
       </c>
       <c r="C29" s="79"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="150"/>
+      <c r="H29" s="150"/>
+      <c r="I29" s="150"/>
+      <c r="J29" s="150"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="94">
@@ -4623,12 +4702,12 @@
       </c>
       <c r="C30" s="79"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
+      <c r="E30" s="150"/>
+      <c r="F30" s="150"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="150"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="95">
@@ -4639,12 +4718,12 @@
       </c>
       <c r="C31" s="79"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
+      <c r="E31" s="150"/>
+      <c r="F31" s="150"/>
+      <c r="G31" s="150"/>
+      <c r="H31" s="150"/>
+      <c r="I31" s="150"/>
+      <c r="J31" s="150"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="96">
@@ -4655,12 +4734,12 @@
       </c>
       <c r="C32" s="79"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
+      <c r="E32" s="150"/>
+      <c r="F32" s="150"/>
+      <c r="G32" s="150"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="150"/>
+      <c r="J32" s="150"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97">
@@ -4671,12 +4750,12 @@
       </c>
       <c r="C33" s="79"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
+      <c r="E33" s="150"/>
+      <c r="F33" s="150"/>
+      <c r="G33" s="150"/>
+      <c r="H33" s="150"/>
+      <c r="I33" s="150"/>
+      <c r="J33" s="150"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="98">
@@ -4687,12 +4766,12 @@
       </c>
       <c r="C34" s="79"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="150"/>
+      <c r="J34" s="150"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4703,12 +4782,12 @@
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
+      <c r="H35" s="150"/>
+      <c r="I35" s="150"/>
+      <c r="J35" s="150"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="90">
@@ -4719,12 +4798,12 @@
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="150"/>
+      <c r="I36" s="150"/>
+      <c r="J36" s="150"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="91">
@@ -4735,12 +4814,12 @@
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="E37" s="150"/>
+      <c r="F37" s="150"/>
+      <c r="G37" s="150"/>
+      <c r="H37" s="150"/>
+      <c r="I37" s="150"/>
+      <c r="J37" s="150"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="92">
@@ -4751,12 +4830,12 @@
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
+      <c r="E38" s="150"/>
+      <c r="F38" s="150"/>
+      <c r="G38" s="150"/>
+      <c r="H38" s="150"/>
+      <c r="I38" s="150"/>
+      <c r="J38" s="150"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="93">
@@ -4767,12 +4846,12 @@
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="150"/>
+      <c r="G39" s="150"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="150"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="94">
@@ -4783,12 +4862,12 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="150"/>
+      <c r="G40" s="150"/>
+      <c r="H40" s="150"/>
+      <c r="I40" s="150"/>
+      <c r="J40" s="150"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="95">
@@ -4799,12 +4878,12 @@
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="150"/>
+      <c r="G41" s="150"/>
+      <c r="H41" s="150"/>
+      <c r="I41" s="150"/>
+      <c r="J41" s="150"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="96">
@@ -4815,23 +4894,32 @@
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
+      <c r="E42" s="150"/>
+      <c r="F42" s="150"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="150"/>
+      <c r="I42" s="150"/>
+      <c r="J42" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4847,23 +4935,14 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -5061,8 +5140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:J43"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5080,10 +5159,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5114,8 +5193,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5146,20 +5225,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="152" t="s">
+      <c r="A4" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="154"/>
-      <c r="E4" s="154"/>
-      <c r="F4" s="154"/>
-      <c r="G4" s="154"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="152" t="s">
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="155"/>
+      <c r="I4" s="154" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="153"/>
+      <c r="J4" s="155"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -5170,10 +5249,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="161" t="s">
+      <c r="I5" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="162"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -5184,8 +5263,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="163"/>
-      <c r="J6" s="164"/>
+      <c r="I6" s="165"/>
+      <c r="J6" s="166"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -5196,8 +5275,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="164"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="166"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -5208,8 +5287,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="164"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="166"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -5220,8 +5299,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="163"/>
-      <c r="J9" s="164"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="166"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -5232,8 +5311,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="165"/>
-      <c r="J10" s="166"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="168"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -5244,10 +5323,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="152" t="s">
+      <c r="I11" s="154" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="153"/>
+      <c r="J11" s="155"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -5258,10 +5337,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="155" t="s">
-        <v>335</v>
-      </c>
-      <c r="J12" s="156"/>
+      <c r="I12" s="157" t="s">
+        <v>317</v>
+      </c>
+      <c r="J12" s="158"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -5272,8 +5351,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -5284,8 +5363,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5296,8 +5375,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="157"/>
-      <c r="J15" s="158"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="160"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5308,8 +5387,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="157"/>
-      <c r="J16" s="158"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="160"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5320,8 +5399,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="157"/>
-      <c r="J17" s="158"/>
+      <c r="I17" s="159"/>
+      <c r="J17" s="160"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5332,8 +5411,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="158"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="160"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5344,8 +5423,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="160"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5356,8 +5435,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="158"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="160"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5368,8 +5447,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="158"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="160"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5380,8 +5459,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="158"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="160"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5392,8 +5471,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="158"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="160"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5404,8 +5483,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="157"/>
-      <c r="J24" s="158"/>
+      <c r="I24" s="159"/>
+      <c r="J24" s="160"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5416,8 +5495,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="158"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="160"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5428,8 +5507,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="158"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="160"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5440,8 +5519,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="158"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="160"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5452,8 +5531,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="157"/>
-      <c r="J28" s="158"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="160"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5464,8 +5543,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="157"/>
-      <c r="J29" s="158"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5476,8 +5555,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="158"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5488,8 +5567,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="158"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="160"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5500,8 +5579,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="158"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="160"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5512,8 +5591,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="157"/>
-      <c r="J33" s="158"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="160"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5524,8 +5603,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="157"/>
-      <c r="J34" s="158"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="160"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5536,8 +5615,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="160"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5548,8 +5627,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="158"/>
+      <c r="I36" s="159"/>
+      <c r="J36" s="160"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5560,8 +5639,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="158"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="160"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5572,8 +5651,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="157"/>
-      <c r="J38" s="158"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="160"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5584,8 +5663,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="157"/>
-      <c r="J39" s="158"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="160"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5596,8 +5675,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="157"/>
-      <c r="J40" s="158"/>
+      <c r="I40" s="159"/>
+      <c r="J40" s="160"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5608,8 +5687,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="157"/>
-      <c r="J41" s="158"/>
+      <c r="I41" s="159"/>
+      <c r="J41" s="160"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5620,8 +5699,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="157"/>
-      <c r="J42" s="158"/>
+      <c r="I42" s="159"/>
+      <c r="J42" s="160"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5632,8 +5711,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="159"/>
-      <c r="J43" s="160"/>
+      <c r="I43" s="161"/>
+      <c r="J43" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5664,10 +5743,10 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5692,13 +5771,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5706,16 +5785,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="H1" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="168"/>
-      <c r="J1" s="169" t="str">
+      <c r="I1" s="170"/>
+      <c r="J1" s="171" t="str">
         <f>'Update History'!F1</f>
         <v>CF0144</v>
       </c>
-      <c r="K1" s="170"/>
-      <c r="L1" s="171"/>
+      <c r="K1" s="172"/>
+      <c r="L1" s="173"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5732,11 +5811,11 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5744,16 +5823,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="167" t="s">
+      <c r="H2" s="169" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="168"/>
-      <c r="J2" s="169" t="str">
+      <c r="I2" s="170"/>
+      <c r="J2" s="171" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="170"/>
-      <c r="L2" s="171"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="173"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6505,7 +6584,9 @@
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="120"/>
-      <c r="L23" s="40"/>
+      <c r="L23" s="40" t="s">
+        <v>151</v>
+      </c>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
       <c r="O23" s="69"/>
@@ -6517,17 +6598,35 @@
       <c r="A24" s="33">
         <v>20</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
+      <c r="B24" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" s="33">
+        <v>51</v>
+      </c>
+      <c r="D24" s="33">
+        <v>11</v>
+      </c>
+      <c r="E24" s="192" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>323</v>
+      </c>
+      <c r="G24" s="139" t="s">
+        <v>323</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>206</v>
+      </c>
       <c r="J24" s="40"/>
       <c r="K24" s="61"/>
-      <c r="L24" s="40"/>
+      <c r="L24" s="40" t="s">
+        <v>151</v>
+      </c>
       <c r="M24" s="61"/>
       <c r="N24" s="61"/>
       <c r="O24" s="40"/>
@@ -6537,37 +6636,73 @@
       <c r="A25" s="33">
         <v>21</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
+      <c r="B25" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="33">
+        <v>51</v>
+      </c>
+      <c r="D25" s="33">
+        <v>12</v>
+      </c>
+      <c r="E25" s="193"/>
+      <c r="F25" s="88" t="s">
+        <v>330</v>
+      </c>
+      <c r="G25" s="139" t="s">
+        <v>330</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="I25" s="40" t="s">
+        <v>206</v>
+      </c>
       <c r="J25" s="40"/>
       <c r="K25" s="61"/>
-      <c r="L25" s="40"/>
+      <c r="L25" s="40" t="s">
+        <v>217</v>
+      </c>
       <c r="M25" s="62"/>
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
-      <c r="P25" s="32"/>
+      <c r="P25" s="32" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>22</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
+      <c r="B26" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="33">
+        <v>51</v>
+      </c>
+      <c r="D26" s="33">
+        <v>13</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" s="139" t="s">
+        <v>324</v>
+      </c>
+      <c r="G26" s="139" t="s">
+        <v>324</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="J26" s="40"/>
       <c r="K26" s="61"/>
-      <c r="L26" s="40"/>
+      <c r="L26" s="40" t="s">
+        <v>151</v>
+      </c>
       <c r="M26" s="62"/>
       <c r="N26" s="61"/>
       <c r="O26" s="61"/>
@@ -7134,7 +7269,8 @@
       <c r="P54" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="E24:E25"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="H2:I2"/>
@@ -7145,10 +7281,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N25:O54 M24:N24">
       <formula1>"   ,l"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:I54 I5:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I19 I22:I54">
       <formula1>"Text, Number, DateTime, Boolean"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G26:G54 G5"/>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="G5 G27:G54"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L5:L54">
       <formula1>"I,O,I/O"</formula1>
     </dataValidation>
@@ -7170,7 +7306,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7379,11 +7515,11 @@
         <v>247</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="G7" s="62"/>
       <c r="H7" s="126" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="I7" s="126" t="s">
         <v>252</v>
@@ -7465,9 +7601,11 @@
       <c r="C10" s="33">
         <v>51</v>
       </c>
-      <c r="D10" s="126"/>
+      <c r="D10" s="126" t="s">
+        <v>321</v>
+      </c>
       <c r="E10" s="126" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="F10" s="134"/>
       <c r="G10" s="62"/>
@@ -7493,7 +7631,9 @@
       <c r="C11" s="33">
         <v>51</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="84" t="s">
+        <v>326</v>
+      </c>
       <c r="E11" s="84" t="s">
         <v>247</v>
       </c>
@@ -7522,7 +7662,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="84" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="E12" s="84" t="s">
         <v>247</v>
@@ -7530,13 +7670,13 @@
       <c r="F12" s="40"/>
       <c r="G12" s="62"/>
       <c r="H12" s="138" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="I12" s="138" t="s">
         <v>252</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="K12" s="69"/>
       <c r="L12" s="110"/>
@@ -8278,8 +8418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:K11"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8304,7 +8444,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="179" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="127"/>
@@ -8341,7 +8481,7 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="175"/>
+      <c r="A2" s="180"/>
       <c r="B2" s="128"/>
       <c r="C2" s="128"/>
       <c r="D2" s="31" t="s">
@@ -8394,15 +8534,15 @@
       <c r="F4" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="147" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="146"/>
-      <c r="I4" s="146" t="s">
+      <c r="H4" s="147"/>
+      <c r="I4" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="146"/>
-      <c r="K4" s="146"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="147"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -8419,15 +8559,15 @@
         <v>135</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="172" t="s">
+      <c r="G5" s="177" t="s">
         <v>259</v>
       </c>
-      <c r="H5" s="173"/>
-      <c r="I5" s="176" t="s">
-        <v>336</v>
-      </c>
-      <c r="J5" s="177"/>
-      <c r="K5" s="178"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="174" t="s">
+        <v>318</v>
+      </c>
+      <c r="J5" s="175"/>
+      <c r="K5" s="176"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -8444,15 +8584,15 @@
         <v>261</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="172" t="s">
+      <c r="G6" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="H6" s="173"/>
-      <c r="I6" s="176" t="s">
-        <v>337</v>
-      </c>
-      <c r="J6" s="177"/>
-      <c r="K6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="J6" s="175"/>
+      <c r="K6" s="176"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8469,15 +8609,15 @@
         <v>261</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="172" t="s">
+      <c r="G7" s="177" t="s">
         <v>260</v>
       </c>
-      <c r="H7" s="173"/>
-      <c r="I7" s="176" t="s">
-        <v>338</v>
-      </c>
-      <c r="J7" s="177"/>
-      <c r="K7" s="178"/>
+      <c r="H7" s="178"/>
+      <c r="I7" s="174" t="s">
+        <v>320</v>
+      </c>
+      <c r="J7" s="175"/>
+      <c r="K7" s="176"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8488,11 +8628,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="172"/>
-      <c r="H8" s="173"/>
-      <c r="I8" s="176"/>
-      <c r="J8" s="177"/>
-      <c r="K8" s="178"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="178"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="175"/>
+      <c r="K8" s="176"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8503,11 +8643,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="177"/>
-      <c r="K9" s="178"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="174"/>
+      <c r="J9" s="175"/>
+      <c r="K9" s="176"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8518,11 +8658,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="176"/>
-      <c r="J10" s="177"/>
-      <c r="K10" s="178"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="178"/>
+      <c r="I10" s="174"/>
+      <c r="J10" s="175"/>
+      <c r="K10" s="176"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8533,11 +8673,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="176"/>
-      <c r="J11" s="177"/>
-      <c r="K11" s="178"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="178"/>
+      <c r="I11" s="174"/>
+      <c r="J11" s="175"/>
+      <c r="K11" s="176"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8548,11 +8688,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="176"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="178"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="178"/>
+      <c r="I12" s="174"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="176"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8563,11 +8703,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="176"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="178"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="174"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="176"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8578,11 +8718,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="173"/>
-      <c r="I14" s="176"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="178"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="176"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8593,11 +8733,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="173"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="177"/>
-      <c r="K15" s="178"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="174"/>
+      <c r="J15" s="175"/>
+      <c r="K15" s="176"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8608,11 +8748,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="173"/>
-      <c r="I16" s="176"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="178"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="178"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="176"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8623,11 +8763,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="173"/>
-      <c r="I17" s="176"/>
-      <c r="J17" s="177"/>
-      <c r="K17" s="178"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="178"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8638,11 +8778,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="177"/>
-      <c r="K18" s="178"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="176"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8653,11 +8793,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="173"/>
-      <c r="I19" s="176"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="178"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="178"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="176"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8668,11 +8808,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="173"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="177"/>
-      <c r="K20" s="178"/>
+      <c r="G20" s="177"/>
+      <c r="H20" s="178"/>
+      <c r="I20" s="174"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="176"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8683,11 +8823,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="176"/>
-      <c r="J21" s="177"/>
-      <c r="K21" s="178"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="178"/>
+      <c r="I21" s="174"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="176"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8698,11 +8838,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="140"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="176"/>
-      <c r="J22" s="177"/>
-      <c r="K22" s="178"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="174"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="176"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8713,11 +8853,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="140"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="176"/>
-      <c r="J23" s="177"/>
-      <c r="K23" s="178"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="174"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="176"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8728,11 +8868,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="142"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="177"/>
-      <c r="K24" s="178"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="174"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="176"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8743,11 +8883,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="176"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="178"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="174"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="176"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8758,11 +8898,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="142"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="178"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="174"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="176"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8773,11 +8913,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="142"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="177"/>
-      <c r="K27" s="178"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="174"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="176"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8788,11 +8928,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="140"/>
-      <c r="H28" s="142"/>
-      <c r="I28" s="176"/>
-      <c r="J28" s="177"/>
-      <c r="K28" s="178"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="174"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="176"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8803,11 +8943,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="178"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="174"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="176"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8818,11 +8958,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="142"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="178"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="174"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="176"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8833,11 +8973,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="142"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="178"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="174"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="176"/>
     </row>
     <row r="32" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -8848,11 +8988,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="142"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="178"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="174"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="176"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -8870,11 +9010,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="178"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="176"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -8892,11 +9032,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="140"/>
-      <c r="H34" s="142"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="178"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="174"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="176"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -8914,11 +9054,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="142"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="178"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="174"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="176"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -8936,11 +9076,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="142"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="178"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="174"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="176"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -8958,11 +9098,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="140"/>
-      <c r="H37" s="142"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="178"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="143"/>
+      <c r="I37" s="174"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="176"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -8980,11 +9120,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="176"/>
-      <c r="J38" s="177"/>
-      <c r="K38" s="178"/>
+      <c r="G38" s="141"/>
+      <c r="H38" s="143"/>
+      <c r="I38" s="174"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="176"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9002,11 +9142,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="140"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="178"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="174"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="176"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9024,11 +9164,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="140"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="176"/>
-      <c r="J40" s="177"/>
-      <c r="K40" s="178"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="174"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="176"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9046,11 +9186,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="178"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="174"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="176"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9068,11 +9208,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="140"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="176"/>
-      <c r="J42" s="177"/>
-      <c r="K42" s="178"/>
+      <c r="G42" s="141"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="174"/>
+      <c r="J42" s="175"/>
+      <c r="K42" s="176"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9090,11 +9230,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="178"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="174"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="176"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9112,11 +9252,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="142"/>
-      <c r="I44" s="176"/>
-      <c r="J44" s="177"/>
-      <c r="K44" s="178"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="174"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="176"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9134,11 +9274,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="142"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="178"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="174"/>
+      <c r="J45" s="175"/>
+      <c r="K45" s="176"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9156,11 +9296,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="142"/>
-      <c r="I46" s="176"/>
-      <c r="J46" s="177"/>
-      <c r="K46" s="178"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="174"/>
+      <c r="J46" s="175"/>
+      <c r="K46" s="176"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9178,11 +9318,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="140"/>
-      <c r="H47" s="142"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="177"/>
-      <c r="K47" s="178"/>
+      <c r="G47" s="141"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="174"/>
+      <c r="J47" s="175"/>
+      <c r="K47" s="176"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9200,11 +9340,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="142"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="177"/>
-      <c r="K48" s="178"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="174"/>
+      <c r="J48" s="175"/>
+      <c r="K48" s="176"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9222,11 +9362,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="140"/>
-      <c r="H49" s="142"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="178"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="175"/>
+      <c r="K49" s="176"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9244,11 +9384,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="140"/>
-      <c r="H50" s="142"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="178"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="174"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="176"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9266,11 +9406,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="178"/>
+      <c r="G51" s="141"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="174"/>
+      <c r="J51" s="175"/>
+      <c r="K51" s="176"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9288,11 +9428,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="140"/>
-      <c r="H52" s="142"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="177"/>
-      <c r="K52" s="178"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="174"/>
+      <c r="J52" s="175"/>
+      <c r="K52" s="176"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -9310,11 +9450,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="140"/>
-      <c r="H53" s="142"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="177"/>
-      <c r="K53" s="178"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="174"/>
+      <c r="J53" s="175"/>
+      <c r="K53" s="176"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -9332,11 +9472,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="142"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="177"/>
-      <c r="K54" s="178"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="174"/>
+      <c r="J54" s="175"/>
+      <c r="K54" s="176"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -9354,11 +9494,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="142"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="177"/>
-      <c r="K55" s="178"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="174"/>
+      <c r="J55" s="175"/>
+      <c r="K55" s="176"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9376,11 +9516,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="142"/>
-      <c r="I56" s="176"/>
-      <c r="J56" s="177"/>
-      <c r="K56" s="178"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="174"/>
+      <c r="J56" s="175"/>
+      <c r="K56" s="176"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9392,6 +9532,99 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="G56:H56"/>
     <mergeCell ref="G53:H53"/>
     <mergeCell ref="G54:H54"/>
@@ -9406,99 +9639,6 @@
     <mergeCell ref="I54:K54"/>
     <mergeCell ref="I55:K55"/>
     <mergeCell ref="I56:K56"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -9518,10 +9658,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U1048468"/>
+  <dimension ref="A1:U1048469"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="F2" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9550,24 +9690,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="182" t="str">
+      <c r="J1" s="184" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="182"/>
+      <c r="K1" s="184"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9595,22 +9735,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="182" t="str">
+      <c r="J2" s="184" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="182"/>
+      <c r="K2" s="184"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9668,12 +9808,12 @@
       <c r="J4" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="152" t="s">
+      <c r="K4" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="154"/>
-      <c r="M4" s="154"/>
-      <c r="N4" s="153"/>
+      <c r="L4" s="156"/>
+      <c r="M4" s="156"/>
+      <c r="N4" s="155"/>
       <c r="O4" s="39" t="s">
         <v>57</v>
       </c>
@@ -9701,13 +9841,13 @@
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="63" t="s">
         <v>278</v>
-      </c>
-      <c r="F5" s="63" t="s">
-        <v>279</v>
       </c>
       <c r="G5" s="88" t="s">
         <v>218</v>
@@ -9721,34 +9861,32 @@
       <c r="J5" s="121" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="143" t="s">
-        <v>268</v>
-      </c>
-      <c r="L5" s="144"/>
-      <c r="M5" s="144"/>
-      <c r="N5" s="145"/>
+      <c r="K5" s="144" t="s">
+        <v>267</v>
+      </c>
+      <c r="L5" s="145"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="146"/>
       <c r="O5" s="125" t="s">
+        <v>269</v>
+      </c>
+      <c r="P5" s="125" t="s">
         <v>270</v>
       </c>
-      <c r="P5" s="125" t="s">
-        <v>271</v>
-      </c>
       <c r="Q5" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="R5" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="S5" s="88" t="s">
         <v>275</v>
-      </c>
-      <c r="R5" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="S5" s="88" t="s">
-        <v>276</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
     </row>
-    <row r="6" spans="1:21" s="34" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:21" s="34" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
       <c r="B6" s="33" t="s">
         <v>241</v>
       </c>
@@ -9756,12 +9894,16 @@
         <v>51</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="88" t="s">
-        <v>219</v>
+        <v>327</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>321</v>
+      </c>
+      <c r="G6" s="139" t="s">
+        <v>328</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>224</v>
@@ -9772,33 +9914,33 @@
       <c r="J6" s="121" t="s">
         <v>229</v>
       </c>
-      <c r="K6" s="143" t="s">
-        <v>269</v>
-      </c>
-      <c r="L6" s="144"/>
-      <c r="M6" s="144"/>
-      <c r="N6" s="145"/>
-      <c r="O6" s="125" t="s">
-        <v>272</v>
-      </c>
-      <c r="P6" s="125" t="s">
+      <c r="K6" s="181" t="s">
+        <v>332</v>
+      </c>
+      <c r="L6" s="182"/>
+      <c r="M6" s="182"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="140" t="s">
+        <v>333</v>
+      </c>
+      <c r="P6" s="140" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q6" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="75" t="s">
         <v>273</v>
       </c>
-      <c r="Q6" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="R6" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="S6" s="88" t="s">
-        <v>285</v>
+      <c r="S6" s="139" t="s">
+        <v>335</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
     </row>
-    <row r="7" spans="1:21" s="34" customFormat="1" ht="112.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="34" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>241</v>
@@ -9807,15 +9949,15 @@
         <v>51</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
       <c r="G7" s="88" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H7" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>56</v>
@@ -9823,32 +9965,34 @@
       <c r="J7" s="121" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="143" t="s">
+      <c r="K7" s="144" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="146"/>
+      <c r="O7" s="125" t="s">
+        <v>271</v>
+      </c>
+      <c r="P7" s="125" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>280</v>
+      </c>
+      <c r="R7" s="75" t="s">
+        <v>248</v>
+      </c>
+      <c r="S7" s="88" t="s">
         <v>281</v>
-      </c>
-      <c r="L7" s="144"/>
-      <c r="M7" s="144"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="125" t="s">
-        <v>282</v>
-      </c>
-      <c r="P7" s="125" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q7" s="76" t="s">
-        <v>284</v>
-      </c>
-      <c r="R7" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="S7" s="82" t="s">
-        <v>286</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
     </row>
-    <row r="8" spans="1:21" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:21" s="34" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>3</v>
+      </c>
       <c r="B8" s="33" t="s">
         <v>241</v>
       </c>
@@ -9856,12 +10000,12 @@
         <v>51</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="119" t="s">
-        <v>222</v>
+      <c r="G8" s="88" t="s">
+        <v>223</v>
       </c>
       <c r="H8" s="63" t="s">
         <v>225</v>
@@ -9872,34 +10016,32 @@
       <c r="J8" s="121" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="143" t="s">
-        <v>287</v>
-      </c>
-      <c r="L8" s="144"/>
-      <c r="M8" s="144"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="P8" s="125" t="s">
-        <v>290</v>
+      <c r="K8" s="144" t="s">
+        <v>336</v>
+      </c>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="140" t="s">
+        <v>337</v>
+      </c>
+      <c r="P8" s="140" t="s">
+        <v>338</v>
       </c>
       <c r="Q8" s="76" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="R8" s="75" t="s">
         <v>252</v>
       </c>
       <c r="S8" s="82" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
-        <v>4</v>
-      </c>
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
       <c r="B9" s="33" t="s">
         <v>241</v>
       </c>
@@ -9907,19 +10049,15 @@
         <v>51</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="G9" s="88" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="E9" s="33"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="119" t="s">
+        <v>222</v>
       </c>
       <c r="H9" s="63" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I9" s="63" t="s">
         <v>56</v>
@@ -9927,33 +10065,33 @@
       <c r="J9" s="121" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="143" t="s">
-        <v>330</v>
-      </c>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="145"/>
+      <c r="K9" s="144" t="s">
+        <v>283</v>
+      </c>
+      <c r="L9" s="145"/>
+      <c r="M9" s="145"/>
+      <c r="N9" s="146"/>
       <c r="O9" s="125" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="P9" s="125" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="Q9" s="76" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="R9" s="75" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="S9" s="82" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
     </row>
-    <row r="10" spans="1:21" s="34" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>241</v>
@@ -9962,16 +10100,16 @@
         <v>51</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G10" s="88" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>224</v>
@@ -9982,33 +10120,33 @@
       <c r="J10" s="121" t="s">
         <v>233</v>
       </c>
-      <c r="K10" s="143" t="s">
-        <v>327</v>
-      </c>
-      <c r="L10" s="144"/>
-      <c r="M10" s="144"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="129" t="s">
-        <v>328</v>
-      </c>
-      <c r="P10" s="129" t="s">
-        <v>329</v>
+      <c r="K10" s="144" t="s">
+        <v>339</v>
+      </c>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="146"/>
+      <c r="O10" s="125" t="s">
+        <v>290</v>
+      </c>
+      <c r="P10" s="125" t="s">
+        <v>291</v>
       </c>
       <c r="Q10" s="76" t="s">
         <v>106</v>
       </c>
       <c r="R10" s="75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="S10" s="82" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
     </row>
-    <row r="11" spans="1:21" s="34" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="34" customFormat="1" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>241</v>
@@ -10017,15 +10155,19 @@
         <v>51</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="32"/>
+        <v>295</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>297</v>
+      </c>
       <c r="G11" s="88" t="s">
-        <v>220</v>
+        <v>294</v>
       </c>
       <c r="H11" s="63" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I11" s="63" t="s">
         <v>56</v>
@@ -10033,33 +10175,33 @@
       <c r="J11" s="121" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="143" t="s">
-        <v>305</v>
-      </c>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="125" t="s">
-        <v>308</v>
-      </c>
-      <c r="P11" s="125" t="s">
+      <c r="K11" s="144" t="s">
         <v>311</v>
       </c>
+      <c r="L11" s="145"/>
+      <c r="M11" s="145"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="129" t="s">
+        <v>312</v>
+      </c>
+      <c r="P11" s="129" t="s">
+        <v>313</v>
+      </c>
       <c r="Q11" s="76" t="s">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="R11" s="75" t="s">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="S11" s="82" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
     </row>
-    <row r="12" spans="1:21" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" s="34" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>241</v>
@@ -10068,15 +10210,15 @@
         <v>51</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
       <c r="G12" s="88" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H12" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I12" s="63" t="s">
         <v>56</v>
@@ -10084,33 +10226,33 @@
       <c r="J12" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="143" t="s">
-        <v>306</v>
-      </c>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="125" t="s">
-        <v>295</v>
-      </c>
-      <c r="P12" s="125" t="s">
-        <v>273</v>
+      <c r="K12" s="144" t="s">
+        <v>343</v>
+      </c>
+      <c r="L12" s="145"/>
+      <c r="M12" s="145"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="140" t="s">
+        <v>344</v>
+      </c>
+      <c r="P12" s="140" t="s">
+        <v>345</v>
       </c>
       <c r="Q12" s="76" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="R12" s="75" t="s">
         <v>252</v>
       </c>
       <c r="S12" s="82" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
-    <row r="13" spans="1:21" s="34" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>241</v>
@@ -10119,103 +10261,129 @@
         <v>51</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>302</v>
-      </c>
-      <c r="G13" s="125" t="s">
-        <v>307</v>
+        <v>295</v>
+      </c>
+      <c r="E13" s="33"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="88" t="s">
+        <v>221</v>
       </c>
       <c r="H13" s="63" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I13" s="63" t="s">
         <v>56</v>
       </c>
       <c r="J13" s="121" t="s">
-        <v>292</v>
-      </c>
-      <c r="K13" s="143" t="s">
-        <v>291</v>
-      </c>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
-      <c r="N13" s="145"/>
+        <v>287</v>
+      </c>
+      <c r="K13" s="144" t="s">
+        <v>298</v>
+      </c>
+      <c r="L13" s="145"/>
+      <c r="M13" s="145"/>
+      <c r="N13" s="146"/>
       <c r="O13" s="125" t="s">
-        <v>135</v>
+        <v>290</v>
       </c>
       <c r="P13" s="125" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="Q13" s="76" t="s">
-        <v>106</v>
+        <v>280</v>
       </c>
       <c r="R13" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="S13" s="126" t="s">
-        <v>294</v>
+        <v>252</v>
+      </c>
+      <c r="S13" s="82" t="s">
+        <v>301</v>
       </c>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
     </row>
-    <row r="14" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="34" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
-        <v>9</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="180"/>
-      <c r="M14" s="180"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="75"/>
-      <c r="S14" s="82"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C14" s="33">
+        <v>51</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>279</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="63" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" s="125" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="I14" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="121" t="s">
+        <v>329</v>
+      </c>
+      <c r="K14" s="144" t="s">
+        <v>346</v>
+      </c>
+      <c r="L14" s="145"/>
+      <c r="M14" s="145"/>
+      <c r="N14" s="146"/>
+      <c r="O14" s="125" t="s">
+        <v>135</v>
+      </c>
+      <c r="P14" s="125" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q14" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="R14" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="S14" s="126" t="s">
+        <v>289</v>
+      </c>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="84"/>
+      <c r="G15" s="88"/>
       <c r="H15" s="63"/>
       <c r="I15" s="63"/>
       <c r="J15" s="82"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="180"/>
-      <c r="M15" s="180"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="182"/>
+      <c r="M15" s="182"/>
+      <c r="N15" s="183"/>
+      <c r="O15" s="85"/>
+      <c r="P15" s="85"/>
       <c r="Q15" s="76"/>
       <c r="R15" s="75"/>
-      <c r="S15" s="88"/>
+      <c r="S15" s="82"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
     </row>
     <row r="16" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -10226,10 +10394,10 @@
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
       <c r="J16" s="82"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="180"/>
-      <c r="M16" s="180"/>
-      <c r="N16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="182"/>
+      <c r="N16" s="183"/>
       <c r="O16" s="81"/>
       <c r="P16" s="81"/>
       <c r="Q16" s="76"/>
@@ -10240,23 +10408,23 @@
     </row>
     <row r="17" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
-      <c r="E17" s="71"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="32"/>
       <c r="G17" s="84"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="180"/>
-      <c r="M17" s="180"/>
-      <c r="N17" s="181"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="60"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="181"/>
+      <c r="L17" s="182"/>
+      <c r="M17" s="182"/>
+      <c r="N17" s="183"/>
+      <c r="O17" s="81"/>
+      <c r="P17" s="81"/>
       <c r="Q17" s="76"/>
       <c r="R17" s="75"/>
       <c r="S17" s="88"/>
@@ -10265,22 +10433,22 @@
     </row>
     <row r="18" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="84"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="180"/>
-      <c r="M18" s="180"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="60"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="183"/>
+      <c r="O18" s="72"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="76"/>
       <c r="R18" s="75"/>
@@ -10290,7 +10458,7 @@
     </row>
     <row r="19" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
@@ -10301,10 +10469,10 @@
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="180"/>
-      <c r="M19" s="180"/>
-      <c r="N19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="183"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="76"/>
@@ -10315,7 +10483,7 @@
     </row>
     <row r="20" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
@@ -10326,10 +10494,10 @@
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="180"/>
-      <c r="M20" s="180"/>
-      <c r="N20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="183"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="76"/>
@@ -10340,7 +10508,7 @@
     </row>
     <row r="21" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
@@ -10351,10 +10519,10 @@
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="180"/>
-      <c r="M21" s="180"/>
-      <c r="N21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="182"/>
+      <c r="M21" s="182"/>
+      <c r="N21" s="183"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="76"/>
@@ -10365,7 +10533,7 @@
     </row>
     <row r="22" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
@@ -10376,10 +10544,10 @@
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="180"/>
-      <c r="M22" s="180"/>
-      <c r="N22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="182"/>
+      <c r="M22" s="182"/>
+      <c r="N22" s="183"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="76"/>
@@ -10390,7 +10558,7 @@
     </row>
     <row r="23" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
@@ -10401,10 +10569,10 @@
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="180"/>
-      <c r="M23" s="180"/>
-      <c r="N23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="182"/>
+      <c r="M23" s="182"/>
+      <c r="N23" s="183"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="76"/>
@@ -10415,7 +10583,7 @@
     </row>
     <row r="24" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
@@ -10426,10 +10594,10 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="180"/>
-      <c r="M24" s="180"/>
-      <c r="N24" s="181"/>
+      <c r="K24" s="181"/>
+      <c r="L24" s="182"/>
+      <c r="M24" s="182"/>
+      <c r="N24" s="183"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="76"/>
@@ -10440,7 +10608,7 @@
     </row>
     <row r="25" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
@@ -10451,10 +10619,10 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="180"/>
-      <c r="M25" s="180"/>
-      <c r="N25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="182"/>
+      <c r="M25" s="182"/>
+      <c r="N25" s="183"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="76"/>
@@ -10465,7 +10633,7 @@
     </row>
     <row r="26" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
@@ -10476,10 +10644,10 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="180"/>
-      <c r="M26" s="180"/>
-      <c r="N26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="182"/>
+      <c r="M26" s="182"/>
+      <c r="N26" s="183"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="76"/>
@@ -10490,7 +10658,7 @@
     </row>
     <row r="27" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
@@ -10501,10 +10669,10 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="182"/>
+      <c r="M27" s="182"/>
+      <c r="N27" s="183"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="76"/>
@@ -10515,7 +10683,7 @@
     </row>
     <row r="28" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
@@ -10526,10 +10694,10 @@
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="182"/>
+      <c r="M28" s="182"/>
+      <c r="N28" s="183"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="76"/>
@@ -10540,7 +10708,7 @@
     </row>
     <row r="29" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
@@ -10551,10 +10719,10 @@
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="183"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="76"/>
@@ -10565,7 +10733,7 @@
     </row>
     <row r="30" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
@@ -10576,10 +10744,10 @@
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="183"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="76"/>
@@ -10590,7 +10758,7 @@
     </row>
     <row r="31" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -10601,10 +10769,10 @@
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="183"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="76"/>
@@ -10615,7 +10783,7 @@
     </row>
     <row r="32" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -10626,10 +10794,10 @@
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="183"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="76"/>
@@ -10640,7 +10808,7 @@
     </row>
     <row r="33" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
@@ -10651,10 +10819,10 @@
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="183"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="76"/>
@@ -10665,7 +10833,7 @@
     </row>
     <row r="34" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
@@ -10676,10 +10844,10 @@
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="179"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="182"/>
+      <c r="M34" s="182"/>
+      <c r="N34" s="183"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="76"/>
@@ -10690,23 +10858,23 @@
     </row>
     <row r="35" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
-      <c r="F35" s="32"/>
+      <c r="F35" s="33"/>
       <c r="G35" s="84"/>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="85"/>
-      <c r="P35" s="85"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="182"/>
+      <c r="M35" s="182"/>
+      <c r="N35" s="183"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
       <c r="Q35" s="76"/>
       <c r="R35" s="75"/>
       <c r="S35" s="88"/>
@@ -10715,23 +10883,23 @@
     </row>
     <row r="36" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
-      <c r="F36" s="33"/>
+      <c r="F36" s="32"/>
       <c r="G36" s="84"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="179"/>
-      <c r="L36" s="180"/>
-      <c r="M36" s="180"/>
-      <c r="N36" s="181"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="181"/>
+      <c r="L36" s="182"/>
+      <c r="M36" s="182"/>
+      <c r="N36" s="183"/>
+      <c r="O36" s="85"/>
+      <c r="P36" s="85"/>
       <c r="Q36" s="76"/>
       <c r="R36" s="75"/>
       <c r="S36" s="88"/>
@@ -10740,7 +10908,7 @@
     </row>
     <row r="37" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
@@ -10751,10 +10919,10 @@
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="180"/>
-      <c r="M37" s="180"/>
-      <c r="N37" s="181"/>
+      <c r="K37" s="181"/>
+      <c r="L37" s="182"/>
+      <c r="M37" s="182"/>
+      <c r="N37" s="183"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
       <c r="Q37" s="76"/>
@@ -10765,7 +10933,7 @@
     </row>
     <row r="38" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
@@ -10776,10 +10944,10 @@
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="179"/>
-      <c r="L38" s="180"/>
-      <c r="M38" s="180"/>
-      <c r="N38" s="181"/>
+      <c r="K38" s="181"/>
+      <c r="L38" s="182"/>
+      <c r="M38" s="182"/>
+      <c r="N38" s="183"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
       <c r="Q38" s="76"/>
@@ -10790,7 +10958,7 @@
     </row>
     <row r="39" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="33">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -10801,10 +10969,10 @@
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="179"/>
-      <c r="L39" s="180"/>
-      <c r="M39" s="180"/>
-      <c r="N39" s="181"/>
+      <c r="K39" s="181"/>
+      <c r="L39" s="182"/>
+      <c r="M39" s="182"/>
+      <c r="N39" s="183"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
       <c r="Q39" s="76"/>
@@ -10815,7 +10983,7 @@
     </row>
     <row r="40" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="33">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -10826,10 +10994,10 @@
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="179"/>
-      <c r="L40" s="180"/>
-      <c r="M40" s="180"/>
-      <c r="N40" s="181"/>
+      <c r="K40" s="181"/>
+      <c r="L40" s="182"/>
+      <c r="M40" s="182"/>
+      <c r="N40" s="183"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
       <c r="Q40" s="76"/>
@@ -10840,7 +11008,7 @@
     </row>
     <row r="41" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="33">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -10851,12 +11019,12 @@
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="179"/>
-      <c r="L41" s="180"/>
-      <c r="M41" s="180"/>
-      <c r="N41" s="181"/>
-      <c r="O41" s="74"/>
-      <c r="P41" s="74"/>
+      <c r="K41" s="181"/>
+      <c r="L41" s="182"/>
+      <c r="M41" s="182"/>
+      <c r="N41" s="183"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
       <c r="Q41" s="76"/>
       <c r="R41" s="75"/>
       <c r="S41" s="88"/>
@@ -10865,7 +11033,7 @@
     </row>
     <row r="42" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
@@ -10876,10 +11044,10 @@
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="179"/>
-      <c r="L42" s="180"/>
-      <c r="M42" s="180"/>
-      <c r="N42" s="181"/>
+      <c r="K42" s="181"/>
+      <c r="L42" s="182"/>
+      <c r="M42" s="182"/>
+      <c r="N42" s="183"/>
       <c r="O42" s="74"/>
       <c r="P42" s="74"/>
       <c r="Q42" s="76"/>
@@ -10890,7 +11058,7 @@
     </row>
     <row r="43" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="33">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
@@ -10901,10 +11069,10 @@
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="179"/>
-      <c r="L43" s="180"/>
-      <c r="M43" s="180"/>
-      <c r="N43" s="181"/>
+      <c r="K43" s="181"/>
+      <c r="L43" s="182"/>
+      <c r="M43" s="182"/>
+      <c r="N43" s="183"/>
       <c r="O43" s="74"/>
       <c r="P43" s="74"/>
       <c r="Q43" s="76"/>
@@ -10915,7 +11083,7 @@
     </row>
     <row r="44" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="33">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
@@ -10926,10 +11094,10 @@
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="179"/>
-      <c r="L44" s="180"/>
-      <c r="M44" s="180"/>
-      <c r="N44" s="181"/>
+      <c r="K44" s="181"/>
+      <c r="L44" s="182"/>
+      <c r="M44" s="182"/>
+      <c r="N44" s="183"/>
       <c r="O44" s="74"/>
       <c r="P44" s="74"/>
       <c r="Q44" s="76"/>
@@ -10940,7 +11108,7 @@
     </row>
     <row r="45" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="33">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
@@ -10951,10 +11119,10 @@
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="179"/>
-      <c r="L45" s="180"/>
-      <c r="M45" s="180"/>
-      <c r="N45" s="181"/>
+      <c r="K45" s="181"/>
+      <c r="L45" s="182"/>
+      <c r="M45" s="182"/>
+      <c r="N45" s="183"/>
       <c r="O45" s="74"/>
       <c r="P45" s="74"/>
       <c r="Q45" s="76"/>
@@ -10965,7 +11133,7 @@
     </row>
     <row r="46" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="33">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
@@ -10976,10 +11144,10 @@
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="179"/>
-      <c r="L46" s="180"/>
-      <c r="M46" s="180"/>
-      <c r="N46" s="181"/>
+      <c r="K46" s="181"/>
+      <c r="L46" s="182"/>
+      <c r="M46" s="182"/>
+      <c r="N46" s="183"/>
       <c r="O46" s="74"/>
       <c r="P46" s="74"/>
       <c r="Q46" s="76"/>
@@ -10990,7 +11158,7 @@
     </row>
     <row r="47" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="33">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
@@ -11001,10 +11169,10 @@
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="179"/>
-      <c r="L47" s="180"/>
-      <c r="M47" s="180"/>
-      <c r="N47" s="181"/>
+      <c r="K47" s="181"/>
+      <c r="L47" s="182"/>
+      <c r="M47" s="182"/>
+      <c r="N47" s="183"/>
       <c r="O47" s="74"/>
       <c r="P47" s="74"/>
       <c r="Q47" s="76"/>
@@ -11015,7 +11183,7 @@
     </row>
     <row r="48" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
@@ -11026,10 +11194,10 @@
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="179"/>
-      <c r="L48" s="180"/>
-      <c r="M48" s="180"/>
-      <c r="N48" s="181"/>
+      <c r="K48" s="181"/>
+      <c r="L48" s="182"/>
+      <c r="M48" s="182"/>
+      <c r="N48" s="183"/>
       <c r="O48" s="74"/>
       <c r="P48" s="74"/>
       <c r="Q48" s="76"/>
@@ -11040,7 +11208,7 @@
     </row>
     <row r="49" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="33">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
@@ -11051,10 +11219,10 @@
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="179"/>
-      <c r="L49" s="180"/>
-      <c r="M49" s="180"/>
-      <c r="N49" s="181"/>
+      <c r="K49" s="181"/>
+      <c r="L49" s="182"/>
+      <c r="M49" s="182"/>
+      <c r="N49" s="183"/>
       <c r="O49" s="74"/>
       <c r="P49" s="74"/>
       <c r="Q49" s="76"/>
@@ -11065,7 +11233,7 @@
     </row>
     <row r="50" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="33">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
@@ -11076,10 +11244,10 @@
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="179"/>
-      <c r="L50" s="180"/>
-      <c r="M50" s="180"/>
-      <c r="N50" s="181"/>
+      <c r="K50" s="181"/>
+      <c r="L50" s="182"/>
+      <c r="M50" s="182"/>
+      <c r="N50" s="183"/>
       <c r="O50" s="74"/>
       <c r="P50" s="74"/>
       <c r="Q50" s="76"/>
@@ -11090,7 +11258,7 @@
     </row>
     <row r="51" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="33">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
@@ -11101,10 +11269,10 @@
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="179"/>
-      <c r="L51" s="180"/>
-      <c r="M51" s="180"/>
-      <c r="N51" s="181"/>
+      <c r="K51" s="181"/>
+      <c r="L51" s="182"/>
+      <c r="M51" s="182"/>
+      <c r="N51" s="183"/>
       <c r="O51" s="74"/>
       <c r="P51" s="74"/>
       <c r="Q51" s="76"/>
@@ -11115,7 +11283,7 @@
     </row>
     <row r="52" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="33">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
@@ -11126,10 +11294,10 @@
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="179"/>
-      <c r="L52" s="180"/>
-      <c r="M52" s="180"/>
-      <c r="N52" s="181"/>
+      <c r="K52" s="181"/>
+      <c r="L52" s="182"/>
+      <c r="M52" s="182"/>
+      <c r="N52" s="183"/>
       <c r="O52" s="74"/>
       <c r="P52" s="74"/>
       <c r="Q52" s="76"/>
@@ -11140,7 +11308,7 @@
     </row>
     <row r="53" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="33">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
@@ -11151,10 +11319,10 @@
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="179"/>
-      <c r="L53" s="180"/>
-      <c r="M53" s="180"/>
-      <c r="N53" s="181"/>
+      <c r="K53" s="181"/>
+      <c r="L53" s="182"/>
+      <c r="M53" s="182"/>
+      <c r="N53" s="183"/>
       <c r="O53" s="74"/>
       <c r="P53" s="74"/>
       <c r="Q53" s="76"/>
@@ -11165,7 +11333,7 @@
     </row>
     <row r="54" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="33">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
@@ -11176,10 +11344,10 @@
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="179"/>
-      <c r="L54" s="180"/>
-      <c r="M54" s="180"/>
-      <c r="N54" s="181"/>
+      <c r="K54" s="181"/>
+      <c r="L54" s="182"/>
+      <c r="M54" s="182"/>
+      <c r="N54" s="183"/>
       <c r="O54" s="74"/>
       <c r="P54" s="74"/>
       <c r="Q54" s="76"/>
@@ -11190,7 +11358,7 @@
     </row>
     <row r="55" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="33">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
@@ -11201,10 +11369,10 @@
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="179"/>
-      <c r="L55" s="180"/>
-      <c r="M55" s="180"/>
-      <c r="N55" s="181"/>
+      <c r="K55" s="181"/>
+      <c r="L55" s="182"/>
+      <c r="M55" s="182"/>
+      <c r="N55" s="183"/>
       <c r="O55" s="74"/>
       <c r="P55" s="74"/>
       <c r="Q55" s="76"/>
@@ -11215,7 +11383,7 @@
     </row>
     <row r="56" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="33">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
@@ -11226,10 +11394,10 @@
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="179"/>
-      <c r="L56" s="180"/>
-      <c r="M56" s="180"/>
-      <c r="N56" s="181"/>
+      <c r="K56" s="181"/>
+      <c r="L56" s="182"/>
+      <c r="M56" s="182"/>
+      <c r="N56" s="183"/>
       <c r="O56" s="74"/>
       <c r="P56" s="74"/>
       <c r="Q56" s="76"/>
@@ -11240,7 +11408,7 @@
     </row>
     <row r="57" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="33">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="33"/>
       <c r="C57" s="33"/>
@@ -11251,10 +11419,10 @@
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="179"/>
-      <c r="L57" s="180"/>
-      <c r="M57" s="180"/>
-      <c r="N57" s="181"/>
+      <c r="K57" s="181"/>
+      <c r="L57" s="182"/>
+      <c r="M57" s="182"/>
+      <c r="N57" s="183"/>
       <c r="O57" s="74"/>
       <c r="P57" s="74"/>
       <c r="Q57" s="76"/>
@@ -11265,7 +11433,7 @@
     </row>
     <row r="58" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="33">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="33"/>
       <c r="C58" s="33"/>
@@ -11276,10 +11444,10 @@
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="179"/>
-      <c r="L58" s="180"/>
-      <c r="M58" s="180"/>
-      <c r="N58" s="181"/>
+      <c r="K58" s="181"/>
+      <c r="L58" s="182"/>
+      <c r="M58" s="182"/>
+      <c r="N58" s="183"/>
       <c r="O58" s="74"/>
       <c r="P58" s="74"/>
       <c r="Q58" s="76"/>
@@ -11290,7 +11458,7 @@
     </row>
     <row r="59" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="33">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
@@ -11301,10 +11469,10 @@
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="179"/>
-      <c r="L59" s="180"/>
-      <c r="M59" s="180"/>
-      <c r="N59" s="181"/>
+      <c r="K59" s="181"/>
+      <c r="L59" s="182"/>
+      <c r="M59" s="182"/>
+      <c r="N59" s="183"/>
       <c r="O59" s="74"/>
       <c r="P59" s="74"/>
       <c r="Q59" s="76"/>
@@ -11315,7 +11483,7 @@
     </row>
     <row r="60" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="33">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
@@ -11326,10 +11494,10 @@
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="179"/>
-      <c r="L60" s="180"/>
-      <c r="M60" s="180"/>
-      <c r="N60" s="181"/>
+      <c r="K60" s="181"/>
+      <c r="L60" s="182"/>
+      <c r="M60" s="182"/>
+      <c r="N60" s="183"/>
       <c r="O60" s="74"/>
       <c r="P60" s="74"/>
       <c r="Q60" s="76"/>
@@ -11340,7 +11508,7 @@
     </row>
     <row r="61" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="33">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="33"/>
       <c r="C61" s="33"/>
@@ -11351,10 +11519,10 @@
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="179"/>
-      <c r="L61" s="180"/>
-      <c r="M61" s="180"/>
-      <c r="N61" s="181"/>
+      <c r="K61" s="181"/>
+      <c r="L61" s="182"/>
+      <c r="M61" s="182"/>
+      <c r="N61" s="183"/>
       <c r="O61" s="74"/>
       <c r="P61" s="74"/>
       <c r="Q61" s="76"/>
@@ -11365,7 +11533,7 @@
     </row>
     <row r="62" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="33">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="33"/>
       <c r="C62" s="33"/>
@@ -11376,10 +11544,10 @@
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="179"/>
-      <c r="L62" s="180"/>
-      <c r="M62" s="180"/>
-      <c r="N62" s="181"/>
+      <c r="K62" s="181"/>
+      <c r="L62" s="182"/>
+      <c r="M62" s="182"/>
+      <c r="N62" s="183"/>
       <c r="O62" s="74"/>
       <c r="P62" s="74"/>
       <c r="Q62" s="76"/>
@@ -11388,9 +11556,9 @@
       <c r="T62" s="64"/>
       <c r="U62" s="64"/>
     </row>
-    <row r="63" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="33">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
@@ -11401,12 +11569,12 @@
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="179"/>
-      <c r="L63" s="180"/>
-      <c r="M63" s="180"/>
-      <c r="N63" s="181"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
+      <c r="K63" s="181"/>
+      <c r="L63" s="182"/>
+      <c r="M63" s="182"/>
+      <c r="N63" s="183"/>
+      <c r="O63" s="74"/>
+      <c r="P63" s="74"/>
       <c r="Q63" s="76"/>
       <c r="R63" s="75"/>
       <c r="S63" s="88"/>
@@ -11415,7 +11583,7 @@
     </row>
     <row r="64" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A64" s="33">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
@@ -11426,10 +11594,10 @@
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="179"/>
-      <c r="L64" s="180"/>
-      <c r="M64" s="180"/>
-      <c r="N64" s="181"/>
+      <c r="K64" s="181"/>
+      <c r="L64" s="182"/>
+      <c r="M64" s="182"/>
+      <c r="N64" s="183"/>
       <c r="O64" s="84"/>
       <c r="P64" s="84"/>
       <c r="Q64" s="76"/>
@@ -11438,9 +11606,9 @@
       <c r="T64" s="64"/>
       <c r="U64" s="64"/>
     </row>
-    <row r="65" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A65" s="33">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
@@ -11451,19 +11619,21 @@
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="179"/>
-      <c r="L65" s="180"/>
-      <c r="M65" s="180"/>
-      <c r="N65" s="181"/>
+      <c r="K65" s="181"/>
+      <c r="L65" s="182"/>
+      <c r="M65" s="182"/>
+      <c r="N65" s="183"/>
       <c r="O65" s="84"/>
       <c r="P65" s="84"/>
       <c r="Q65" s="76"/>
       <c r="R65" s="75"/>
       <c r="S65" s="88"/>
-    </row>
-    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="T65" s="64"/>
+      <c r="U65" s="64"/>
+    </row>
+    <row r="66" spans="1:21" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="33">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
@@ -11474,19 +11644,19 @@
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="179"/>
-      <c r="L66" s="180"/>
-      <c r="M66" s="180"/>
-      <c r="N66" s="181"/>
+      <c r="K66" s="181"/>
+      <c r="L66" s="182"/>
+      <c r="M66" s="182"/>
+      <c r="N66" s="183"/>
       <c r="O66" s="84"/>
       <c r="P66" s="84"/>
       <c r="Q66" s="76"/>
       <c r="R66" s="75"/>
       <c r="S66" s="88"/>
     </row>
-    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="33">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
@@ -11497,19 +11667,19 @@
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="179"/>
-      <c r="L67" s="180"/>
-      <c r="M67" s="180"/>
-      <c r="N67" s="181"/>
+      <c r="K67" s="181"/>
+      <c r="L67" s="182"/>
+      <c r="M67" s="182"/>
+      <c r="N67" s="183"/>
       <c r="O67" s="84"/>
       <c r="P67" s="84"/>
       <c r="Q67" s="76"/>
       <c r="R67" s="75"/>
       <c r="S67" s="88"/>
     </row>
-    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="33">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
@@ -11520,19 +11690,19 @@
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="179"/>
-      <c r="L68" s="180"/>
-      <c r="M68" s="180"/>
-      <c r="N68" s="181"/>
+      <c r="K68" s="181"/>
+      <c r="L68" s="182"/>
+      <c r="M68" s="182"/>
+      <c r="N68" s="183"/>
       <c r="O68" s="84"/>
       <c r="P68" s="84"/>
       <c r="Q68" s="76"/>
       <c r="R68" s="75"/>
       <c r="S68" s="88"/>
     </row>
-    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
@@ -11543,19 +11713,19 @@
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="179"/>
-      <c r="L69" s="180"/>
-      <c r="M69" s="180"/>
-      <c r="N69" s="181"/>
+      <c r="K69" s="181"/>
+      <c r="L69" s="182"/>
+      <c r="M69" s="182"/>
+      <c r="N69" s="183"/>
       <c r="O69" s="84"/>
       <c r="P69" s="84"/>
       <c r="Q69" s="76"/>
       <c r="R69" s="75"/>
       <c r="S69" s="88"/>
     </row>
-    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
@@ -11566,19 +11736,19 @@
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="179"/>
-      <c r="L70" s="180"/>
-      <c r="M70" s="180"/>
-      <c r="N70" s="181"/>
+      <c r="K70" s="181"/>
+      <c r="L70" s="182"/>
+      <c r="M70" s="182"/>
+      <c r="N70" s="183"/>
       <c r="O70" s="84"/>
       <c r="P70" s="84"/>
       <c r="Q70" s="76"/>
       <c r="R70" s="75"/>
       <c r="S70" s="88"/>
     </row>
-    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="33">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
@@ -11589,19 +11759,19 @@
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="179"/>
-      <c r="L71" s="180"/>
-      <c r="M71" s="180"/>
-      <c r="N71" s="181"/>
+      <c r="K71" s="181"/>
+      <c r="L71" s="182"/>
+      <c r="M71" s="182"/>
+      <c r="N71" s="183"/>
       <c r="O71" s="84"/>
       <c r="P71" s="84"/>
       <c r="Q71" s="76"/>
       <c r="R71" s="75"/>
       <c r="S71" s="88"/>
     </row>
-    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="33">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
@@ -11612,19 +11782,19 @@
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="179"/>
-      <c r="L72" s="180"/>
-      <c r="M72" s="180"/>
-      <c r="N72" s="181"/>
+      <c r="K72" s="181"/>
+      <c r="L72" s="182"/>
+      <c r="M72" s="182"/>
+      <c r="N72" s="183"/>
       <c r="O72" s="84"/>
       <c r="P72" s="84"/>
       <c r="Q72" s="76"/>
       <c r="R72" s="75"/>
       <c r="S72" s="88"/>
     </row>
-    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="33">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
@@ -11635,19 +11805,19 @@
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="179"/>
-      <c r="L73" s="180"/>
-      <c r="M73" s="180"/>
-      <c r="N73" s="181"/>
+      <c r="K73" s="181"/>
+      <c r="L73" s="182"/>
+      <c r="M73" s="182"/>
+      <c r="N73" s="183"/>
       <c r="O73" s="84"/>
       <c r="P73" s="84"/>
       <c r="Q73" s="76"/>
       <c r="R73" s="75"/>
       <c r="S73" s="88"/>
     </row>
-    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="33">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
@@ -11658,19 +11828,19 @@
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="179"/>
-      <c r="L74" s="180"/>
-      <c r="M74" s="180"/>
-      <c r="N74" s="181"/>
+      <c r="K74" s="181"/>
+      <c r="L74" s="182"/>
+      <c r="M74" s="182"/>
+      <c r="N74" s="183"/>
       <c r="O74" s="84"/>
       <c r="P74" s="84"/>
       <c r="Q74" s="76"/>
       <c r="R74" s="75"/>
       <c r="S74" s="88"/>
     </row>
-    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="33">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
@@ -11681,19 +11851,19 @@
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="179"/>
-      <c r="L75" s="180"/>
-      <c r="M75" s="180"/>
-      <c r="N75" s="181"/>
+      <c r="K75" s="181"/>
+      <c r="L75" s="182"/>
+      <c r="M75" s="182"/>
+      <c r="N75" s="183"/>
       <c r="O75" s="84"/>
       <c r="P75" s="84"/>
       <c r="Q75" s="76"/>
       <c r="R75" s="75"/>
       <c r="S75" s="88"/>
     </row>
-    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="33">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76" s="33"/>
       <c r="C76" s="33"/>
@@ -11704,19 +11874,19 @@
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="179"/>
-      <c r="L76" s="180"/>
-      <c r="M76" s="180"/>
-      <c r="N76" s="181"/>
+      <c r="K76" s="181"/>
+      <c r="L76" s="182"/>
+      <c r="M76" s="182"/>
+      <c r="N76" s="183"/>
       <c r="O76" s="84"/>
       <c r="P76" s="84"/>
       <c r="Q76" s="76"/>
       <c r="R76" s="75"/>
       <c r="S76" s="88"/>
     </row>
-    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="33">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77" s="33"/>
       <c r="C77" s="33"/>
@@ -11727,19 +11897,19 @@
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="179"/>
-      <c r="L77" s="180"/>
-      <c r="M77" s="180"/>
-      <c r="N77" s="181"/>
+      <c r="K77" s="181"/>
+      <c r="L77" s="182"/>
+      <c r="M77" s="182"/>
+      <c r="N77" s="183"/>
       <c r="O77" s="84"/>
       <c r="P77" s="84"/>
       <c r="Q77" s="76"/>
       <c r="R77" s="75"/>
       <c r="S77" s="88"/>
     </row>
-    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="33">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78" s="33"/>
       <c r="C78" s="33"/>
@@ -11750,19 +11920,19 @@
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="179"/>
-      <c r="L78" s="180"/>
-      <c r="M78" s="180"/>
-      <c r="N78" s="181"/>
+      <c r="K78" s="181"/>
+      <c r="L78" s="182"/>
+      <c r="M78" s="182"/>
+      <c r="N78" s="183"/>
       <c r="O78" s="84"/>
       <c r="P78" s="84"/>
       <c r="Q78" s="76"/>
       <c r="R78" s="75"/>
       <c r="S78" s="88"/>
     </row>
-    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="33">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79" s="33"/>
       <c r="C79" s="33"/>
@@ -11773,19 +11943,19 @@
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="179"/>
-      <c r="L79" s="180"/>
-      <c r="M79" s="180"/>
-      <c r="N79" s="181"/>
+      <c r="K79" s="181"/>
+      <c r="L79" s="182"/>
+      <c r="M79" s="182"/>
+      <c r="N79" s="183"/>
       <c r="O79" s="84"/>
       <c r="P79" s="84"/>
       <c r="Q79" s="76"/>
       <c r="R79" s="75"/>
       <c r="S79" s="88"/>
     </row>
-    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="33">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="33"/>
       <c r="C80" s="33"/>
@@ -11796,10 +11966,10 @@
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="179"/>
-      <c r="L80" s="180"/>
-      <c r="M80" s="180"/>
-      <c r="N80" s="181"/>
+      <c r="K80" s="181"/>
+      <c r="L80" s="182"/>
+      <c r="M80" s="182"/>
+      <c r="N80" s="183"/>
       <c r="O80" s="84"/>
       <c r="P80" s="84"/>
       <c r="Q80" s="76"/>
@@ -11808,7 +11978,7 @@
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="33">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81" s="33"/>
       <c r="C81" s="33"/>
@@ -11819,10 +11989,10 @@
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="179"/>
-      <c r="L81" s="180"/>
-      <c r="M81" s="180"/>
-      <c r="N81" s="181"/>
+      <c r="K81" s="181"/>
+      <c r="L81" s="182"/>
+      <c r="M81" s="182"/>
+      <c r="N81" s="183"/>
       <c r="O81" s="84"/>
       <c r="P81" s="84"/>
       <c r="Q81" s="76"/>
@@ -11831,7 +12001,7 @@
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="33">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82" s="33"/>
       <c r="C82" s="33"/>
@@ -11842,10 +12012,10 @@
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="179"/>
-      <c r="L82" s="180"/>
-      <c r="M82" s="180"/>
-      <c r="N82" s="181"/>
+      <c r="K82" s="181"/>
+      <c r="L82" s="182"/>
+      <c r="M82" s="182"/>
+      <c r="N82" s="183"/>
       <c r="O82" s="84"/>
       <c r="P82" s="84"/>
       <c r="Q82" s="76"/>
@@ -11854,7 +12024,7 @@
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="33">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83" s="33"/>
       <c r="C83" s="33"/>
@@ -11865,10 +12035,10 @@
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="179"/>
-      <c r="L83" s="180"/>
-      <c r="M83" s="180"/>
-      <c r="N83" s="181"/>
+      <c r="K83" s="181"/>
+      <c r="L83" s="182"/>
+      <c r="M83" s="182"/>
+      <c r="N83" s="183"/>
       <c r="O83" s="84"/>
       <c r="P83" s="84"/>
       <c r="Q83" s="76"/>
@@ -11877,7 +12047,7 @@
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="33">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84" s="33"/>
       <c r="C84" s="33"/>
@@ -11888,10 +12058,10 @@
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="179"/>
-      <c r="L84" s="180"/>
-      <c r="M84" s="180"/>
-      <c r="N84" s="181"/>
+      <c r="K84" s="181"/>
+      <c r="L84" s="182"/>
+      <c r="M84" s="182"/>
+      <c r="N84" s="183"/>
       <c r="O84" s="84"/>
       <c r="P84" s="84"/>
       <c r="Q84" s="76"/>
@@ -11900,7 +12070,7 @@
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="33">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85" s="33"/>
       <c r="C85" s="33"/>
@@ -11911,10 +12081,10 @@
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="179"/>
-      <c r="L85" s="180"/>
-      <c r="M85" s="180"/>
-      <c r="N85" s="181"/>
+      <c r="K85" s="181"/>
+      <c r="L85" s="182"/>
+      <c r="M85" s="182"/>
+      <c r="N85" s="183"/>
       <c r="O85" s="84"/>
       <c r="P85" s="84"/>
       <c r="Q85" s="76"/>
@@ -11923,7 +12093,7 @@
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="33">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86" s="33"/>
       <c r="C86" s="33"/>
@@ -11934,10 +12104,10 @@
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="179"/>
-      <c r="L86" s="180"/>
-      <c r="M86" s="180"/>
-      <c r="N86" s="181"/>
+      <c r="K86" s="181"/>
+      <c r="L86" s="182"/>
+      <c r="M86" s="182"/>
+      <c r="N86" s="183"/>
       <c r="O86" s="84"/>
       <c r="P86" s="84"/>
       <c r="Q86" s="76"/>
@@ -11946,7 +12116,7 @@
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="33">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" s="33"/>
       <c r="C87" s="33"/>
@@ -11957,10 +12127,10 @@
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="179"/>
-      <c r="L87" s="180"/>
-      <c r="M87" s="180"/>
-      <c r="N87" s="181"/>
+      <c r="K87" s="181"/>
+      <c r="L87" s="182"/>
+      <c r="M87" s="182"/>
+      <c r="N87" s="183"/>
       <c r="O87" s="84"/>
       <c r="P87" s="84"/>
       <c r="Q87" s="76"/>
@@ -11969,7 +12139,7 @@
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="33">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88" s="33"/>
       <c r="C88" s="33"/>
@@ -11980,10 +12150,10 @@
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="179"/>
-      <c r="L88" s="180"/>
-      <c r="M88" s="180"/>
-      <c r="N88" s="181"/>
+      <c r="K88" s="181"/>
+      <c r="L88" s="182"/>
+      <c r="M88" s="182"/>
+      <c r="N88" s="183"/>
       <c r="O88" s="84"/>
       <c r="P88" s="84"/>
       <c r="Q88" s="76"/>
@@ -11992,7 +12162,7 @@
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="33">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89" s="33"/>
       <c r="C89" s="33"/>
@@ -12003,10 +12173,10 @@
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="179"/>
-      <c r="L89" s="180"/>
-      <c r="M89" s="180"/>
-      <c r="N89" s="181"/>
+      <c r="K89" s="181"/>
+      <c r="L89" s="182"/>
+      <c r="M89" s="182"/>
+      <c r="N89" s="183"/>
       <c r="O89" s="84"/>
       <c r="P89" s="84"/>
       <c r="Q89" s="76"/>
@@ -12015,7 +12185,7 @@
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="33">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90" s="33"/>
       <c r="C90" s="33"/>
@@ -12026,10 +12196,10 @@
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="179"/>
-      <c r="L90" s="180"/>
-      <c r="M90" s="180"/>
-      <c r="N90" s="181"/>
+      <c r="K90" s="181"/>
+      <c r="L90" s="182"/>
+      <c r="M90" s="182"/>
+      <c r="N90" s="183"/>
       <c r="O90" s="84"/>
       <c r="P90" s="84"/>
       <c r="Q90" s="76"/>
@@ -12038,7 +12208,7 @@
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="33">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91" s="33"/>
       <c r="C91" s="33"/>
@@ -12049,10 +12219,10 @@
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="179"/>
-      <c r="L91" s="180"/>
-      <c r="M91" s="180"/>
-      <c r="N91" s="181"/>
+      <c r="K91" s="181"/>
+      <c r="L91" s="182"/>
+      <c r="M91" s="182"/>
+      <c r="N91" s="183"/>
       <c r="O91" s="84"/>
       <c r="P91" s="84"/>
       <c r="Q91" s="76"/>
@@ -12061,7 +12231,7 @@
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="33">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92" s="33"/>
       <c r="C92" s="33"/>
@@ -12072,10 +12242,10 @@
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="179"/>
-      <c r="L92" s="180"/>
-      <c r="M92" s="180"/>
-      <c r="N92" s="181"/>
+      <c r="K92" s="181"/>
+      <c r="L92" s="182"/>
+      <c r="M92" s="182"/>
+      <c r="N92" s="183"/>
       <c r="O92" s="84"/>
       <c r="P92" s="84"/>
       <c r="Q92" s="76"/>
@@ -12084,7 +12254,7 @@
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="33">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93" s="33"/>
       <c r="C93" s="33"/>
@@ -12095,10 +12265,10 @@
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="179"/>
-      <c r="L93" s="180"/>
-      <c r="M93" s="180"/>
-      <c r="N93" s="181"/>
+      <c r="K93" s="181"/>
+      <c r="L93" s="182"/>
+      <c r="M93" s="182"/>
+      <c r="N93" s="183"/>
       <c r="O93" s="84"/>
       <c r="P93" s="84"/>
       <c r="Q93" s="76"/>
@@ -12107,7 +12277,7 @@
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="33">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94" s="33"/>
       <c r="C94" s="33"/>
@@ -12118,10 +12288,10 @@
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="179"/>
-      <c r="L94" s="180"/>
-      <c r="M94" s="180"/>
-      <c r="N94" s="181"/>
+      <c r="K94" s="181"/>
+      <c r="L94" s="182"/>
+      <c r="M94" s="182"/>
+      <c r="N94" s="183"/>
       <c r="O94" s="84"/>
       <c r="P94" s="84"/>
       <c r="Q94" s="76"/>
@@ -12130,7 +12300,7 @@
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="33">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95" s="33"/>
       <c r="C95" s="33"/>
@@ -12141,79 +12311,77 @@
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="179"/>
-      <c r="L95" s="180"/>
-      <c r="M95" s="180"/>
-      <c r="N95" s="181"/>
+      <c r="K95" s="181"/>
+      <c r="L95" s="182"/>
+      <c r="M95" s="182"/>
+      <c r="N95" s="183"/>
       <c r="O95" s="84"/>
       <c r="P95" s="84"/>
       <c r="Q95" s="76"/>
       <c r="R95" s="75"/>
       <c r="S95" s="88"/>
     </row>
-    <row r="1048468" spans="17:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q1048468" s="76"/>
+    <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="33">
+        <v>90</v>
+      </c>
+      <c r="B96" s="33"/>
+      <c r="C96" s="33"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="33"/>
+      <c r="F96" s="33"/>
+      <c r="G96" s="84"/>
+      <c r="H96" s="63"/>
+      <c r="I96" s="63"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="181"/>
+      <c r="L96" s="182"/>
+      <c r="M96" s="182"/>
+      <c r="N96" s="183"/>
+      <c r="O96" s="84"/>
+      <c r="P96" s="84"/>
+      <c r="Q96" s="76"/>
+      <c r="R96" s="75"/>
+      <c r="S96" s="88"/>
+    </row>
+    <row r="1048469" spans="17:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q1048469" s="76"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="95">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
+  <mergeCells count="96">
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="K95:N95"/>
+    <mergeCell ref="K96:N96"/>
+    <mergeCell ref="K5:N5"/>
     <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K9:N9"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="K59:N59"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K95:N95"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K79:N79"/>
     <mergeCell ref="K80:N80"/>
     <mergeCell ref="K81:N81"/>
     <mergeCell ref="K82:N82"/>
@@ -12222,46 +12390,72 @@
     <mergeCell ref="K85:N85"/>
     <mergeCell ref="K86:N86"/>
     <mergeCell ref="K87:N87"/>
-    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K88:N88"/>
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K72:N72"/>
+    <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
     <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K73:N73"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K88:N88"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048468:Q1048576 Q5:Q95"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H95">
+    <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048469:Q1048576 Q5:Q96"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5:H96">
       <formula1>"Select,Insert,Update,Delete"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I96">
       <formula1>"SQL Script, ID SQL, ID Store, ID Function, ID Trigger"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R95">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R5:R96">
       <formula1>"Load,Click,Double Click,Change,Selected,KeyDown,KeyPress,Hover,Focus,LostFocus"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12280,8 +12474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:F28"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -12297,10 +12491,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12331,8 +12525,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12391,7 +12585,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12501,7 +12695,7 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="43" t="s">
-        <v>265</v>
+        <v>348</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -12538,7 +12732,7 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43" t="s">
-        <v>318</v>
+        <v>349</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
@@ -12551,7 +12745,7 @@
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="43" t="s">
-        <v>319</v>
+        <v>350</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
@@ -12615,7 +12809,7 @@
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="73"/>
       <c r="B24" s="43" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -12629,13 +12823,13 @@
     <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="73"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="185" t="s">
-        <v>331</v>
-      </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="185"/>
+      <c r="C25" s="187" t="s">
+        <v>314</v>
+      </c>
+      <c r="D25" s="187"/>
+      <c r="E25" s="187"/>
+      <c r="F25" s="187"/>
+      <c r="G25" s="187"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
@@ -12644,7 +12838,7 @@
       <c r="A26" s="73"/>
       <c r="B26" s="43"/>
       <c r="C26" s="86" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -12658,7 +12852,7 @@
       <c r="A27" s="73"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -12671,12 +12865,12 @@
     <row r="28" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="73"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="183" t="s">
-        <v>316</v>
-      </c>
-      <c r="D28" s="183"/>
-      <c r="E28" s="183"/>
-      <c r="F28" s="183"/>
+      <c r="C28" s="185" t="s">
+        <v>352</v>
+      </c>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
@@ -12685,7 +12879,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="73"/>
       <c r="B29" s="43" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12713,12 +12907,12 @@
     <row r="31" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="73"/>
       <c r="B31" s="43"/>
-      <c r="C31" s="184" t="s">
-        <v>320</v>
-      </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="184"/>
-      <c r="F31" s="184"/>
+      <c r="C31" s="186" t="s">
+        <v>353</v>
+      </c>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -12766,7 +12960,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="43"/>
       <c r="C35" s="86" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -12803,7 +12997,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="43"/>
       <c r="C38" s="86" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
@@ -12866,7 +13060,7 @@
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="43"/>
       <c r="C43" s="86" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -12903,7 +13097,7 @@
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="43"/>
       <c r="C46" s="86" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
@@ -13524,10 +13718,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="146"/>
+      <c r="B1" s="147"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13555,8 +13749,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146"/>
-      <c r="B2" s="146"/>
+      <c r="A2" s="147"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13967,14 +14161,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="186" t="s">
+      <c r="B1" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -14167,11 +14361,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="187" t="s">
+      <c r="E27" s="189" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="188"/>
-      <c r="G27" s="189"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="191"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">

--- a/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
+++ b/2015/201512/10_DOCUMENT/13_DETAIL_DESIGN/Cap nhat so do tuyen/CF0144_Cap nhat so do tuyen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SOFT\201512\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat so do tuyen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PROJECT\SVN_Daisuthuc\10_DOCUMENT\13_DETAIL_DESIGN\Cap nhat so do tuyen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="754" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="15480" windowHeight="9990" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -1390,7 +1390,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="358">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2318,10 +2318,6 @@
 - Enabled khi thực hiện Thêm mới dữ liệu mà chưa Lưu và khi thực hiện Sửa </t>
   </si>
   <si>
-    <t>-Hide trong lúc thực hiện menuItemThêm
-- Enabled trong lúc thực hiện MenuItem Sửa, Xem.</t>
-  </si>
-  <si>
     <t>Require</t>
   </si>
   <si>
@@ -2438,18 +2434,11 @@
     <t>Kiểm tra điều kiện @DivisionID và @RouteID trước khi lưu</t>
   </si>
   <si>
-    <t>Thỏa câu @SQL0002 thực thi câu SQL này để Insert dữ liệu vào DB</t>
-  </si>
-  <si>
     <t>INSERT INTO CT0144(DivisionID, RouteID, TransactionID, StationID, StationOrder, Notes)
 VALUES(@DivisionID, @RouteID, @TransactionID,@StationID, @StationOrder, @Notes)</t>
   </si>
   <si>
     <t>@DivisionID @RouteID @TransactionID @StationID @StationOrder @Notes</t>
-  </si>
-  <si>
-    <t>Thỏa câu @SQL0002 thực thi câu SQL này để Insert dữ liệu vào DB
-TransactionID sinh theo nguyên tắc APK(NEWID())</t>
   </si>
   <si>
     <t>@@DivisionID
@@ -2501,9 +2490,6 @@
   </si>
   <si>
     <t>Update dữ liệu khi thực hiện lưu sau khi Edit</t>
-  </si>
-  <si>
-    <t>Thực hiện khi sửa dữ liêu trong form detail</t>
   </si>
   <si>
     <t>- Tham khảo luồng nghiệp vụ 1</t>
@@ -2851,6 +2837,34 @@
     <t>- Thực thi @SQL0008 để lưu dữ lưu dữ liệu detail
 - Thực thi @SQL0009 để xóa dữ liệu detail và @SQL0005 để lưu dữ liệu Detail mới
 - Dialog message 00ML000015 và thực thi @SQL00010 để load dữ liệu lên Form CF0143</t>
+  </si>
+  <si>
+    <t>-Hide trong lúc thực hiện menuItemThêm
+- Unhide và Enable trong lúc thực hiện MenuItem Sửa, Xem.</t>
+  </si>
+  <si>
+    <t>AT1101</t>
+  </si>
+  <si>
+    <t>Check DivisionID cho trường hợp dùng chung</t>
+  </si>
+  <si>
+    <t>@SQL0011</t>
+  </si>
+  <si>
+    <t>Select * from AT1101 Where Disabled = 0</t>
+  </si>
+  <si>
+    <t>- Thỏa câu @SQL0002 thực thi câu SQL này để Insert dữ liệu vào DB
+- Nếu có check vào button [Dùng chung] thì thực thi câu @SQL0011, nếu có bao nhiêu DivisionID thì thực thi bây nhiêu câu Insert tương ứng với DivisionID đó</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Thỏa câu @SQL0002 thực thi câu SQL này để Insert dữ liệu vào DB
+TransactionID sinh theo nguyên tắc APK(NEWID())
+- Nếu có check vào button [Dùng chung] thì thực thi câu @SQL0011, nếu có bao nhiêu DivisionID thì thực thi bây nhiêu câu Insert tương ứng với DivisionID đó</t>
+  </si>
+  <si>
+    <t>Thực hiện khi sửa dữ liêu trong form detail, Khi sửa thì xóa hết dữ liệu Detail và thực thi câu @SQL0005 để insert dữ liệu cho đúng DivisionID đang sửa</t>
   </si>
 </sst>
 </file>
@@ -3310,7 +3324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3455,14 +3469,8 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3480,9 +3488,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3608,19 +3613,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3661,9 +3657,18 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3691,9 +3696,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3748,6 +3750,12 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3764,6 +3772,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3772,18 +3792,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3817,11 +3825,26 @@
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4189,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4206,10 +4229,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4225,7 +4248,7 @@
       <c r="G1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="96" t="s">
         <v>238</v>
       </c>
       <c r="I1" s="31" t="s">
@@ -4236,8 +4259,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4276,14 +4299,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="148" t="s">
+      <c r="E4" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="148"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="148"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="148"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
     </row>
     <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="40">
@@ -4296,162 +4319,162 @@
         <f>H2</f>
         <v>42383</v>
       </c>
-      <c r="D5" s="100" t="str">
+      <c r="D5" s="97" t="str">
         <f>H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="E5" s="149" t="s">
-        <v>309</v>
-      </c>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
+      <c r="E5" s="146" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
     </row>
     <row r="6" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="90">
+      <c r="A6" s="87">
         <v>2</v>
       </c>
       <c r="B6" s="41">
         <v>2</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="75"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="148"/>
+      <c r="G6" s="148"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="148"/>
+      <c r="J6" s="149"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="91">
+      <c r="A7" s="88">
         <v>3</v>
       </c>
       <c r="B7" s="41">
         <v>3</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="142"/>
-      <c r="I7" s="142"/>
-      <c r="J7" s="143"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="139"/>
+      <c r="H7" s="139"/>
+      <c r="I7" s="139"/>
+      <c r="J7" s="140"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="92">
+      <c r="A8" s="89">
         <v>4</v>
       </c>
       <c r="B8" s="41">
         <v>4</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="142"/>
+      <c r="J8" s="143"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="93">
+      <c r="A9" s="90">
         <v>5</v>
       </c>
       <c r="B9" s="41">
         <v>5</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="142"/>
-      <c r="J9" s="143"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="139"/>
+      <c r="I9" s="139"/>
+      <c r="J9" s="140"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="94">
+      <c r="A10" s="91">
         <v>6</v>
       </c>
       <c r="B10" s="41">
         <v>6</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="143"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="95">
+      <c r="A11" s="92">
         <v>7</v>
       </c>
       <c r="B11" s="41">
         <v>7</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="142"/>
-      <c r="I11" s="142"/>
-      <c r="J11" s="143"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="140"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="96">
+      <c r="A12" s="93">
         <v>8</v>
       </c>
       <c r="B12" s="41">
         <v>8</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="I12" s="142"/>
-      <c r="J12" s="143"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="97">
+      <c r="A13" s="94">
         <v>9</v>
       </c>
       <c r="B13" s="41">
         <v>9</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="76"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="143"/>
+      <c r="E13" s="138"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="140"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="98">
+      <c r="A14" s="95">
         <v>10</v>
       </c>
       <c r="B14" s="41">
         <v>10</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="76"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="143"/>
+      <c r="E14" s="138"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="139"/>
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="140"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="40">
@@ -4460,158 +4483,158 @@
       <c r="B15" s="41">
         <v>11</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="76"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="90">
+      <c r="A16" s="87">
         <v>12</v>
       </c>
       <c r="B16" s="41">
         <v>12</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="76"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="150"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="150"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="150"/>
-      <c r="J16" s="150"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="91">
+      <c r="A17" s="88">
         <v>13</v>
       </c>
       <c r="B17" s="41">
         <v>13</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="76"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="92">
+      <c r="A18" s="89">
         <v>14</v>
       </c>
       <c r="B18" s="41">
         <v>14</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="76"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="150"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="93">
+      <c r="A19" s="90">
         <v>15</v>
       </c>
       <c r="B19" s="41">
         <v>15</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="76"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="150"/>
-      <c r="F19" s="150"/>
-      <c r="G19" s="150"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="150"/>
-      <c r="J19" s="150"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="94">
+      <c r="A20" s="91">
         <v>16</v>
       </c>
       <c r="B20" s="41">
         <v>16</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="76"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="150"/>
-      <c r="G20" s="150"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="150"/>
-      <c r="J20" s="150"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="137"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="95">
+      <c r="A21" s="92">
         <v>17</v>
       </c>
       <c r="B21" s="41">
         <v>17</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="76"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="150"/>
-      <c r="J21" s="150"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="137"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="137"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="96">
+      <c r="A22" s="93">
         <v>18</v>
       </c>
       <c r="B22" s="41">
         <v>18</v>
       </c>
-      <c r="C22" s="79"/>
+      <c r="C22" s="76"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="150"/>
-      <c r="J22" s="150"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="137"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="97">
+      <c r="A23" s="94">
         <v>19</v>
       </c>
       <c r="B23" s="41">
         <v>19</v>
       </c>
-      <c r="C23" s="79"/>
+      <c r="C23" s="76"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="150"/>
-      <c r="F23" s="150"/>
-      <c r="G23" s="150"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="150"/>
-      <c r="J23" s="150"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="137"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="98">
+      <c r="A24" s="95">
         <v>20</v>
       </c>
       <c r="B24" s="41">
         <v>20</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="76"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="150"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="150"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="150"/>
-      <c r="J24" s="150"/>
+      <c r="E24" s="137"/>
+      <c r="F24" s="137"/>
+      <c r="G24" s="137"/>
+      <c r="H24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="137"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="40">
@@ -4620,158 +4643,158 @@
       <c r="B25" s="41">
         <v>21</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="76"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="G25" s="137"/>
+      <c r="H25" s="137"/>
+      <c r="I25" s="137"/>
+      <c r="J25" s="137"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="90">
+      <c r="A26" s="87">
         <v>22</v>
       </c>
       <c r="B26" s="41">
         <v>22</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="76"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
+      <c r="E26" s="137"/>
+      <c r="F26" s="137"/>
+      <c r="G26" s="137"/>
+      <c r="H26" s="137"/>
+      <c r="I26" s="137"/>
+      <c r="J26" s="137"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="91">
+      <c r="A27" s="88">
         <v>23</v>
       </c>
       <c r="B27" s="41">
         <v>23</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="76"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
+      <c r="E27" s="137"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="137"/>
+      <c r="J27" s="137"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="92">
+      <c r="A28" s="89">
         <v>24</v>
       </c>
       <c r="B28" s="41">
         <v>24</v>
       </c>
-      <c r="C28" s="79"/>
+      <c r="C28" s="76"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
+      <c r="E28" s="137"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="137"/>
+      <c r="I28" s="137"/>
+      <c r="J28" s="137"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="93">
+      <c r="A29" s="90">
         <v>25</v>
       </c>
       <c r="B29" s="41">
         <v>25</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="150"/>
-      <c r="F29" s="150"/>
-      <c r="G29" s="150"/>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
+      <c r="E29" s="137"/>
+      <c r="F29" s="137"/>
+      <c r="G29" s="137"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="137"/>
+      <c r="J29" s="137"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="94">
+      <c r="A30" s="91">
         <v>26</v>
       </c>
       <c r="B30" s="41">
         <v>26</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="95">
+      <c r="A31" s="92">
         <v>27</v>
       </c>
       <c r="B31" s="41">
         <v>27</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="96">
+      <c r="A32" s="93">
         <v>28</v>
       </c>
       <c r="B32" s="41">
         <v>28</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="97">
+      <c r="A33" s="94">
         <v>29</v>
       </c>
       <c r="B33" s="41">
         <v>29</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="98">
+      <c r="A34" s="95">
         <v>30</v>
       </c>
       <c r="B34" s="41">
         <v>30</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="150"/>
-      <c r="G34" s="150"/>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
+      <c r="E34" s="137"/>
+      <c r="F34" s="137"/>
+      <c r="G34" s="137"/>
+      <c r="H34" s="137"/>
+      <c r="I34" s="137"/>
+      <c r="J34" s="137"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="40">
@@ -4780,146 +4803,137 @@
       <c r="B35" s="41">
         <v>31</v>
       </c>
-      <c r="C35" s="79"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
+      <c r="E35" s="137"/>
+      <c r="F35" s="137"/>
+      <c r="G35" s="137"/>
+      <c r="H35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="137"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="90">
+      <c r="A36" s="87">
         <v>32</v>
       </c>
       <c r="B36" s="41">
         <v>32</v>
       </c>
-      <c r="C36" s="79"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
+      <c r="E36" s="137"/>
+      <c r="F36" s="137"/>
+      <c r="G36" s="137"/>
+      <c r="H36" s="137"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="137"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="91">
+      <c r="A37" s="88">
         <v>33</v>
       </c>
       <c r="B37" s="41">
         <v>33</v>
       </c>
-      <c r="C37" s="79"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="150"/>
-      <c r="F37" s="150"/>
-      <c r="G37" s="150"/>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
+      <c r="E37" s="137"/>
+      <c r="F37" s="137"/>
+      <c r="G37" s="137"/>
+      <c r="H37" s="137"/>
+      <c r="I37" s="137"/>
+      <c r="J37" s="137"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="92">
+      <c r="A38" s="89">
         <v>34</v>
       </c>
       <c r="B38" s="41">
         <v>34</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
+      <c r="E38" s="137"/>
+      <c r="F38" s="137"/>
+      <c r="G38" s="137"/>
+      <c r="H38" s="137"/>
+      <c r="I38" s="137"/>
+      <c r="J38" s="137"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="93">
+      <c r="A39" s="90">
         <v>35</v>
       </c>
       <c r="B39" s="41">
         <v>35</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="150"/>
-      <c r="F39" s="150"/>
-      <c r="G39" s="150"/>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="137"/>
+      <c r="G39" s="137"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="94">
+      <c r="A40" s="91">
         <v>36</v>
       </c>
       <c r="B40" s="41">
         <v>36</v>
       </c>
-      <c r="C40" s="79"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="150"/>
-      <c r="F40" s="150"/>
-      <c r="G40" s="150"/>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
+      <c r="E40" s="137"/>
+      <c r="F40" s="137"/>
+      <c r="G40" s="137"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="95">
+      <c r="A41" s="92">
         <v>37</v>
       </c>
       <c r="B41" s="41">
         <v>37</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="150"/>
-      <c r="G41" s="150"/>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
+      <c r="E41" s="137"/>
+      <c r="F41" s="137"/>
+      <c r="G41" s="137"/>
+      <c r="H41" s="137"/>
+      <c r="I41" s="137"/>
+      <c r="J41" s="137"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="96">
+      <c r="A42" s="93">
         <v>38</v>
       </c>
       <c r="B42" s="41">
         <v>38</v>
       </c>
-      <c r="C42" s="79"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
+      <c r="E42" s="137"/>
+      <c r="F42" s="137"/>
+      <c r="G42" s="137"/>
+      <c r="H42" s="137"/>
+      <c r="I42" s="137"/>
+      <c r="J42" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4935,14 +4949,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4979,154 +5002,154 @@
   <sheetData>
     <row r="4" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="106" t="s">
+      <c r="B5" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="107" t="s">
+      <c r="C5" s="104" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="109" t="s">
+      <c r="C6" s="106" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="105" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="106" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="105" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="106" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="105" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="109" t="s">
+      <c r="C9" s="106" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="109" t="s">
+      <c r="C10" s="106" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="C11" s="109" t="s">
+      <c r="C11" s="106" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="109" t="s">
+      <c r="C12" s="106" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="109" t="s">
+      <c r="C13" s="106" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="109" t="s">
+      <c r="C14" s="106" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="106" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="108" t="s">
+      <c r="B16" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="109" t="s">
+      <c r="C16" s="106" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="105" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="109" t="s">
+      <c r="C17" s="106" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="108" t="s">
+      <c r="B18" s="105" t="s">
         <v>149</v>
       </c>
-      <c r="C18" s="109" t="s">
+      <c r="C18" s="106" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="108" t="s">
+      <c r="B19" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="109" t="s">
+      <c r="C19" s="106" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="108" t="s">
+      <c r="B20" s="105" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="109" t="s">
+      <c r="C20" s="106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="112" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="116" t="s">
+      <c r="B22" s="113" t="s">
         <v>166</v>
       </c>
-      <c r="C22" s="117" t="s">
+      <c r="C22" s="114" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="115" t="s">
         <v>167</v>
       </c>
-      <c r="C23" s="109" t="s">
+      <c r="C23" s="106" t="s">
         <v>168</v>
       </c>
     </row>
@@ -5140,7 +5163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -5159,10 +5182,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5193,8 +5216,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5225,20 +5248,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="156"/>
-      <c r="C4" s="156"/>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="156"/>
-      <c r="G4" s="156"/>
-      <c r="H4" s="155"/>
-      <c r="I4" s="154" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="150" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="155"/>
+      <c r="J4" s="151"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="42"/>
@@ -5249,10 +5272,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="163" t="s">
+      <c r="I5" s="159" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="164"/>
+      <c r="J5" s="160"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
@@ -5263,8 +5286,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="165"/>
-      <c r="J6" s="166"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="162"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42"/>
@@ -5275,8 +5298,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="165"/>
-      <c r="J7" s="166"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="162"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="42"/>
@@ -5287,8 +5310,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="162"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="42"/>
@@ -5299,8 +5322,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="166"/>
+      <c r="I9" s="161"/>
+      <c r="J9" s="162"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="42"/>
@@ -5311,8 +5334,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="168"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="42"/>
@@ -5323,10 +5346,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="150" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="155"/>
+      <c r="J11" s="151"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="42"/>
@@ -5337,10 +5360,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="157" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="158"/>
+      <c r="I12" s="153" t="s">
+        <v>313</v>
+      </c>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="42"/>
@@ -5351,8 +5374,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="160"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="156"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="42"/>
@@ -5363,8 +5386,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="160"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="156"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="42"/>
@@ -5375,8 +5398,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="160"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="156"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="42"/>
@@ -5387,8 +5410,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="160"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="156"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="42"/>
@@ -5399,8 +5422,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="160"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="156"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="42"/>
@@ -5411,8 +5434,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="160"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="156"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="42"/>
@@ -5423,8 +5446,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="160"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="156"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="42"/>
@@ -5435,8 +5458,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="160"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="156"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="42"/>
@@ -5447,8 +5470,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="160"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="156"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="42"/>
@@ -5459,8 +5482,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="160"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="156"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="42"/>
@@ -5471,8 +5494,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="160"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="156"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="42"/>
@@ -5483,8 +5506,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="159"/>
-      <c r="J24" s="160"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="156"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="42"/>
@@ -5495,8 +5518,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="160"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="156"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="42"/>
@@ -5507,8 +5530,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="160"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="156"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="42"/>
@@ -5519,8 +5542,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="160"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="156"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="42"/>
@@ -5531,8 +5554,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="160"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="156"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="42"/>
@@ -5543,8 +5566,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="160"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="156"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="42"/>
@@ -5555,8 +5578,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="160"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="42"/>
@@ -5567,8 +5590,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="160"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
@@ -5579,8 +5602,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="160"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="42"/>
@@ -5591,8 +5614,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="160"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="156"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="42"/>
@@ -5603,8 +5626,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="160"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="156"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="42"/>
@@ -5615,8 +5638,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="160"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="156"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="42"/>
@@ -5627,8 +5650,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="159"/>
-      <c r="J36" s="160"/>
+      <c r="I36" s="155"/>
+      <c r="J36" s="156"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="42"/>
@@ -5639,8 +5662,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="160"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="156"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="42"/>
@@ -5651,8 +5674,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="160"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="156"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="42"/>
@@ -5663,8 +5686,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="160"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="156"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="42"/>
@@ -5675,8 +5698,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="159"/>
-      <c r="J40" s="160"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="156"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="42"/>
@@ -5687,8 +5710,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="159"/>
-      <c r="J41" s="160"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="156"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="42"/>
@@ -5699,8 +5722,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="159"/>
-      <c r="J42" s="160"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="156"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="47"/>
@@ -5711,8 +5734,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="161"/>
-      <c r="J43" s="162"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5743,10 +5766,10 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="4" topLeftCell="P11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P28" sqref="P28"/>
+      <selection pane="bottomRight" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5771,13 +5794,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5785,16 +5808,16 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="H1" s="169" t="s">
+      <c r="H1" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="170"/>
-      <c r="J1" s="171" t="str">
+      <c r="I1" s="168"/>
+      <c r="J1" s="169" t="str">
         <f>'Update History'!F1</f>
         <v>CF0144</v>
       </c>
-      <c r="K1" s="172"/>
-      <c r="L1" s="173"/>
+      <c r="K1" s="170"/>
+      <c r="L1" s="171"/>
       <c r="M1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5805,17 +5828,17 @@
       <c r="O1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="136" t="str">
+      <c r="P1" s="130" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
       <c r="F2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5823,16 +5846,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="H2" s="169" t="s">
+      <c r="H2" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="170"/>
-      <c r="J2" s="171" t="str">
+      <c r="I2" s="168"/>
+      <c r="J2" s="169" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật sơ đồ tuyến</v>
       </c>
-      <c r="K2" s="172"/>
-      <c r="L2" s="173"/>
+      <c r="K2" s="170"/>
+      <c r="L2" s="171"/>
       <c r="M2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5843,7 +5866,7 @@
       <c r="O2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="137">
+      <c r="P2" s="131">
         <f>'Update History'!J2</f>
         <v>42387</v>
       </c>
@@ -5915,22 +5938,22 @@
         <f>'Update History'!F2</f>
         <v>Cập nhật sơ đồ tuyến</v>
       </c>
-      <c r="F5" s="83" t="str">
+      <c r="F5" s="80" t="str">
         <f>'Update History'!F1</f>
         <v>CF0144</v>
       </c>
-      <c r="G5" s="69"/>
+      <c r="G5" s="68"/>
       <c r="H5" s="40" t="s">
         <v>106</v>
       </c>
       <c r="I5" s="40"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="120"/>
+      <c r="K5" s="117"/>
       <c r="L5" s="40"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="69"/>
-      <c r="P5" s="69"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -5948,10 +5971,10 @@
       <c r="E6" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="F6" s="88" t="s">
+      <c r="F6" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="G6" s="119" t="s">
+      <c r="G6" s="116" t="s">
         <v>191</v>
       </c>
       <c r="H6" s="40" t="s">
@@ -5963,16 +5986,16 @@
       <c r="J6" s="62">
         <v>50</v>
       </c>
-      <c r="K6" s="120" t="s">
+      <c r="K6" s="117" t="s">
         <v>215</v>
       </c>
       <c r="L6" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="130" t="s">
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="124" t="s">
         <v>242</v>
       </c>
     </row>
@@ -5992,10 +6015,10 @@
       <c r="E7" s="59" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="88" t="s">
+      <c r="F7" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="G7" s="119" t="s">
+      <c r="G7" s="116" t="s">
         <v>192</v>
       </c>
       <c r="H7" s="40" t="s">
@@ -6007,16 +6030,16 @@
       <c r="J7" s="62">
         <v>250</v>
       </c>
-      <c r="K7" s="120" t="s">
+      <c r="K7" s="117" t="s">
         <v>215</v>
       </c>
       <c r="L7" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="M7" s="88"/>
-      <c r="N7" s="88"/>
-      <c r="O7" s="88"/>
-      <c r="P7" s="88"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -6034,10 +6057,10 @@
       <c r="E8" s="59" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="88" t="s">
+      <c r="F8" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="119" t="s">
+      <c r="G8" s="116" t="s">
         <v>132</v>
       </c>
       <c r="H8" s="40" t="s">
@@ -6049,14 +6072,14 @@
       <c r="J8" s="62">
         <v>500</v>
       </c>
-      <c r="K8" s="120"/>
+      <c r="K8" s="117"/>
       <c r="L8" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="88"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="85"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -6072,19 +6095,19 @@
         <v>5</v>
       </c>
       <c r="E9" s="59"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="88"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
       <c r="H9" s="40" t="s">
         <v>211</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="120"/>
+      <c r="K9" s="117"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="88"/>
-      <c r="P9" s="88"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -6102,8 +6125,8 @@
       <c r="E10" s="59" t="s">
         <v>178</v>
       </c>
-      <c r="F10" s="88"/>
-      <c r="G10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="81"/>
       <c r="H10" s="40" t="s">
         <v>212</v>
       </c>
@@ -6111,12 +6134,12 @@
         <v>214</v>
       </c>
       <c r="J10" s="62"/>
-      <c r="K10" s="120"/>
+      <c r="K10" s="117"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="88"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="85"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -6134,10 +6157,10 @@
       <c r="E11" s="59" t="s">
         <v>179</v>
       </c>
-      <c r="F11" s="88" t="s">
+      <c r="F11" s="85" t="s">
         <v>193</v>
       </c>
-      <c r="G11" s="119" t="s">
+      <c r="G11" s="116" t="s">
         <v>193</v>
       </c>
       <c r="H11" s="40" t="s">
@@ -6149,16 +6172,16 @@
       <c r="J11" s="62">
         <v>28</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="117" t="s">
         <v>215</v>
       </c>
       <c r="L11" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="M11" s="83"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="88" t="s">
+      <c r="M11" s="80"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="85" t="s">
         <v>216</v>
       </c>
     </row>
@@ -6178,10 +6201,10 @@
       <c r="E12" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="F12" s="88" t="s">
+      <c r="F12" s="85" t="s">
         <v>194</v>
       </c>
-      <c r="G12" s="119" t="s">
+      <c r="G12" s="116" t="s">
         <v>194</v>
       </c>
       <c r="H12" s="40" t="s">
@@ -6191,16 +6214,16 @@
         <v>206</v>
       </c>
       <c r="J12" s="62"/>
-      <c r="K12" s="120" t="s">
+      <c r="K12" s="117" t="s">
         <v>215</v>
       </c>
       <c r="L12" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="M12" s="89"/>
-      <c r="N12" s="69"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="88"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="85"/>
     </row>
     <row r="13" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -6218,10 +6241,10 @@
       <c r="E13" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="85" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="126"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="40" t="s">
         <v>212</v>
       </c>
@@ -6229,14 +6252,14 @@
         <v>206</v>
       </c>
       <c r="J13" s="62"/>
-      <c r="K13" s="120"/>
+      <c r="K13" s="117"/>
       <c r="L13" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="M13" s="89"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="88"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="85"/>
     </row>
     <row r="14" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -6254,10 +6277,10 @@
       <c r="E14" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="G14" s="126"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="40" t="s">
         <v>212</v>
       </c>
@@ -6265,14 +6288,14 @@
         <v>206</v>
       </c>
       <c r="J14" s="62"/>
-      <c r="K14" s="120"/>
+      <c r="K14" s="117"/>
       <c r="L14" s="40" t="s">
         <v>217</v>
       </c>
       <c r="M14" s="62"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="88"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="85"/>
     </row>
     <row r="15" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -6290,10 +6313,10 @@
       <c r="E15" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="85" t="s">
         <v>197</v>
       </c>
-      <c r="G15" s="126"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="40" t="s">
         <v>212</v>
       </c>
@@ -6301,14 +6324,14 @@
         <v>206</v>
       </c>
       <c r="J15" s="62"/>
-      <c r="K15" s="120"/>
+      <c r="K15" s="117"/>
       <c r="L15" s="40" t="s">
         <v>217</v>
       </c>
       <c r="M15" s="62"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="88"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="85"/>
     </row>
     <row r="16" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -6326,10 +6349,10 @@
       <c r="E16" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="88" t="s">
+      <c r="F16" s="85" t="s">
         <v>198</v>
       </c>
-      <c r="G16" s="126"/>
+      <c r="G16" s="120"/>
       <c r="H16" s="40" t="s">
         <v>212</v>
       </c>
@@ -6337,14 +6360,14 @@
         <v>206</v>
       </c>
       <c r="J16" s="62"/>
-      <c r="K16" s="120"/>
+      <c r="K16" s="117"/>
       <c r="L16" s="40" t="s">
         <v>217</v>
       </c>
       <c r="M16" s="62"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="88"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="85"/>
     </row>
     <row r="17" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -6362,10 +6385,10 @@
       <c r="E17" s="59" t="s">
         <v>185</v>
       </c>
-      <c r="F17" s="88" t="s">
+      <c r="F17" s="85" t="s">
         <v>199</v>
       </c>
-      <c r="G17" s="126"/>
+      <c r="G17" s="120"/>
       <c r="H17" s="40" t="s">
         <v>212</v>
       </c>
@@ -6373,14 +6396,14 @@
         <v>206</v>
       </c>
       <c r="J17" s="62"/>
-      <c r="K17" s="120"/>
+      <c r="K17" s="117"/>
       <c r="L17" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="M17" s="69"/>
-      <c r="N17" s="69"/>
-      <c r="O17" s="69"/>
-      <c r="P17" s="88"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="85"/>
     </row>
     <row r="18" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -6398,10 +6421,10 @@
       <c r="E18" s="59" t="s">
         <v>186</v>
       </c>
-      <c r="F18" s="88" t="s">
+      <c r="F18" s="85" t="s">
         <v>200</v>
       </c>
-      <c r="G18" s="119" t="s">
+      <c r="G18" s="116" t="s">
         <v>200</v>
       </c>
       <c r="H18" s="40" t="s">
@@ -6411,14 +6434,14 @@
         <v>206</v>
       </c>
       <c r="J18" s="40"/>
-      <c r="K18" s="120"/>
+      <c r="K18" s="117"/>
       <c r="L18" s="40" t="s">
         <v>151</v>
       </c>
       <c r="M18" s="40"/>
       <c r="N18" s="40"/>
-      <c r="O18" s="69"/>
-      <c r="P18" s="88"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="85"/>
     </row>
     <row r="19" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -6436,21 +6459,21 @@
       <c r="E19" s="59" t="s">
         <v>187</v>
       </c>
-      <c r="F19" s="88" t="s">
+      <c r="F19" s="85" t="s">
         <v>201</v>
       </c>
-      <c r="G19" s="84"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="40" t="s">
         <v>213</v>
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="120"/>
+      <c r="K19" s="117"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
-      <c r="O19" s="83"/>
-      <c r="P19" s="131" t="s">
+      <c r="O19" s="80"/>
+      <c r="P19" s="125" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6470,21 +6493,21 @@
       <c r="E20" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="F20" s="88" t="s">
+      <c r="F20" s="85" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="88"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="40" t="s">
         <v>213</v>
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="120"/>
+      <c r="K20" s="117"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="130" t="s">
+      <c r="O20" s="68"/>
+      <c r="P20" s="124" t="s">
         <v>244</v>
       </c>
     </row>
@@ -6504,21 +6527,21 @@
       <c r="E21" s="59" t="s">
         <v>188</v>
       </c>
-      <c r="F21" s="88" t="s">
+      <c r="F21" s="85" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="88"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="40" t="s">
         <v>213</v>
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="120"/>
+      <c r="K21" s="117"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="40"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="130" t="s">
+      <c r="O21" s="68"/>
+      <c r="P21" s="124" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6538,21 +6561,21 @@
       <c r="E22" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="85" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="40" t="s">
         <v>213</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="120"/>
+      <c r="K22" s="117"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
-      <c r="O22" s="88"/>
-      <c r="P22" s="88"/>
+      <c r="O22" s="85"/>
+      <c r="P22" s="85"/>
     </row>
     <row r="23" spans="1:16" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -6570,10 +6593,10 @@
       <c r="E23" s="59" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="88" t="s">
+      <c r="F23" s="85" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="119" t="s">
+      <c r="G23" s="116" t="s">
         <v>208</v>
       </c>
       <c r="H23" s="40" t="s">
@@ -6583,15 +6606,15 @@
         <v>210</v>
       </c>
       <c r="J23" s="40"/>
-      <c r="K23" s="120"/>
+      <c r="K23" s="117"/>
       <c r="L23" s="40" t="s">
         <v>151</v>
       </c>
       <c r="M23" s="40"/>
       <c r="N23" s="40"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="130" t="s">
-        <v>246</v>
+      <c r="O23" s="68"/>
+      <c r="P23" s="124" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6607,17 +6630,17 @@
       <c r="D24" s="33">
         <v>11</v>
       </c>
-      <c r="E24" s="192" t="s">
+      <c r="E24" s="165" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="81" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" s="133" t="s">
+        <v>319</v>
+      </c>
+      <c r="H24" s="40" t="s">
         <v>321</v>
-      </c>
-      <c r="F24" s="84" t="s">
-        <v>323</v>
-      </c>
-      <c r="G24" s="139" t="s">
-        <v>323</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>325</v>
       </c>
       <c r="I24" s="40" t="s">
         <v>206</v>
@@ -6645,12 +6668,12 @@
       <c r="D25" s="33">
         <v>12</v>
       </c>
-      <c r="E25" s="193"/>
-      <c r="F25" s="88" t="s">
-        <v>330</v>
-      </c>
-      <c r="G25" s="139" t="s">
-        <v>330</v>
+      <c r="E25" s="166"/>
+      <c r="F25" s="85" t="s">
+        <v>326</v>
+      </c>
+      <c r="G25" s="133" t="s">
+        <v>326</v>
       </c>
       <c r="H25" s="40" t="s">
         <v>205</v>
@@ -6667,7 +6690,7 @@
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
       <c r="P25" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -6683,14 +6706,14 @@
       <c r="D26" s="33">
         <v>13</v>
       </c>
-      <c r="E26" s="87" t="s">
-        <v>322</v>
-      </c>
-      <c r="F26" s="139" t="s">
-        <v>324</v>
-      </c>
-      <c r="G26" s="139" t="s">
-        <v>324</v>
+      <c r="E26" s="84" t="s">
+        <v>318</v>
+      </c>
+      <c r="F26" s="133" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" s="133" t="s">
+        <v>320</v>
       </c>
       <c r="H26" s="40" t="s">
         <v>209</v>
@@ -6715,8 +6738,8 @@
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
@@ -6735,8 +6758,8 @@
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -6755,8 +6778,8 @@
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
@@ -6775,8 +6798,8 @@
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
@@ -6795,8 +6818,8 @@
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
@@ -6815,8 +6838,8 @@
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
@@ -6835,8 +6858,8 @@
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
-      <c r="E33" s="69"/>
-      <c r="F33" s="69"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="40"/>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
@@ -6855,8 +6878,8 @@
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
@@ -6875,8 +6898,8 @@
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
       <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
@@ -6895,8 +6918,8 @@
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
@@ -6915,8 +6938,8 @@
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
@@ -6935,8 +6958,8 @@
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
@@ -6955,8 +6978,8 @@
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
@@ -6975,8 +6998,8 @@
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
-      <c r="E40" s="69"/>
-      <c r="F40" s="69"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
@@ -6995,8 +7018,8 @@
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
@@ -7015,8 +7038,8 @@
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
@@ -7035,8 +7058,8 @@
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="69"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="40"/>
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
@@ -7055,8 +7078,8 @@
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="40"/>
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
@@ -7075,8 +7098,8 @@
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
       <c r="G45" s="40"/>
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
@@ -7095,8 +7118,8 @@
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="68"/>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
@@ -7115,8 +7138,8 @@
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
@@ -7135,9 +7158,9 @@
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74"/>
-      <c r="G48" s="74"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="72"/>
+      <c r="G48" s="72"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
@@ -7155,8 +7178,8 @@
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
       <c r="G49" s="40"/>
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
@@ -7175,9 +7198,9 @@
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
+      <c r="G50" s="72"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
@@ -7195,8 +7218,8 @@
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="74"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="72"/>
       <c r="G51" s="40"/>
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
@@ -7215,8 +7238,8 @@
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
-      <c r="E52" s="74"/>
-      <c r="F52" s="74"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
       <c r="G52" s="40"/>
       <c r="H52" s="40"/>
       <c r="I52" s="40"/>
@@ -7235,8 +7258,8 @@
       <c r="B53" s="33"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="72"/>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
       <c r="I53" s="40"/>
@@ -7255,8 +7278,8 @@
       <c r="B54" s="33"/>
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
-      <c r="E54" s="74"/>
-      <c r="F54" s="74"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="72"/>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
       <c r="I54" s="40"/>
@@ -7306,7 +7329,7 @@
   <dimension ref="A1:R52"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7336,28 +7359,28 @@
       </c>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
-      <c r="D1" s="105" t="str">
+      <c r="D1" s="102" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="105" t="str">
+      <c r="F1" s="102" t="str">
         <f>'Update History'!F1</f>
         <v>CF0144</v>
       </c>
       <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="112" t="str">
+      <c r="H1" s="109" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="I1" s="104" t="s">
+      <c r="I1" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="112" t="str">
+      <c r="J1" s="109" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
@@ -7369,14 +7392,14 @@
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
-      <c r="D2" s="105" t="str">
+      <c r="D2" s="102" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
       <c r="E2" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="105" t="str">
+      <c r="F2" s="102" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật sơ đồ tuyến</v>
       </c>
@@ -7387,7 +7410,7 @@
         <f>'Update History'!H2</f>
         <v>42383</v>
       </c>
-      <c r="I2" s="104" t="s">
+      <c r="I2" s="101" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="67">
@@ -7446,26 +7469,26 @@
       <c r="C5" s="33">
         <v>51</v>
       </c>
-      <c r="D5" s="126" t="s">
+      <c r="D5" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="E5" s="126" t="s">
+      <c r="E5" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F5" s="126" t="s">
+        <v>236</v>
+      </c>
+      <c r="G5" s="62"/>
+      <c r="H5" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="I5" s="120" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="132" t="s">
-        <v>236</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="126" t="s">
-        <v>249</v>
-      </c>
-      <c r="I5" s="126" t="s">
-        <v>248</v>
-      </c>
       <c r="J5" s="63" t="s">
-        <v>258</v>
-      </c>
-      <c r="K5" s="69"/>
+        <v>257</v>
+      </c>
+      <c r="K5" s="68"/>
     </row>
     <row r="6" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -7477,26 +7500,26 @@
       <c r="C6" s="33">
         <v>51</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D6" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="126" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="132" t="s">
+      <c r="E6" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="126" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="62"/>
+      <c r="H6" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="126" t="s">
+      <c r="I6" s="120" t="s">
         <v>251</v>
       </c>
-      <c r="I6" s="126" t="s">
+      <c r="J6" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="J6" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="K6" s="88"/>
+      <c r="K6" s="85"/>
     </row>
     <row r="7" spans="1:17" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -7508,26 +7531,26 @@
       <c r="C7" s="33">
         <v>51</v>
       </c>
-      <c r="D7" s="129" t="s">
+      <c r="D7" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="126" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="132" t="s">
-        <v>307</v>
+      <c r="E7" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="126" t="s">
+        <v>303</v>
       </c>
       <c r="G7" s="62"/>
-      <c r="H7" s="126" t="s">
-        <v>308</v>
-      </c>
-      <c r="I7" s="126" t="s">
+      <c r="H7" s="120" t="s">
+        <v>304</v>
+      </c>
+      <c r="I7" s="120" t="s">
+        <v>251</v>
+      </c>
+      <c r="J7" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="J7" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="K7" s="84"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -7539,26 +7562,26 @@
       <c r="C8" s="33">
         <v>51</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="D8" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="132" t="s">
+      <c r="E8" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="126" t="s">
+        <v>255</v>
+      </c>
+      <c r="G8" s="62"/>
+      <c r="H8" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="69" t="s">
-        <v>257</v>
-      </c>
-      <c r="I8" s="84" t="s">
+      <c r="I8" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="J8" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="J8" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="K8" s="84"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -7570,26 +7593,26 @@
       <c r="C9" s="33">
         <v>51</v>
       </c>
-      <c r="D9" s="84" t="s">
+      <c r="D9" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="E9" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="F9" s="132" t="s">
+      <c r="E9" s="81" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="126" t="s">
         <v>236</v>
       </c>
       <c r="G9" s="62"/>
-      <c r="H9" s="84" t="s">
-        <v>255</v>
-      </c>
-      <c r="I9" s="84" t="s">
+      <c r="H9" s="81" t="s">
+        <v>254</v>
+      </c>
+      <c r="I9" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="J9" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="J9" s="63" t="s">
-        <v>253</v>
-      </c>
-      <c r="K9" s="69"/>
+      <c r="K9" s="68"/>
     </row>
     <row r="10" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -7601,25 +7624,25 @@
       <c r="C10" s="33">
         <v>51</v>
       </c>
-      <c r="D10" s="126" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="126" t="s">
-        <v>310</v>
-      </c>
-      <c r="F10" s="134"/>
+      <c r="D10" s="120" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="128"/>
       <c r="G10" s="62"/>
-      <c r="H10" s="126" t="s">
-        <v>254</v>
-      </c>
-      <c r="I10" s="126" t="s">
-        <v>252</v>
+      <c r="H10" s="120" t="s">
+        <v>253</v>
+      </c>
+      <c r="I10" s="120" t="s">
+        <v>251</v>
       </c>
       <c r="J10" s="63" t="s">
-        <v>262</v>
-      </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="110"/>
+        <v>261</v>
+      </c>
+      <c r="K10" s="68"/>
+      <c r="L10" s="107"/>
     </row>
     <row r="11" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -7631,25 +7654,25 @@
       <c r="C11" s="33">
         <v>51</v>
       </c>
-      <c r="D11" s="84" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="84" t="s">
-        <v>247</v>
+      <c r="D11" s="81" t="s">
+        <v>322</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>246</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="62"/>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="68" t="s">
+        <v>262</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="J11" s="79" t="s">
         <v>263</v>
       </c>
-      <c r="I11" s="84" t="s">
-        <v>252</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>264</v>
-      </c>
-      <c r="K11" s="69"/>
-      <c r="L11" s="110"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="107"/>
     </row>
     <row r="12" spans="1:17" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -7661,25 +7684,25 @@
       <c r="C12" s="33">
         <v>51</v>
       </c>
-      <c r="D12" s="84" t="s">
-        <v>342</v>
-      </c>
-      <c r="E12" s="84" t="s">
-        <v>247</v>
+      <c r="D12" s="81" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>246</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="62"/>
-      <c r="H12" s="138" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="138" t="s">
-        <v>252</v>
+      <c r="H12" s="132" t="s">
+        <v>312</v>
+      </c>
+      <c r="I12" s="132" t="s">
+        <v>251</v>
       </c>
       <c r="J12" s="63" t="s">
-        <v>315</v>
-      </c>
-      <c r="K12" s="69"/>
-      <c r="L12" s="110"/>
+        <v>311</v>
+      </c>
+      <c r="K12" s="68"/>
+      <c r="L12" s="107"/>
     </row>
     <row r="13" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -7687,15 +7710,15 @@
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="33"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
       <c r="F13" s="40"/>
       <c r="G13" s="62"/>
       <c r="H13" s="61"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="110"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="107"/>
     </row>
     <row r="14" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -7703,15 +7726,15 @@
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="74"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="72"/>
       <c r="F14" s="40"/>
       <c r="G14" s="62"/>
       <c r="H14" s="61"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="110"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="107"/>
     </row>
     <row r="15" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -7719,15 +7742,15 @@
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="74"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="72"/>
       <c r="F15" s="40"/>
       <c r="G15" s="62"/>
       <c r="H15" s="61"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="110"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="107"/>
     </row>
     <row r="16" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -7735,15 +7758,15 @@
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="74"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="40"/>
       <c r="G16" s="62"/>
       <c r="H16" s="61"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="110"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="107"/>
     </row>
     <row r="17" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -7751,15 +7774,15 @@
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="33"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="72"/>
       <c r="F17" s="40"/>
       <c r="G17" s="62"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="110"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="107"/>
     </row>
     <row r="18" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -7767,15 +7790,15 @@
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="74"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="40"/>
       <c r="G18" s="62"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="110"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="107"/>
     </row>
     <row r="19" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -7783,15 +7806,15 @@
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="33"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="40"/>
       <c r="G19" s="62"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="110"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="107"/>
     </row>
     <row r="20" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -7799,15 +7822,15 @@
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="33"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="74"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="72"/>
       <c r="F20" s="40"/>
       <c r="G20" s="62"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="110"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="107"/>
     </row>
     <row r="21" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -7815,15 +7838,15 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="33"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="74"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="40"/>
       <c r="G21" s="62"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="110"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="107"/>
     </row>
     <row r="22" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -7831,15 +7854,15 @@
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="33"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="72"/>
       <c r="F22" s="40"/>
       <c r="G22" s="62"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="110"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="107"/>
     </row>
     <row r="23" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -7847,15 +7870,15 @@
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="33"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="74"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="40"/>
       <c r="G23" s="62"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="110"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="107"/>
     </row>
     <row r="24" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -7863,15 +7886,15 @@
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="74"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="72"/>
       <c r="F24" s="40"/>
       <c r="G24" s="62"/>
       <c r="H24" s="61"/>
       <c r="I24" s="62"/>
       <c r="J24" s="61"/>
       <c r="K24" s="62"/>
-      <c r="L24" s="111"/>
+      <c r="L24" s="108"/>
     </row>
     <row r="25" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -7879,15 +7902,15 @@
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="33"/>
-      <c r="D25" s="84"/>
-      <c r="E25" s="74"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="40"/>
       <c r="G25" s="62"/>
       <c r="H25" s="61"/>
       <c r="I25" s="62"/>
       <c r="J25" s="61"/>
       <c r="K25" s="62"/>
-      <c r="L25" s="111"/>
+      <c r="L25" s="108"/>
     </row>
     <row r="26" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -7895,15 +7918,15 @@
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="74"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="72"/>
       <c r="F26" s="40"/>
       <c r="G26" s="62"/>
       <c r="H26" s="61"/>
       <c r="I26" s="62"/>
       <c r="J26" s="61"/>
       <c r="K26" s="62"/>
-      <c r="L26" s="111"/>
+      <c r="L26" s="108"/>
     </row>
     <row r="27" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -7911,15 +7934,15 @@
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="33"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="74"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="40"/>
       <c r="G27" s="62"/>
       <c r="H27" s="61"/>
       <c r="I27" s="62"/>
       <c r="J27" s="61"/>
       <c r="K27" s="62"/>
-      <c r="L27" s="111"/>
+      <c r="L27" s="108"/>
     </row>
     <row r="28" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -7927,15 +7950,15 @@
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="74"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="72"/>
       <c r="F28" s="40"/>
       <c r="G28" s="62"/>
       <c r="H28" s="61"/>
       <c r="I28" s="62"/>
       <c r="J28" s="61"/>
       <c r="K28" s="62"/>
-      <c r="L28" s="111"/>
+      <c r="L28" s="108"/>
     </row>
     <row r="29" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -7943,15 +7966,15 @@
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="74"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="40"/>
       <c r="G29" s="62"/>
       <c r="H29" s="61"/>
       <c r="I29" s="62"/>
       <c r="J29" s="61"/>
       <c r="K29" s="62"/>
-      <c r="L29" s="111"/>
+      <c r="L29" s="108"/>
     </row>
     <row r="30" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -7959,15 +7982,15 @@
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="33"/>
-      <c r="D30" s="69"/>
-      <c r="E30" s="74"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="72"/>
       <c r="F30" s="40"/>
       <c r="G30" s="62"/>
       <c r="H30" s="61"/>
       <c r="I30" s="62"/>
       <c r="J30" s="61"/>
       <c r="K30" s="62"/>
-      <c r="L30" s="111"/>
+      <c r="L30" s="108"/>
     </row>
     <row r="31" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -7975,15 +7998,15 @@
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="74"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="40"/>
       <c r="G31" s="62"/>
       <c r="H31" s="61"/>
       <c r="I31" s="62"/>
       <c r="J31" s="61"/>
       <c r="K31" s="62"/>
-      <c r="L31" s="111"/>
+      <c r="L31" s="108"/>
     </row>
     <row r="32" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33">
@@ -7991,15 +8014,15 @@
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="74"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="72"/>
       <c r="F32" s="40"/>
       <c r="G32" s="62"/>
       <c r="H32" s="61"/>
       <c r="I32" s="62"/>
       <c r="J32" s="61"/>
       <c r="K32" s="62"/>
-      <c r="L32" s="111"/>
+      <c r="L32" s="108"/>
     </row>
     <row r="33" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33">
@@ -8007,15 +8030,15 @@
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="33"/>
-      <c r="D33" s="69"/>
-      <c r="E33" s="74"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="40"/>
       <c r="G33" s="62"/>
       <c r="H33" s="61"/>
       <c r="I33" s="62"/>
       <c r="J33" s="61"/>
       <c r="K33" s="62"/>
-      <c r="L33" s="111"/>
+      <c r="L33" s="108"/>
     </row>
     <row r="34" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33">
@@ -8023,15 +8046,15 @@
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="74"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="72"/>
       <c r="F34" s="40"/>
       <c r="G34" s="62"/>
       <c r="H34" s="61"/>
       <c r="I34" s="62"/>
       <c r="J34" s="61"/>
       <c r="K34" s="62"/>
-      <c r="L34" s="111"/>
+      <c r="L34" s="108"/>
     </row>
     <row r="35" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="33">
@@ -8039,15 +8062,15 @@
       </c>
       <c r="B35" s="33"/>
       <c r="C35" s="33"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="74"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="72"/>
       <c r="F35" s="40"/>
       <c r="G35" s="62"/>
       <c r="H35" s="61"/>
       <c r="I35" s="62"/>
       <c r="J35" s="61"/>
       <c r="K35" s="62"/>
-      <c r="L35" s="111"/>
+      <c r="L35" s="108"/>
     </row>
     <row r="36" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33">
@@ -8055,15 +8078,15 @@
       </c>
       <c r="B36" s="33"/>
       <c r="C36" s="33"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="74"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="72"/>
       <c r="F36" s="40"/>
       <c r="G36" s="62"/>
       <c r="H36" s="61"/>
       <c r="I36" s="62"/>
       <c r="J36" s="61"/>
       <c r="K36" s="62"/>
-      <c r="L36" s="111"/>
+      <c r="L36" s="108"/>
     </row>
     <row r="37" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="33">
@@ -8071,15 +8094,15 @@
       </c>
       <c r="B37" s="33"/>
       <c r="C37" s="33"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="74"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="72"/>
       <c r="F37" s="40"/>
       <c r="G37" s="62"/>
       <c r="H37" s="61"/>
       <c r="I37" s="62"/>
       <c r="J37" s="61"/>
       <c r="K37" s="62"/>
-      <c r="L37" s="111"/>
+      <c r="L37" s="108"/>
     </row>
     <row r="38" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="33">
@@ -8087,15 +8110,15 @@
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="33"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="74"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="72"/>
       <c r="F38" s="40"/>
       <c r="G38" s="62"/>
       <c r="H38" s="61"/>
       <c r="I38" s="62"/>
       <c r="J38" s="61"/>
       <c r="K38" s="62"/>
-      <c r="L38" s="111"/>
+      <c r="L38" s="108"/>
     </row>
     <row r="39" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="33">
@@ -8103,15 +8126,15 @@
       </c>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="74"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="72"/>
       <c r="F39" s="40"/>
       <c r="G39" s="62"/>
       <c r="H39" s="61"/>
       <c r="I39" s="62"/>
       <c r="J39" s="61"/>
       <c r="K39" s="62"/>
-      <c r="L39" s="111"/>
+      <c r="L39" s="108"/>
       <c r="N39" s="23"/>
       <c r="O39" s="23"/>
       <c r="P39" s="23"/>
@@ -8124,15 +8147,15 @@
       </c>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="74"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="72"/>
       <c r="F40" s="40"/>
       <c r="G40" s="62"/>
       <c r="H40" s="61"/>
       <c r="I40" s="62"/>
       <c r="J40" s="61"/>
       <c r="K40" s="62"/>
-      <c r="L40" s="111"/>
+      <c r="L40" s="108"/>
       <c r="N40" s="23"/>
       <c r="O40" s="23"/>
       <c r="P40" s="23"/>
@@ -8145,15 +8168,15 @@
       </c>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="74"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="40"/>
       <c r="G41" s="62"/>
       <c r="H41" s="61"/>
       <c r="I41" s="62"/>
       <c r="J41" s="61"/>
       <c r="K41" s="62"/>
-      <c r="L41" s="111"/>
+      <c r="L41" s="108"/>
       <c r="N41" s="23"/>
       <c r="O41" s="23"/>
       <c r="P41" s="23"/>
@@ -8166,15 +8189,15 @@
       </c>
       <c r="B42" s="33"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="74"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="72"/>
       <c r="F42" s="40"/>
       <c r="G42" s="62"/>
       <c r="H42" s="61"/>
       <c r="I42" s="62"/>
       <c r="J42" s="61"/>
       <c r="K42" s="62"/>
-      <c r="L42" s="111"/>
+      <c r="L42" s="108"/>
       <c r="N42" s="23"/>
       <c r="O42" s="23"/>
       <c r="P42" s="23"/>
@@ -8187,15 +8210,15 @@
       </c>
       <c r="B43" s="33"/>
       <c r="C43" s="33"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="74"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="72"/>
       <c r="F43" s="40"/>
       <c r="G43" s="62"/>
       <c r="H43" s="61"/>
       <c r="I43" s="62"/>
       <c r="J43" s="61"/>
       <c r="K43" s="62"/>
-      <c r="L43" s="111"/>
+      <c r="L43" s="108"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
       <c r="P43" s="23"/>
@@ -8208,15 +8231,15 @@
       </c>
       <c r="B44" s="33"/>
       <c r="C44" s="33"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="74"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="72"/>
       <c r="F44" s="40"/>
       <c r="G44" s="62"/>
       <c r="H44" s="61"/>
       <c r="I44" s="62"/>
       <c r="J44" s="61"/>
       <c r="K44" s="62"/>
-      <c r="L44" s="111"/>
+      <c r="L44" s="108"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
       <c r="P44" s="23"/>
@@ -8229,15 +8252,15 @@
       </c>
       <c r="B45" s="33"/>
       <c r="C45" s="33"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="74"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="72"/>
       <c r="F45" s="40"/>
       <c r="G45" s="62"/>
       <c r="H45" s="61"/>
       <c r="I45" s="62"/>
       <c r="J45" s="61"/>
       <c r="K45" s="62"/>
-      <c r="L45" s="111"/>
+      <c r="L45" s="108"/>
       <c r="N45" s="23"/>
       <c r="O45" s="23"/>
       <c r="P45" s="23"/>
@@ -8250,15 +8273,15 @@
       </c>
       <c r="B46" s="33"/>
       <c r="C46" s="33"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="74"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="72"/>
       <c r="F46" s="40"/>
       <c r="G46" s="62"/>
       <c r="H46" s="61"/>
       <c r="I46" s="62"/>
       <c r="J46" s="61"/>
       <c r="K46" s="62"/>
-      <c r="L46" s="111"/>
+      <c r="L46" s="108"/>
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
       <c r="P46" s="23"/>
@@ -8271,15 +8294,15 @@
       </c>
       <c r="B47" s="33"/>
       <c r="C47" s="33"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="74"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="40"/>
       <c r="G47" s="62"/>
       <c r="H47" s="61"/>
       <c r="I47" s="62"/>
       <c r="J47" s="61"/>
       <c r="K47" s="62"/>
-      <c r="L47" s="111"/>
+      <c r="L47" s="108"/>
       <c r="N47" s="23"/>
       <c r="O47" s="23"/>
       <c r="P47" s="23"/>
@@ -8292,15 +8315,15 @@
       </c>
       <c r="B48" s="33"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="74"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="72"/>
       <c r="F48" s="40"/>
       <c r="G48" s="62"/>
       <c r="H48" s="61"/>
       <c r="I48" s="62"/>
       <c r="J48" s="61"/>
       <c r="K48" s="62"/>
-      <c r="L48" s="111"/>
+      <c r="L48" s="108"/>
       <c r="N48" s="23"/>
       <c r="O48" s="23"/>
       <c r="P48" s="23"/>
@@ -8313,15 +8336,15 @@
       </c>
       <c r="B49" s="33"/>
       <c r="C49" s="33"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="74"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="72"/>
       <c r="F49" s="40"/>
       <c r="G49" s="62"/>
       <c r="H49" s="61"/>
       <c r="I49" s="62"/>
       <c r="J49" s="61"/>
       <c r="K49" s="62"/>
-      <c r="L49" s="111"/>
+      <c r="L49" s="108"/>
       <c r="N49" s="23"/>
       <c r="O49" s="23"/>
       <c r="P49" s="23"/>
@@ -8334,15 +8357,15 @@
       </c>
       <c r="B50" s="33"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="74"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="72"/>
       <c r="F50" s="40"/>
       <c r="G50" s="62"/>
       <c r="H50" s="61"/>
       <c r="I50" s="62"/>
       <c r="J50" s="61"/>
       <c r="K50" s="62"/>
-      <c r="L50" s="111"/>
+      <c r="L50" s="108"/>
       <c r="N50" s="23"/>
       <c r="O50" s="23"/>
       <c r="P50" s="23"/>
@@ -8355,15 +8378,15 @@
       </c>
       <c r="B51" s="33"/>
       <c r="C51" s="33"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="74"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="72"/>
       <c r="F51" s="40"/>
       <c r="G51" s="62"/>
       <c r="H51" s="61"/>
       <c r="I51" s="62"/>
       <c r="J51" s="61"/>
       <c r="K51" s="62"/>
-      <c r="L51" s="111"/>
+      <c r="L51" s="108"/>
       <c r="N51" s="23"/>
       <c r="O51" s="23"/>
       <c r="P51" s="23"/>
@@ -8376,15 +8399,15 @@
       </c>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="74"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="72"/>
       <c r="F52" s="40"/>
       <c r="G52" s="62"/>
       <c r="H52" s="61"/>
       <c r="I52" s="62"/>
       <c r="J52" s="61"/>
       <c r="K52" s="62"/>
-      <c r="L52" s="111"/>
+      <c r="L52" s="108"/>
       <c r="N52" s="23"/>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
@@ -8418,8 +8441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27:H27"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8444,36 +8467,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="179" t="s">
+      <c r="A1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
       <c r="D1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="105" t="str">
+      <c r="E1" s="102" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="102" t="str">
+      <c r="G1" s="99" t="str">
         <f>'Update History'!F1</f>
         <v>CF0144</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="H1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="113" t="str">
+      <c r="I1" s="110" t="str">
         <f>'Update History'!H1</f>
         <v>Thị Phượng</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="113" t="str">
+      <c r="K1" s="110" t="str">
         <f>'Update History'!J1</f>
         <v>Thị Phượng</v>
       </c>
@@ -8481,31 +8504,31 @@
       <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="180"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="175"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
       <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="105" t="str">
+      <c r="E2" s="102" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="102" t="str">
+      <c r="G2" s="99" t="str">
         <f>'Update History'!F2</f>
         <v>Cập nhật sơ đồ tuyến</v>
       </c>
-      <c r="H2" s="103" t="s">
+      <c r="H2" s="100" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="51">
         <f>'Update History'!H2</f>
         <v>42383</v>
       </c>
-      <c r="J2" s="103" t="s">
+      <c r="J2" s="100" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="51">
@@ -8516,13 +8539,13 @@
       <c r="M2" s="52"/>
     </row>
     <row r="4" spans="1:13" s="23" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="123" t="s">
+      <c r="B4" s="119" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="123" t="s">
+      <c r="C4" s="119" t="s">
         <v>240</v>
       </c>
       <c r="D4" s="24" t="s">
@@ -8531,18 +8554,18 @@
       <c r="E4" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="147" t="s">
+      <c r="G4" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147" t="s">
+      <c r="H4" s="144"/>
+      <c r="I4" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="147"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33">
@@ -8555,19 +8578,19 @@
         <v>51</v>
       </c>
       <c r="D5" s="33"/>
-      <c r="E5" s="133" t="s">
+      <c r="E5" s="127" t="s">
         <v>135</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="177" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="178"/>
-      <c r="I5" s="174" t="s">
-        <v>318</v>
-      </c>
-      <c r="J5" s="175"/>
-      <c r="K5" s="176"/>
+      <c r="G5" s="172" t="s">
+        <v>258</v>
+      </c>
+      <c r="H5" s="173"/>
+      <c r="I5" s="176" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" s="177"/>
+      <c r="K5" s="178"/>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A6" s="33">
@@ -8580,19 +8603,19 @@
         <v>51</v>
       </c>
       <c r="D6" s="33"/>
-      <c r="E6" s="132" t="s">
-        <v>261</v>
+      <c r="E6" s="126" t="s">
+        <v>260</v>
       </c>
       <c r="F6" s="32"/>
-      <c r="G6" s="177" t="s">
-        <v>260</v>
-      </c>
-      <c r="H6" s="178"/>
-      <c r="I6" s="174" t="s">
-        <v>319</v>
-      </c>
-      <c r="J6" s="175"/>
-      <c r="K6" s="176"/>
+      <c r="G6" s="172" t="s">
+        <v>259</v>
+      </c>
+      <c r="H6" s="173"/>
+      <c r="I6" s="176" t="s">
+        <v>315</v>
+      </c>
+      <c r="J6" s="177"/>
+      <c r="K6" s="178"/>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33">
@@ -8605,19 +8628,19 @@
         <v>51</v>
       </c>
       <c r="D7" s="33"/>
-      <c r="E7" s="132" t="s">
-        <v>261</v>
+      <c r="E7" s="126" t="s">
+        <v>260</v>
       </c>
       <c r="F7" s="32"/>
-      <c r="G7" s="177" t="s">
-        <v>260</v>
-      </c>
-      <c r="H7" s="178"/>
-      <c r="I7" s="174" t="s">
-        <v>320</v>
-      </c>
-      <c r="J7" s="175"/>
-      <c r="K7" s="176"/>
+      <c r="G7" s="172" t="s">
+        <v>259</v>
+      </c>
+      <c r="H7" s="173"/>
+      <c r="I7" s="176" t="s">
+        <v>316</v>
+      </c>
+      <c r="J7" s="177"/>
+      <c r="K7" s="178"/>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33">
@@ -8628,11 +8651,11 @@
       <c r="D8" s="33"/>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="178"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="176"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="173"/>
+      <c r="I8" s="176"/>
+      <c r="J8" s="177"/>
+      <c r="K8" s="178"/>
     </row>
     <row r="9" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33">
@@ -8643,11 +8666,11 @@
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="178"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="176"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
+      <c r="K9" s="178"/>
     </row>
     <row r="10" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33">
@@ -8658,11 +8681,11 @@
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
       <c r="F10" s="32"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="178"/>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="176"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
+      <c r="K10" s="178"/>
     </row>
     <row r="11" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33">
@@ -8673,11 +8696,11 @@
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
       <c r="F11" s="32"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="178"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="176"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
+      <c r="K11" s="178"/>
     </row>
     <row r="12" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33">
@@ -8688,11 +8711,11 @@
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="178"/>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="176"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="178"/>
     </row>
     <row r="13" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
@@ -8703,11 +8726,11 @@
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="178"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="176"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="176"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="178"/>
     </row>
     <row r="14" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33">
@@ -8718,11 +8741,11 @@
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
       <c r="F14" s="32"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="178"/>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="176"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="178"/>
     </row>
     <row r="15" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
@@ -8733,11 +8756,11 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="176"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="173"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="177"/>
+      <c r="K15" s="178"/>
     </row>
     <row r="16" spans="1:13" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33">
@@ -8748,11 +8771,11 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="178"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="176"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="176"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="178"/>
     </row>
     <row r="17" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A17" s="33">
@@ -8763,11 +8786,11 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="178"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="173"/>
+      <c r="I17" s="176"/>
+      <c r="J17" s="177"/>
+      <c r="K17" s="178"/>
     </row>
     <row r="18" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33">
@@ -8778,11 +8801,11 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="177"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="176"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="177"/>
+      <c r="K18" s="178"/>
     </row>
     <row r="19" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33">
@@ -8793,11 +8816,11 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="32"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="178"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="176"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="173"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="177"/>
+      <c r="K19" s="178"/>
     </row>
     <row r="20" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33">
@@ -8808,11 +8831,11 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="32"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="178"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="176"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="176"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="178"/>
     </row>
     <row r="21" spans="1:19" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="A21" s="33">
@@ -8823,11 +8846,11 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="32"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="176"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="176"/>
+      <c r="J21" s="177"/>
+      <c r="K21" s="178"/>
     </row>
     <row r="22" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33">
@@ -8838,11 +8861,11 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="32"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="174"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="176"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="176"/>
+      <c r="J22" s="177"/>
+      <c r="K22" s="178"/>
     </row>
     <row r="23" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33">
@@ -8853,11 +8876,11 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="32"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="176"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="176"/>
+      <c r="J23" s="177"/>
+      <c r="K23" s="178"/>
     </row>
     <row r="24" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33">
@@ -8868,11 +8891,11 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="32"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="176"/>
+      <c r="G24" s="138"/>
+      <c r="H24" s="140"/>
+      <c r="I24" s="176"/>
+      <c r="J24" s="177"/>
+      <c r="K24" s="178"/>
     </row>
     <row r="25" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33">
@@ -8883,11 +8906,11 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="32"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="176"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="176"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="178"/>
     </row>
     <row r="26" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
@@ -8898,11 +8921,11 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="32"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="176"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="177"/>
+      <c r="K26" s="178"/>
     </row>
     <row r="27" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
@@ -8913,11 +8936,11 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="32"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="176"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="176"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="178"/>
     </row>
     <row r="28" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
@@ -8928,11 +8951,11 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="32"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="176"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="176"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
     </row>
     <row r="29" spans="1:19" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33">
@@ -8943,11 +8966,11 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="176"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="178"/>
     </row>
     <row r="30" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33">
@@ -8958,11 +8981,11 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="32"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="176"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="178"/>
     </row>
     <row r="31" spans="1:19" s="34" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
@@ -8973,11 +8996,11 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="32"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="176"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="178"/>
     </row>
     <row r="32" spans="1:19" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A32" s="33">
@@ -8988,11 +9011,11 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="32"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="176"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="178"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
@@ -9010,11 +9033,11 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="32"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="176"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="140"/>
+      <c r="I33" s="176"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="178"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
@@ -9032,11 +9055,11 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="32"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="176"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="176"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="178"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
@@ -9054,11 +9077,11 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="32"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="176"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="178"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
@@ -9076,11 +9099,11 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="174"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="176"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="176"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="178"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
       <c r="O36" s="22"/>
@@ -9098,11 +9121,11 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="32"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="143"/>
-      <c r="I37" s="174"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="176"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="176"/>
+      <c r="J37" s="177"/>
+      <c r="K37" s="178"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
@@ -9120,11 +9143,11 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="32"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="143"/>
-      <c r="I38" s="174"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="176"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="176"/>
+      <c r="J38" s="177"/>
+      <c r="K38" s="178"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
       <c r="O38" s="22"/>
@@ -9142,11 +9165,11 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="32"/>
-      <c r="G39" s="141"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="174"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="176"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="140"/>
+      <c r="I39" s="176"/>
+      <c r="J39" s="177"/>
+      <c r="K39" s="178"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
       <c r="O39" s="22"/>
@@ -9164,11 +9187,11 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="32"/>
-      <c r="G40" s="141"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="174"/>
-      <c r="J40" s="175"/>
-      <c r="K40" s="176"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="140"/>
+      <c r="I40" s="176"/>
+      <c r="J40" s="177"/>
+      <c r="K40" s="178"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -9186,11 +9209,11 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="32"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="175"/>
-      <c r="K41" s="176"/>
+      <c r="G41" s="138"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="176"/>
+      <c r="J41" s="177"/>
+      <c r="K41" s="178"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -9208,11 +9231,11 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="32"/>
-      <c r="G42" s="141"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="176"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="176"/>
+      <c r="J42" s="177"/>
+      <c r="K42" s="178"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -9230,11 +9253,11 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="32"/>
-      <c r="G43" s="141"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="174"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="176"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="176"/>
+      <c r="J43" s="177"/>
+      <c r="K43" s="178"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
       <c r="O43" s="22"/>
@@ -9252,11 +9275,11 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="32"/>
-      <c r="G44" s="141"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="174"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="176"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="176"/>
+      <c r="J44" s="177"/>
+      <c r="K44" s="178"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
       <c r="O44" s="22"/>
@@ -9274,11 +9297,11 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="32"/>
-      <c r="G45" s="141"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="174"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="176"/>
+      <c r="G45" s="138"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="177"/>
+      <c r="K45" s="178"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
       <c r="O45" s="22"/>
@@ -9296,11 +9319,11 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="32"/>
-      <c r="G46" s="141"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="175"/>
-      <c r="K46" s="176"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="140"/>
+      <c r="I46" s="176"/>
+      <c r="J46" s="177"/>
+      <c r="K46" s="178"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
       <c r="O46" s="22"/>
@@ -9318,11 +9341,11 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="32"/>
-      <c r="G47" s="141"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="174"/>
-      <c r="J47" s="175"/>
-      <c r="K47" s="176"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="140"/>
+      <c r="I47" s="176"/>
+      <c r="J47" s="177"/>
+      <c r="K47" s="178"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
       <c r="O47" s="22"/>
@@ -9340,11 +9363,11 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="32"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="174"/>
-      <c r="J48" s="175"/>
-      <c r="K48" s="176"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="140"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="177"/>
+      <c r="K48" s="178"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
       <c r="O48" s="22"/>
@@ -9362,11 +9385,11 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="32"/>
-      <c r="G49" s="141"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="174"/>
-      <c r="J49" s="175"/>
-      <c r="K49" s="176"/>
+      <c r="G49" s="138"/>
+      <c r="H49" s="140"/>
+      <c r="I49" s="176"/>
+      <c r="J49" s="177"/>
+      <c r="K49" s="178"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
       <c r="O49" s="22"/>
@@ -9384,11 +9407,11 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="32"/>
-      <c r="G50" s="141"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="174"/>
-      <c r="J50" s="175"/>
-      <c r="K50" s="176"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="176"/>
+      <c r="J50" s="177"/>
+      <c r="K50" s="178"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
       <c r="O50" s="22"/>
@@ -9406,11 +9429,11 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="32"/>
-      <c r="G51" s="141"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="174"/>
-      <c r="J51" s="175"/>
-      <c r="K51" s="176"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="176"/>
+      <c r="J51" s="177"/>
+      <c r="K51" s="178"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
       <c r="O51" s="22"/>
@@ -9428,11 +9451,11 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="32"/>
-      <c r="G52" s="141"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="175"/>
-      <c r="K52" s="176"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="140"/>
+      <c r="I52" s="176"/>
+      <c r="J52" s="177"/>
+      <c r="K52" s="178"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
       <c r="O52" s="22"/>
@@ -9450,11 +9473,11 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="141"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="174"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="176"/>
+      <c r="G53" s="138"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="176"/>
+      <c r="J53" s="177"/>
+      <c r="K53" s="178"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
       <c r="O53" s="22"/>
@@ -9472,11 +9495,11 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="32"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="175"/>
-      <c r="K54" s="176"/>
+      <c r="G54" s="138"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="177"/>
+      <c r="K54" s="178"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
       <c r="O54" s="22"/>
@@ -9494,11 +9517,11 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="32"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="175"/>
-      <c r="K55" s="176"/>
+      <c r="G55" s="138"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="176"/>
+      <c r="J55" s="177"/>
+      <c r="K55" s="178"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="22"/>
@@ -9516,11 +9539,11 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="32"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="174"/>
-      <c r="J56" s="175"/>
-      <c r="K56" s="176"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="177"/>
+      <c r="K56" s="178"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
       <c r="O56" s="22"/>
@@ -9532,25 +9555,80 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="107">
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
@@ -9565,80 +9643,25 @@
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="I19:K19"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F56">
@@ -9660,8 +9683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1048469"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:N10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="H1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9690,24 +9713,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
       <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="184" t="str">
+      <c r="J1" s="182" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="K1" s="184"/>
+      <c r="K1" s="182"/>
       <c r="L1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9735,22 +9758,22 @@
       <c r="U1" s="52"/>
     </row>
     <row r="2" spans="1:21" s="25" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
       <c r="I2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="184" t="str">
+      <c r="J2" s="182" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="K2" s="184"/>
+      <c r="K2" s="182"/>
       <c r="L2" s="26" t="s">
         <v>50</v>
       </c>
@@ -9777,56 +9800,56 @@
       <c r="T2" s="52"/>
       <c r="U2" s="52"/>
     </row>
-    <row r="4" spans="1:21" s="23" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:21" s="52" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="134" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="124" t="s">
+      <c r="C4" s="134" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="134" t="s">
         <v>98</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="134" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="154" t="s">
+      <c r="K4" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="L4" s="156"/>
-      <c r="M4" s="156"/>
-      <c r="N4" s="155"/>
-      <c r="O4" s="39" t="s">
+      <c r="L4" s="191"/>
+      <c r="M4" s="191"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="134" t="s">
         <v>100</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="134" t="s">
         <v>52</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="134" t="s">
         <v>49</v>
       </c>
     </row>
@@ -9841,15 +9864,15 @@
         <v>51</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="F5" s="63" t="s">
-        <v>278</v>
-      </c>
-      <c r="G5" s="88" t="s">
+      <c r="G5" s="136" t="s">
         <v>218</v>
       </c>
       <c r="H5" s="63" t="s">
@@ -9858,29 +9881,29 @@
       <c r="I5" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="121" t="s">
+      <c r="J5" s="193" t="s">
         <v>228</v>
       </c>
-      <c r="K5" s="144" t="s">
-        <v>267</v>
-      </c>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="146"/>
-      <c r="O5" s="125" t="s">
+      <c r="K5" s="194" t="s">
+        <v>266</v>
+      </c>
+      <c r="L5" s="195"/>
+      <c r="M5" s="195"/>
+      <c r="N5" s="196"/>
+      <c r="O5" s="135" t="s">
+        <v>268</v>
+      </c>
+      <c r="P5" s="135" t="s">
         <v>269</v>
       </c>
-      <c r="P5" s="125" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q5" s="76" t="s">
+      <c r="Q5" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="R5" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="S5" s="136" t="s">
         <v>274</v>
-      </c>
-      <c r="R5" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="S5" s="88" t="s">
-        <v>275</v>
       </c>
       <c r="T5" s="64"/>
       <c r="U5" s="64"/>
@@ -9894,16 +9917,16 @@
         <v>51</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F6" s="63" t="s">
-        <v>321</v>
-      </c>
-      <c r="G6" s="139" t="s">
-        <v>328</v>
+        <v>317</v>
+      </c>
+      <c r="G6" s="136" t="s">
+        <v>324</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>224</v>
@@ -9911,29 +9934,29 @@
       <c r="I6" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="121" t="s">
+      <c r="J6" s="193" t="s">
         <v>229</v>
       </c>
-      <c r="K6" s="181" t="s">
-        <v>332</v>
-      </c>
-      <c r="L6" s="182"/>
-      <c r="M6" s="182"/>
-      <c r="N6" s="183"/>
-      <c r="O6" s="140" t="s">
-        <v>333</v>
-      </c>
-      <c r="P6" s="140" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q6" s="76" t="s">
+      <c r="K6" s="194" t="s">
+        <v>328</v>
+      </c>
+      <c r="L6" s="195"/>
+      <c r="M6" s="195"/>
+      <c r="N6" s="196"/>
+      <c r="O6" s="135" t="s">
+        <v>329</v>
+      </c>
+      <c r="P6" s="135" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q6" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R6" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="S6" s="139" t="s">
-        <v>335</v>
+      <c r="R6" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="S6" s="136" t="s">
+        <v>331</v>
       </c>
       <c r="T6" s="64"/>
       <c r="U6" s="64"/>
@@ -9949,11 +9972,11 @@
         <v>51</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E7" s="33"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="88" t="s">
+      <c r="G7" s="136" t="s">
         <v>219</v>
       </c>
       <c r="H7" s="63" t="s">
@@ -9962,29 +9985,29 @@
       <c r="I7" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="121" t="s">
+      <c r="J7" s="193" t="s">
         <v>230</v>
       </c>
-      <c r="K7" s="144" t="s">
-        <v>268</v>
-      </c>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="125" t="s">
+      <c r="K7" s="194" t="s">
+        <v>267</v>
+      </c>
+      <c r="L7" s="195"/>
+      <c r="M7" s="195"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="135" t="s">
+        <v>270</v>
+      </c>
+      <c r="P7" s="135" t="s">
         <v>271</v>
       </c>
-      <c r="P7" s="125" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q7" s="76" t="s">
+      <c r="Q7" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="R7" s="73" t="s">
+        <v>247</v>
+      </c>
+      <c r="S7" s="136" t="s">
         <v>280</v>
-      </c>
-      <c r="R7" s="75" t="s">
-        <v>248</v>
-      </c>
-      <c r="S7" s="88" t="s">
-        <v>281</v>
       </c>
       <c r="T7" s="64"/>
       <c r="U7" s="64"/>
@@ -10000,11 +10023,11 @@
         <v>51</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="32"/>
-      <c r="G8" s="88" t="s">
+      <c r="G8" s="136" t="s">
         <v>223</v>
       </c>
       <c r="H8" s="63" t="s">
@@ -10013,34 +10036,34 @@
       <c r="I8" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="121" t="s">
+      <c r="J8" s="193" t="s">
         <v>231</v>
       </c>
-      <c r="K8" s="144" t="s">
-        <v>336</v>
-      </c>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="140" t="s">
-        <v>337</v>
-      </c>
-      <c r="P8" s="140" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q8" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="R8" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="S8" s="82" t="s">
-        <v>282</v>
+      <c r="K8" s="194" t="s">
+        <v>332</v>
+      </c>
+      <c r="L8" s="195"/>
+      <c r="M8" s="195"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="135" t="s">
+        <v>333</v>
+      </c>
+      <c r="P8" s="135" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q8" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="R8" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="S8" s="193" t="s">
+        <v>355</v>
       </c>
       <c r="T8" s="64"/>
       <c r="U8" s="64"/>
     </row>
-    <row r="9" spans="1:21" s="34" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="33" t="s">
         <v>241</v>
@@ -10049,11 +10072,11 @@
         <v>51</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="32"/>
-      <c r="G9" s="119" t="s">
+      <c r="G9" s="136" t="s">
         <v>222</v>
       </c>
       <c r="H9" s="63" t="s">
@@ -10062,29 +10085,29 @@
       <c r="I9" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="121" t="s">
+      <c r="J9" s="193" t="s">
         <v>232</v>
       </c>
-      <c r="K9" s="144" t="s">
+      <c r="K9" s="194" t="s">
+        <v>281</v>
+      </c>
+      <c r="L9" s="195"/>
+      <c r="M9" s="195"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="135" t="s">
+        <v>282</v>
+      </c>
+      <c r="P9" s="135" t="s">
         <v>283</v>
       </c>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="125" t="s">
-        <v>284</v>
-      </c>
-      <c r="P9" s="125" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q9" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="R9" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="S9" s="82" t="s">
-        <v>285</v>
+      <c r="Q9" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="R9" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="S9" s="193" t="s">
+        <v>356</v>
       </c>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
@@ -10100,16 +10123,16 @@
         <v>51</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="G10" s="88" t="s">
-        <v>293</v>
+        <v>337</v>
+      </c>
+      <c r="G10" s="136" t="s">
+        <v>290</v>
       </c>
       <c r="H10" s="63" t="s">
         <v>224</v>
@@ -10117,29 +10140,29 @@
       <c r="I10" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J10" s="121" t="s">
+      <c r="J10" s="193" t="s">
         <v>233</v>
       </c>
-      <c r="K10" s="144" t="s">
-        <v>339</v>
-      </c>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="125" t="s">
-        <v>290</v>
-      </c>
-      <c r="P10" s="125" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q10" s="76" t="s">
+      <c r="K10" s="194" t="s">
+        <v>335</v>
+      </c>
+      <c r="L10" s="195"/>
+      <c r="M10" s="195"/>
+      <c r="N10" s="196"/>
+      <c r="O10" s="135" t="s">
+        <v>287</v>
+      </c>
+      <c r="P10" s="135" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q10" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R10" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="S10" s="82" t="s">
-        <v>292</v>
+      <c r="R10" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="S10" s="63" t="s">
+        <v>289</v>
       </c>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
@@ -10155,16 +10178,16 @@
         <v>51</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F11" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="G11" s="88" t="s">
         <v>294</v>
+      </c>
+      <c r="G11" s="136" t="s">
+        <v>291</v>
       </c>
       <c r="H11" s="63" t="s">
         <v>224</v>
@@ -10172,29 +10195,29 @@
       <c r="I11" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J11" s="121" t="s">
+      <c r="J11" s="193" t="s">
         <v>234</v>
       </c>
-      <c r="K11" s="144" t="s">
-        <v>311</v>
-      </c>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="146"/>
-      <c r="O11" s="129" t="s">
-        <v>312</v>
-      </c>
-      <c r="P11" s="129" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q11" s="76" t="s">
+      <c r="K11" s="194" t="s">
+        <v>307</v>
+      </c>
+      <c r="L11" s="195"/>
+      <c r="M11" s="195"/>
+      <c r="N11" s="196"/>
+      <c r="O11" s="135" t="s">
+        <v>308</v>
+      </c>
+      <c r="P11" s="135" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q11" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R11" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="S11" s="82" t="s">
-        <v>306</v>
+      <c r="R11" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="S11" s="63" t="s">
+        <v>302</v>
       </c>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
@@ -10210,11 +10233,11 @@
         <v>51</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E12" s="33"/>
       <c r="F12" s="32"/>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="136" t="s">
         <v>220</v>
       </c>
       <c r="H12" s="63" t="s">
@@ -10223,34 +10246,34 @@
       <c r="I12" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="121" t="s">
+      <c r="J12" s="193" t="s">
         <v>235</v>
       </c>
-      <c r="K12" s="144" t="s">
-        <v>343</v>
-      </c>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="146"/>
-      <c r="O12" s="140" t="s">
-        <v>344</v>
-      </c>
-      <c r="P12" s="140" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q12" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="R12" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="S12" s="82" t="s">
-        <v>300</v>
+      <c r="K12" s="194" t="s">
+        <v>339</v>
+      </c>
+      <c r="L12" s="195"/>
+      <c r="M12" s="195"/>
+      <c r="N12" s="196"/>
+      <c r="O12" s="135" t="s">
+        <v>340</v>
+      </c>
+      <c r="P12" s="135" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q12" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="R12" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="S12" s="63" t="s">
+        <v>297</v>
       </c>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
     </row>
-    <row r="13" spans="1:21" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" s="34" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33">
         <v>7</v>
       </c>
@@ -10261,11 +10284,11 @@
         <v>51</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="32"/>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="136" t="s">
         <v>221</v>
       </c>
       <c r="H13" s="63" t="s">
@@ -10274,29 +10297,29 @@
       <c r="I13" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J13" s="121" t="s">
+      <c r="J13" s="193" t="s">
+        <v>284</v>
+      </c>
+      <c r="K13" s="194" t="s">
+        <v>295</v>
+      </c>
+      <c r="L13" s="195"/>
+      <c r="M13" s="195"/>
+      <c r="N13" s="196"/>
+      <c r="O13" s="135" t="s">
         <v>287</v>
       </c>
-      <c r="K13" s="144" t="s">
-        <v>298</v>
-      </c>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="146"/>
-      <c r="O13" s="125" t="s">
-        <v>290</v>
-      </c>
-      <c r="P13" s="125" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q13" s="76" t="s">
-        <v>280</v>
-      </c>
-      <c r="R13" s="75" t="s">
-        <v>252</v>
-      </c>
-      <c r="S13" s="82" t="s">
-        <v>301</v>
+      <c r="P13" s="135" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q13" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="R13" s="73" t="s">
+        <v>251</v>
+      </c>
+      <c r="S13" s="63" t="s">
+        <v>357</v>
       </c>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
@@ -10312,16 +10335,16 @@
         <v>51</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>341</v>
-      </c>
-      <c r="G14" s="125" t="s">
-        <v>299</v>
+        <v>337</v>
+      </c>
+      <c r="G14" s="135" t="s">
+        <v>296</v>
       </c>
       <c r="H14" s="63" t="s">
         <v>224</v>
@@ -10329,55 +10352,73 @@
       <c r="I14" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="J14" s="121" t="s">
-        <v>329</v>
-      </c>
-      <c r="K14" s="144" t="s">
-        <v>346</v>
-      </c>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="146"/>
-      <c r="O14" s="125" t="s">
+      <c r="J14" s="193" t="s">
+        <v>325</v>
+      </c>
+      <c r="K14" s="194" t="s">
+        <v>342</v>
+      </c>
+      <c r="L14" s="195"/>
+      <c r="M14" s="195"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="P14" s="125" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q14" s="76" t="s">
+      <c r="P14" s="135" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q14" s="74" t="s">
         <v>106</v>
       </c>
-      <c r="R14" s="75" t="s">
-        <v>273</v>
-      </c>
-      <c r="S14" s="126" t="s">
-        <v>289</v>
+      <c r="R14" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="S14" s="136" t="s">
+        <v>286</v>
       </c>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
     </row>
-    <row r="15" spans="1:21" s="34" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" s="34" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33">
         <v>9</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="B15" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" s="33">
+        <v>51</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>351</v>
+      </c>
       <c r="E15" s="33"/>
       <c r="F15" s="32"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="182"/>
-      <c r="M15" s="182"/>
-      <c r="N15" s="183"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="75"/>
-      <c r="S15" s="82"/>
+      <c r="G15" s="136" t="s">
+        <v>352</v>
+      </c>
+      <c r="H15" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="I15" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="193" t="s">
+        <v>353</v>
+      </c>
+      <c r="K15" s="194" t="s">
+        <v>354</v>
+      </c>
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="135"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="73" t="s">
+        <v>272</v>
+      </c>
+      <c r="S15" s="63"/>
       <c r="T15" s="64"/>
       <c r="U15" s="64"/>
     </row>
@@ -10390,19 +10431,19 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
       <c r="F16" s="32"/>
-      <c r="G16" s="84"/>
+      <c r="G16" s="81"/>
       <c r="H16" s="63"/>
       <c r="I16" s="63"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="182"/>
-      <c r="M16" s="182"/>
-      <c r="N16" s="183"/>
-      <c r="O16" s="81"/>
-      <c r="P16" s="81"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="88"/>
+      <c r="J16" s="79"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="180"/>
+      <c r="M16" s="180"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="78"/>
+      <c r="P16" s="78"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="85"/>
       <c r="T16" s="64"/>
       <c r="U16" s="64"/>
     </row>
@@ -10415,19 +10456,19 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
       <c r="F17" s="32"/>
-      <c r="G17" s="84"/>
+      <c r="G17" s="81"/>
       <c r="H17" s="63"/>
       <c r="I17" s="63"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="181"/>
-      <c r="L17" s="182"/>
-      <c r="M17" s="182"/>
-      <c r="N17" s="183"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="88"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="180"/>
+      <c r="M17" s="180"/>
+      <c r="N17" s="181"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="85"/>
       <c r="T17" s="64"/>
       <c r="U17" s="64"/>
     </row>
@@ -10438,21 +10479,21 @@
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="71"/>
+      <c r="E18" s="69"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="84"/>
+      <c r="G18" s="81"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="183"/>
-      <c r="O18" s="72"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="180"/>
+      <c r="M18" s="180"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="70"/>
       <c r="P18" s="60"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="88"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="85"/>
       <c r="T18" s="64"/>
       <c r="U18" s="64"/>
     </row>
@@ -10465,19 +10506,19 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
       <c r="F19" s="33"/>
-      <c r="G19" s="84"/>
+      <c r="G19" s="81"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="183"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="180"/>
+      <c r="M19" s="180"/>
+      <c r="N19" s="181"/>
       <c r="O19" s="60"/>
       <c r="P19" s="60"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="75"/>
-      <c r="S19" s="88"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="85"/>
       <c r="T19" s="64"/>
       <c r="U19" s="64"/>
     </row>
@@ -10490,19 +10531,19 @@
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
       <c r="F20" s="33"/>
-      <c r="G20" s="84"/>
+      <c r="G20" s="81"/>
       <c r="H20" s="63"/>
       <c r="I20" s="63"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="183"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="180"/>
+      <c r="M20" s="180"/>
+      <c r="N20" s="181"/>
       <c r="O20" s="60"/>
       <c r="P20" s="60"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="88"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="85"/>
       <c r="T20" s="64"/>
       <c r="U20" s="64"/>
     </row>
@@ -10515,19 +10556,19 @@
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
       <c r="F21" s="33"/>
-      <c r="G21" s="84"/>
+      <c r="G21" s="81"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="182"/>
-      <c r="M21" s="182"/>
-      <c r="N21" s="183"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="180"/>
+      <c r="M21" s="180"/>
+      <c r="N21" s="181"/>
       <c r="O21" s="60"/>
       <c r="P21" s="60"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="88"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="85"/>
       <c r="T21" s="64"/>
       <c r="U21" s="64"/>
     </row>
@@ -10540,19 +10581,19 @@
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
       <c r="F22" s="33"/>
-      <c r="G22" s="84"/>
+      <c r="G22" s="81"/>
       <c r="H22" s="63"/>
       <c r="I22" s="63"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="182"/>
-      <c r="M22" s="182"/>
-      <c r="N22" s="183"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="180"/>
+      <c r="M22" s="180"/>
+      <c r="N22" s="181"/>
       <c r="O22" s="60"/>
       <c r="P22" s="60"/>
-      <c r="Q22" s="76"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="88"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="85"/>
       <c r="T22" s="64"/>
       <c r="U22" s="64"/>
     </row>
@@ -10565,19 +10606,19 @@
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
       <c r="F23" s="33"/>
-      <c r="G23" s="84"/>
+      <c r="G23" s="81"/>
       <c r="H23" s="63"/>
       <c r="I23" s="63"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="182"/>
-      <c r="M23" s="182"/>
-      <c r="N23" s="183"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="180"/>
+      <c r="M23" s="180"/>
+      <c r="N23" s="181"/>
       <c r="O23" s="60"/>
       <c r="P23" s="60"/>
-      <c r="Q23" s="76"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="88"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="85"/>
       <c r="T23" s="64"/>
       <c r="U23" s="64"/>
     </row>
@@ -10590,19 +10631,19 @@
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
       <c r="F24" s="33"/>
-      <c r="G24" s="84"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
       <c r="J24" s="40"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="182"/>
-      <c r="M24" s="182"/>
-      <c r="N24" s="183"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="180"/>
+      <c r="M24" s="180"/>
+      <c r="N24" s="181"/>
       <c r="O24" s="60"/>
       <c r="P24" s="60"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="75"/>
-      <c r="S24" s="88"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="85"/>
       <c r="T24" s="64"/>
       <c r="U24" s="64"/>
     </row>
@@ -10615,19 +10656,19 @@
       <c r="D25" s="33"/>
       <c r="E25" s="33"/>
       <c r="F25" s="33"/>
-      <c r="G25" s="84"/>
+      <c r="G25" s="81"/>
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
       <c r="J25" s="40"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="182"/>
-      <c r="M25" s="182"/>
-      <c r="N25" s="183"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="180"/>
+      <c r="M25" s="180"/>
+      <c r="N25" s="181"/>
       <c r="O25" s="60"/>
       <c r="P25" s="60"/>
-      <c r="Q25" s="76"/>
-      <c r="R25" s="75"/>
-      <c r="S25" s="88"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="85"/>
       <c r="T25" s="64"/>
       <c r="U25" s="64"/>
     </row>
@@ -10640,19 +10681,19 @@
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
-      <c r="G26" s="84"/>
+      <c r="G26" s="81"/>
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
       <c r="J26" s="40"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="182"/>
-      <c r="M26" s="182"/>
-      <c r="N26" s="183"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="180"/>
+      <c r="M26" s="180"/>
+      <c r="N26" s="181"/>
       <c r="O26" s="60"/>
       <c r="P26" s="60"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="75"/>
-      <c r="S26" s="88"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="73"/>
+      <c r="S26" s="85"/>
       <c r="T26" s="64"/>
       <c r="U26" s="64"/>
     </row>
@@ -10665,19 +10706,19 @@
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
       <c r="F27" s="33"/>
-      <c r="G27" s="84"/>
+      <c r="G27" s="81"/>
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
       <c r="J27" s="40"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="182"/>
-      <c r="M27" s="182"/>
-      <c r="N27" s="183"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="181"/>
       <c r="O27" s="60"/>
       <c r="P27" s="60"/>
-      <c r="Q27" s="76"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="88"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="73"/>
+      <c r="S27" s="85"/>
       <c r="T27" s="64"/>
       <c r="U27" s="64"/>
     </row>
@@ -10690,19 +10731,19 @@
       <c r="D28" s="33"/>
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
-      <c r="G28" s="84"/>
+      <c r="G28" s="81"/>
       <c r="H28" s="63"/>
       <c r="I28" s="63"/>
       <c r="J28" s="40"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="182"/>
-      <c r="M28" s="182"/>
-      <c r="N28" s="183"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="181"/>
       <c r="O28" s="60"/>
       <c r="P28" s="60"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="88"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="85"/>
       <c r="T28" s="64"/>
       <c r="U28" s="64"/>
     </row>
@@ -10715,19 +10756,19 @@
       <c r="D29" s="33"/>
       <c r="E29" s="33"/>
       <c r="F29" s="33"/>
-      <c r="G29" s="84"/>
+      <c r="G29" s="81"/>
       <c r="H29" s="63"/>
       <c r="I29" s="63"/>
       <c r="J29" s="40"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="183"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="181"/>
       <c r="O29" s="60"/>
       <c r="P29" s="60"/>
-      <c r="Q29" s="76"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="88"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="85"/>
       <c r="T29" s="64"/>
       <c r="U29" s="64"/>
     </row>
@@ -10740,19 +10781,19 @@
       <c r="D30" s="33"/>
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
-      <c r="G30" s="84"/>
+      <c r="G30" s="81"/>
       <c r="H30" s="63"/>
       <c r="I30" s="63"/>
       <c r="J30" s="40"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="183"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="181"/>
       <c r="O30" s="60"/>
       <c r="P30" s="60"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="75"/>
-      <c r="S30" s="88"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="85"/>
       <c r="T30" s="64"/>
       <c r="U30" s="64"/>
     </row>
@@ -10765,19 +10806,19 @@
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
       <c r="F31" s="33"/>
-      <c r="G31" s="84"/>
+      <c r="G31" s="81"/>
       <c r="H31" s="63"/>
       <c r="I31" s="63"/>
       <c r="J31" s="40"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="183"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="181"/>
       <c r="O31" s="60"/>
       <c r="P31" s="60"/>
-      <c r="Q31" s="76"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="88"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="85"/>
       <c r="T31" s="64"/>
       <c r="U31" s="64"/>
     </row>
@@ -10790,19 +10831,19 @@
       <c r="D32" s="33"/>
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
-      <c r="G32" s="84"/>
+      <c r="G32" s="81"/>
       <c r="H32" s="63"/>
       <c r="I32" s="63"/>
       <c r="J32" s="40"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="183"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="181"/>
       <c r="O32" s="60"/>
       <c r="P32" s="60"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="75"/>
-      <c r="S32" s="88"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="73"/>
+      <c r="S32" s="85"/>
       <c r="T32" s="64"/>
       <c r="U32" s="64"/>
     </row>
@@ -10815,19 +10856,19 @@
       <c r="D33" s="33"/>
       <c r="E33" s="33"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="84"/>
+      <c r="G33" s="81"/>
       <c r="H33" s="63"/>
       <c r="I33" s="63"/>
       <c r="J33" s="40"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="183"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="181"/>
       <c r="O33" s="60"/>
       <c r="P33" s="60"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="75"/>
-      <c r="S33" s="88"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="73"/>
+      <c r="S33" s="85"/>
       <c r="T33" s="64"/>
       <c r="U33" s="64"/>
     </row>
@@ -10840,19 +10881,19 @@
       <c r="D34" s="33"/>
       <c r="E34" s="33"/>
       <c r="F34" s="33"/>
-      <c r="G34" s="84"/>
+      <c r="G34" s="81"/>
       <c r="H34" s="63"/>
       <c r="I34" s="63"/>
       <c r="J34" s="40"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="182"/>
-      <c r="M34" s="182"/>
-      <c r="N34" s="183"/>
+      <c r="K34" s="179"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="181"/>
       <c r="O34" s="60"/>
       <c r="P34" s="60"/>
-      <c r="Q34" s="76"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="88"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="73"/>
+      <c r="S34" s="85"/>
       <c r="T34" s="64"/>
       <c r="U34" s="64"/>
     </row>
@@ -10865,19 +10906,19 @@
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
-      <c r="G35" s="84"/>
+      <c r="G35" s="81"/>
       <c r="H35" s="63"/>
       <c r="I35" s="63"/>
       <c r="J35" s="40"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="182"/>
-      <c r="M35" s="182"/>
-      <c r="N35" s="183"/>
+      <c r="K35" s="179"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="181"/>
       <c r="O35" s="60"/>
       <c r="P35" s="60"/>
-      <c r="Q35" s="76"/>
-      <c r="R35" s="75"/>
-      <c r="S35" s="88"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="73"/>
+      <c r="S35" s="85"/>
       <c r="T35" s="64"/>
       <c r="U35" s="64"/>
     </row>
@@ -10890,19 +10931,19 @@
       <c r="D36" s="33"/>
       <c r="E36" s="33"/>
       <c r="F36" s="32"/>
-      <c r="G36" s="84"/>
+      <c r="G36" s="81"/>
       <c r="H36" s="63"/>
       <c r="I36" s="63"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="182"/>
-      <c r="M36" s="182"/>
-      <c r="N36" s="183"/>
-      <c r="O36" s="85"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="75"/>
-      <c r="S36" s="88"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="179"/>
+      <c r="L36" s="180"/>
+      <c r="M36" s="180"/>
+      <c r="N36" s="181"/>
+      <c r="O36" s="82"/>
+      <c r="P36" s="82"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="73"/>
+      <c r="S36" s="85"/>
       <c r="T36" s="64"/>
       <c r="U36" s="64"/>
     </row>
@@ -10915,19 +10956,19 @@
       <c r="D37" s="33"/>
       <c r="E37" s="33"/>
       <c r="F37" s="33"/>
-      <c r="G37" s="84"/>
+      <c r="G37" s="81"/>
       <c r="H37" s="63"/>
       <c r="I37" s="63"/>
       <c r="J37" s="40"/>
-      <c r="K37" s="181"/>
-      <c r="L37" s="182"/>
-      <c r="M37" s="182"/>
-      <c r="N37" s="183"/>
+      <c r="K37" s="179"/>
+      <c r="L37" s="180"/>
+      <c r="M37" s="180"/>
+      <c r="N37" s="181"/>
       <c r="O37" s="60"/>
       <c r="P37" s="60"/>
-      <c r="Q37" s="76"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="88"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="73"/>
+      <c r="S37" s="85"/>
       <c r="T37" s="64"/>
       <c r="U37" s="64"/>
     </row>
@@ -10940,19 +10981,19 @@
       <c r="D38" s="33"/>
       <c r="E38" s="33"/>
       <c r="F38" s="33"/>
-      <c r="G38" s="84"/>
+      <c r="G38" s="81"/>
       <c r="H38" s="63"/>
       <c r="I38" s="63"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="182"/>
-      <c r="M38" s="182"/>
-      <c r="N38" s="183"/>
+      <c r="K38" s="179"/>
+      <c r="L38" s="180"/>
+      <c r="M38" s="180"/>
+      <c r="N38" s="181"/>
       <c r="O38" s="60"/>
       <c r="P38" s="60"/>
-      <c r="Q38" s="76"/>
-      <c r="R38" s="75"/>
-      <c r="S38" s="88"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="73"/>
+      <c r="S38" s="85"/>
       <c r="T38" s="64"/>
       <c r="U38" s="64"/>
     </row>
@@ -10965,19 +11006,19 @@
       <c r="D39" s="33"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
-      <c r="G39" s="84"/>
+      <c r="G39" s="81"/>
       <c r="H39" s="63"/>
       <c r="I39" s="63"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="181"/>
-      <c r="L39" s="182"/>
-      <c r="M39" s="182"/>
-      <c r="N39" s="183"/>
+      <c r="K39" s="179"/>
+      <c r="L39" s="180"/>
+      <c r="M39" s="180"/>
+      <c r="N39" s="181"/>
       <c r="O39" s="60"/>
       <c r="P39" s="60"/>
-      <c r="Q39" s="76"/>
-      <c r="R39" s="75"/>
-      <c r="S39" s="88"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="73"/>
+      <c r="S39" s="85"/>
       <c r="T39" s="64"/>
       <c r="U39" s="64"/>
     </row>
@@ -10990,19 +11031,19 @@
       <c r="D40" s="33"/>
       <c r="E40" s="33"/>
       <c r="F40" s="33"/>
-      <c r="G40" s="84"/>
+      <c r="G40" s="81"/>
       <c r="H40" s="63"/>
       <c r="I40" s="63"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="182"/>
-      <c r="M40" s="182"/>
-      <c r="N40" s="183"/>
+      <c r="K40" s="179"/>
+      <c r="L40" s="180"/>
+      <c r="M40" s="180"/>
+      <c r="N40" s="181"/>
       <c r="O40" s="60"/>
       <c r="P40" s="60"/>
-      <c r="Q40" s="76"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="88"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="73"/>
+      <c r="S40" s="85"/>
       <c r="T40" s="64"/>
       <c r="U40" s="64"/>
     </row>
@@ -11015,19 +11056,19 @@
       <c r="D41" s="33"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
-      <c r="G41" s="84"/>
+      <c r="G41" s="81"/>
       <c r="H41" s="63"/>
       <c r="I41" s="63"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="181"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="183"/>
+      <c r="K41" s="179"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="181"/>
       <c r="O41" s="60"/>
       <c r="P41" s="60"/>
-      <c r="Q41" s="76"/>
-      <c r="R41" s="75"/>
-      <c r="S41" s="88"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="73"/>
+      <c r="S41" s="85"/>
       <c r="T41" s="64"/>
       <c r="U41" s="64"/>
     </row>
@@ -11040,19 +11081,19 @@
       <c r="D42" s="33"/>
       <c r="E42" s="33"/>
       <c r="F42" s="33"/>
-      <c r="G42" s="84"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="63"/>
       <c r="I42" s="63"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="182"/>
-      <c r="M42" s="182"/>
-      <c r="N42" s="183"/>
-      <c r="O42" s="74"/>
-      <c r="P42" s="74"/>
-      <c r="Q42" s="76"/>
-      <c r="R42" s="75"/>
-      <c r="S42" s="88"/>
+      <c r="K42" s="179"/>
+      <c r="L42" s="180"/>
+      <c r="M42" s="180"/>
+      <c r="N42" s="181"/>
+      <c r="O42" s="72"/>
+      <c r="P42" s="72"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="73"/>
+      <c r="S42" s="85"/>
       <c r="T42" s="64"/>
       <c r="U42" s="64"/>
     </row>
@@ -11065,19 +11106,19 @@
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
       <c r="F43" s="33"/>
-      <c r="G43" s="84"/>
+      <c r="G43" s="81"/>
       <c r="H43" s="63"/>
       <c r="I43" s="63"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="181"/>
-      <c r="L43" s="182"/>
-      <c r="M43" s="182"/>
-      <c r="N43" s="183"/>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="76"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="88"/>
+      <c r="K43" s="179"/>
+      <c r="L43" s="180"/>
+      <c r="M43" s="180"/>
+      <c r="N43" s="181"/>
+      <c r="O43" s="72"/>
+      <c r="P43" s="72"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="73"/>
+      <c r="S43" s="85"/>
       <c r="T43" s="64"/>
       <c r="U43" s="64"/>
     </row>
@@ -11090,19 +11131,19 @@
       <c r="D44" s="33"/>
       <c r="E44" s="33"/>
       <c r="F44" s="33"/>
-      <c r="G44" s="84"/>
+      <c r="G44" s="81"/>
       <c r="H44" s="63"/>
       <c r="I44" s="63"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="182"/>
-      <c r="M44" s="182"/>
-      <c r="N44" s="183"/>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="75"/>
-      <c r="S44" s="88"/>
+      <c r="K44" s="179"/>
+      <c r="L44" s="180"/>
+      <c r="M44" s="180"/>
+      <c r="N44" s="181"/>
+      <c r="O44" s="72"/>
+      <c r="P44" s="72"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="73"/>
+      <c r="S44" s="85"/>
       <c r="T44" s="64"/>
       <c r="U44" s="64"/>
     </row>
@@ -11115,19 +11156,19 @@
       <c r="D45" s="33"/>
       <c r="E45" s="33"/>
       <c r="F45" s="33"/>
-      <c r="G45" s="84"/>
+      <c r="G45" s="81"/>
       <c r="H45" s="63"/>
       <c r="I45" s="63"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="181"/>
-      <c r="L45" s="182"/>
-      <c r="M45" s="182"/>
-      <c r="N45" s="183"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="76"/>
-      <c r="R45" s="75"/>
-      <c r="S45" s="88"/>
+      <c r="K45" s="179"/>
+      <c r="L45" s="180"/>
+      <c r="M45" s="180"/>
+      <c r="N45" s="181"/>
+      <c r="O45" s="72"/>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="73"/>
+      <c r="S45" s="85"/>
       <c r="T45" s="64"/>
       <c r="U45" s="64"/>
     </row>
@@ -11140,19 +11181,19 @@
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="84"/>
+      <c r="G46" s="81"/>
       <c r="H46" s="63"/>
       <c r="I46" s="63"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="181"/>
-      <c r="L46" s="182"/>
-      <c r="M46" s="182"/>
-      <c r="N46" s="183"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="76"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="88"/>
+      <c r="K46" s="179"/>
+      <c r="L46" s="180"/>
+      <c r="M46" s="180"/>
+      <c r="N46" s="181"/>
+      <c r="O46" s="72"/>
+      <c r="P46" s="72"/>
+      <c r="Q46" s="74"/>
+      <c r="R46" s="73"/>
+      <c r="S46" s="85"/>
       <c r="T46" s="64"/>
       <c r="U46" s="64"/>
     </row>
@@ -11165,19 +11206,19 @@
       <c r="D47" s="33"/>
       <c r="E47" s="33"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="84"/>
+      <c r="G47" s="81"/>
       <c r="H47" s="63"/>
       <c r="I47" s="63"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="181"/>
-      <c r="L47" s="182"/>
-      <c r="M47" s="182"/>
-      <c r="N47" s="183"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="76"/>
-      <c r="R47" s="75"/>
-      <c r="S47" s="88"/>
+      <c r="K47" s="179"/>
+      <c r="L47" s="180"/>
+      <c r="M47" s="180"/>
+      <c r="N47" s="181"/>
+      <c r="O47" s="72"/>
+      <c r="P47" s="72"/>
+      <c r="Q47" s="74"/>
+      <c r="R47" s="73"/>
+      <c r="S47" s="85"/>
       <c r="T47" s="64"/>
       <c r="U47" s="64"/>
     </row>
@@ -11190,19 +11231,19 @@
       <c r="D48" s="33"/>
       <c r="E48" s="33"/>
       <c r="F48" s="33"/>
-      <c r="G48" s="84"/>
+      <c r="G48" s="81"/>
       <c r="H48" s="63"/>
       <c r="I48" s="63"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="181"/>
-      <c r="L48" s="182"/>
-      <c r="M48" s="182"/>
-      <c r="N48" s="183"/>
-      <c r="O48" s="74"/>
-      <c r="P48" s="74"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="75"/>
-      <c r="S48" s="88"/>
+      <c r="K48" s="179"/>
+      <c r="L48" s="180"/>
+      <c r="M48" s="180"/>
+      <c r="N48" s="181"/>
+      <c r="O48" s="72"/>
+      <c r="P48" s="72"/>
+      <c r="Q48" s="74"/>
+      <c r="R48" s="73"/>
+      <c r="S48" s="85"/>
       <c r="T48" s="64"/>
       <c r="U48" s="64"/>
     </row>
@@ -11215,19 +11256,19 @@
       <c r="D49" s="33"/>
       <c r="E49" s="33"/>
       <c r="F49" s="33"/>
-      <c r="G49" s="84"/>
+      <c r="G49" s="81"/>
       <c r="H49" s="63"/>
       <c r="I49" s="63"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="181"/>
-      <c r="L49" s="182"/>
-      <c r="M49" s="182"/>
-      <c r="N49" s="183"/>
-      <c r="O49" s="74"/>
-      <c r="P49" s="74"/>
-      <c r="Q49" s="76"/>
-      <c r="R49" s="75"/>
-      <c r="S49" s="88"/>
+      <c r="K49" s="179"/>
+      <c r="L49" s="180"/>
+      <c r="M49" s="180"/>
+      <c r="N49" s="181"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="72"/>
+      <c r="Q49" s="74"/>
+      <c r="R49" s="73"/>
+      <c r="S49" s="85"/>
       <c r="T49" s="64"/>
       <c r="U49" s="64"/>
     </row>
@@ -11240,19 +11281,19 @@
       <c r="D50" s="33"/>
       <c r="E50" s="33"/>
       <c r="F50" s="33"/>
-      <c r="G50" s="84"/>
+      <c r="G50" s="81"/>
       <c r="H50" s="63"/>
       <c r="I50" s="63"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="181"/>
-      <c r="L50" s="182"/>
-      <c r="M50" s="182"/>
-      <c r="N50" s="183"/>
-      <c r="O50" s="74"/>
-      <c r="P50" s="74"/>
-      <c r="Q50" s="76"/>
-      <c r="R50" s="75"/>
-      <c r="S50" s="88"/>
+      <c r="K50" s="179"/>
+      <c r="L50" s="180"/>
+      <c r="M50" s="180"/>
+      <c r="N50" s="181"/>
+      <c r="O50" s="72"/>
+      <c r="P50" s="72"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="73"/>
+      <c r="S50" s="85"/>
       <c r="T50" s="64"/>
       <c r="U50" s="64"/>
     </row>
@@ -11265,19 +11306,19 @@
       <c r="D51" s="33"/>
       <c r="E51" s="33"/>
       <c r="F51" s="33"/>
-      <c r="G51" s="84"/>
+      <c r="G51" s="81"/>
       <c r="H51" s="63"/>
       <c r="I51" s="63"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="181"/>
-      <c r="L51" s="182"/>
-      <c r="M51" s="182"/>
-      <c r="N51" s="183"/>
-      <c r="O51" s="74"/>
-      <c r="P51" s="74"/>
-      <c r="Q51" s="76"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="88"/>
+      <c r="K51" s="179"/>
+      <c r="L51" s="180"/>
+      <c r="M51" s="180"/>
+      <c r="N51" s="181"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="72"/>
+      <c r="Q51" s="74"/>
+      <c r="R51" s="73"/>
+      <c r="S51" s="85"/>
       <c r="T51" s="64"/>
       <c r="U51" s="64"/>
     </row>
@@ -11290,19 +11331,19 @@
       <c r="D52" s="33"/>
       <c r="E52" s="33"/>
       <c r="F52" s="33"/>
-      <c r="G52" s="84"/>
+      <c r="G52" s="81"/>
       <c r="H52" s="63"/>
       <c r="I52" s="63"/>
       <c r="J52" s="40"/>
-      <c r="K52" s="181"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="182"/>
-      <c r="N52" s="183"/>
-      <c r="O52" s="74"/>
-      <c r="P52" s="74"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="75"/>
-      <c r="S52" s="88"/>
+      <c r="K52" s="179"/>
+      <c r="L52" s="180"/>
+      <c r="M52" s="180"/>
+      <c r="N52" s="181"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="72"/>
+      <c r="Q52" s="74"/>
+      <c r="R52" s="73"/>
+      <c r="S52" s="85"/>
       <c r="T52" s="64"/>
       <c r="U52" s="64"/>
     </row>
@@ -11315,19 +11356,19 @@
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
-      <c r="G53" s="84"/>
+      <c r="G53" s="81"/>
       <c r="H53" s="63"/>
       <c r="I53" s="63"/>
       <c r="J53" s="40"/>
-      <c r="K53" s="181"/>
-      <c r="L53" s="182"/>
-      <c r="M53" s="182"/>
-      <c r="N53" s="183"/>
-      <c r="O53" s="74"/>
-      <c r="P53" s="74"/>
-      <c r="Q53" s="76"/>
-      <c r="R53" s="75"/>
-      <c r="S53" s="88"/>
+      <c r="K53" s="179"/>
+      <c r="L53" s="180"/>
+      <c r="M53" s="180"/>
+      <c r="N53" s="181"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="72"/>
+      <c r="Q53" s="74"/>
+      <c r="R53" s="73"/>
+      <c r="S53" s="85"/>
       <c r="T53" s="64"/>
       <c r="U53" s="64"/>
     </row>
@@ -11340,19 +11381,19 @@
       <c r="D54" s="33"/>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
-      <c r="G54" s="84"/>
+      <c r="G54" s="81"/>
       <c r="H54" s="63"/>
       <c r="I54" s="63"/>
       <c r="J54" s="40"/>
-      <c r="K54" s="181"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="182"/>
-      <c r="N54" s="183"/>
-      <c r="O54" s="74"/>
-      <c r="P54" s="74"/>
-      <c r="Q54" s="76"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="88"/>
+      <c r="K54" s="179"/>
+      <c r="L54" s="180"/>
+      <c r="M54" s="180"/>
+      <c r="N54" s="181"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="72"/>
+      <c r="Q54" s="74"/>
+      <c r="R54" s="73"/>
+      <c r="S54" s="85"/>
       <c r="T54" s="64"/>
       <c r="U54" s="64"/>
     </row>
@@ -11365,19 +11406,19 @@
       <c r="D55" s="33"/>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
-      <c r="G55" s="84"/>
+      <c r="G55" s="81"/>
       <c r="H55" s="63"/>
       <c r="I55" s="63"/>
       <c r="J55" s="40"/>
-      <c r="K55" s="181"/>
-      <c r="L55" s="182"/>
-      <c r="M55" s="182"/>
-      <c r="N55" s="183"/>
-      <c r="O55" s="74"/>
-      <c r="P55" s="74"/>
-      <c r="Q55" s="76"/>
-      <c r="R55" s="75"/>
-      <c r="S55" s="88"/>
+      <c r="K55" s="179"/>
+      <c r="L55" s="180"/>
+      <c r="M55" s="180"/>
+      <c r="N55" s="181"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="72"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="73"/>
+      <c r="S55" s="85"/>
       <c r="T55" s="64"/>
       <c r="U55" s="64"/>
     </row>
@@ -11390,19 +11431,19 @@
       <c r="D56" s="33"/>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
-      <c r="G56" s="84"/>
+      <c r="G56" s="81"/>
       <c r="H56" s="63"/>
       <c r="I56" s="63"/>
       <c r="J56" s="40"/>
-      <c r="K56" s="181"/>
-      <c r="L56" s="182"/>
-      <c r="M56" s="182"/>
-      <c r="N56" s="183"/>
-      <c r="O56" s="74"/>
-      <c r="P56" s="74"/>
-      <c r="Q56" s="76"/>
-      <c r="R56" s="75"/>
-      <c r="S56" s="88"/>
+      <c r="K56" s="179"/>
+      <c r="L56" s="180"/>
+      <c r="M56" s="180"/>
+      <c r="N56" s="181"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="72"/>
+      <c r="Q56" s="74"/>
+      <c r="R56" s="73"/>
+      <c r="S56" s="85"/>
       <c r="T56" s="64"/>
       <c r="U56" s="64"/>
     </row>
@@ -11415,19 +11456,19 @@
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="84"/>
+      <c r="G57" s="81"/>
       <c r="H57" s="63"/>
       <c r="I57" s="63"/>
       <c r="J57" s="40"/>
-      <c r="K57" s="181"/>
-      <c r="L57" s="182"/>
-      <c r="M57" s="182"/>
-      <c r="N57" s="183"/>
-      <c r="O57" s="74"/>
-      <c r="P57" s="74"/>
-      <c r="Q57" s="76"/>
-      <c r="R57" s="75"/>
-      <c r="S57" s="88"/>
+      <c r="K57" s="179"/>
+      <c r="L57" s="180"/>
+      <c r="M57" s="180"/>
+      <c r="N57" s="181"/>
+      <c r="O57" s="72"/>
+      <c r="P57" s="72"/>
+      <c r="Q57" s="74"/>
+      <c r="R57" s="73"/>
+      <c r="S57" s="85"/>
       <c r="T57" s="64"/>
       <c r="U57" s="64"/>
     </row>
@@ -11440,19 +11481,19 @@
       <c r="D58" s="33"/>
       <c r="E58" s="33"/>
       <c r="F58" s="33"/>
-      <c r="G58" s="84"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="63"/>
       <c r="I58" s="63"/>
       <c r="J58" s="40"/>
-      <c r="K58" s="181"/>
-      <c r="L58" s="182"/>
-      <c r="M58" s="182"/>
-      <c r="N58" s="183"/>
-      <c r="O58" s="74"/>
-      <c r="P58" s="74"/>
-      <c r="Q58" s="76"/>
-      <c r="R58" s="75"/>
-      <c r="S58" s="88"/>
+      <c r="K58" s="179"/>
+      <c r="L58" s="180"/>
+      <c r="M58" s="180"/>
+      <c r="N58" s="181"/>
+      <c r="O58" s="72"/>
+      <c r="P58" s="72"/>
+      <c r="Q58" s="74"/>
+      <c r="R58" s="73"/>
+      <c r="S58" s="85"/>
       <c r="T58" s="64"/>
       <c r="U58" s="64"/>
     </row>
@@ -11465,19 +11506,19 @@
       <c r="D59" s="33"/>
       <c r="E59" s="33"/>
       <c r="F59" s="33"/>
-      <c r="G59" s="84"/>
+      <c r="G59" s="81"/>
       <c r="H59" s="63"/>
       <c r="I59" s="63"/>
       <c r="J59" s="40"/>
-      <c r="K59" s="181"/>
-      <c r="L59" s="182"/>
-      <c r="M59" s="182"/>
-      <c r="N59" s="183"/>
-      <c r="O59" s="74"/>
-      <c r="P59" s="74"/>
-      <c r="Q59" s="76"/>
-      <c r="R59" s="75"/>
-      <c r="S59" s="88"/>
+      <c r="K59" s="179"/>
+      <c r="L59" s="180"/>
+      <c r="M59" s="180"/>
+      <c r="N59" s="181"/>
+      <c r="O59" s="72"/>
+      <c r="P59" s="72"/>
+      <c r="Q59" s="74"/>
+      <c r="R59" s="73"/>
+      <c r="S59" s="85"/>
       <c r="T59" s="64"/>
       <c r="U59" s="64"/>
     </row>
@@ -11490,19 +11531,19 @@
       <c r="D60" s="33"/>
       <c r="E60" s="33"/>
       <c r="F60" s="33"/>
-      <c r="G60" s="84"/>
+      <c r="G60" s="81"/>
       <c r="H60" s="63"/>
       <c r="I60" s="63"/>
       <c r="J60" s="40"/>
-      <c r="K60" s="181"/>
-      <c r="L60" s="182"/>
-      <c r="M60" s="182"/>
-      <c r="N60" s="183"/>
-      <c r="O60" s="74"/>
-      <c r="P60" s="74"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="75"/>
-      <c r="S60" s="88"/>
+      <c r="K60" s="179"/>
+      <c r="L60" s="180"/>
+      <c r="M60" s="180"/>
+      <c r="N60" s="181"/>
+      <c r="O60" s="72"/>
+      <c r="P60" s="72"/>
+      <c r="Q60" s="74"/>
+      <c r="R60" s="73"/>
+      <c r="S60" s="85"/>
       <c r="T60" s="64"/>
       <c r="U60" s="64"/>
     </row>
@@ -11515,19 +11556,19 @@
       <c r="D61" s="33"/>
       <c r="E61" s="33"/>
       <c r="F61" s="33"/>
-      <c r="G61" s="84"/>
+      <c r="G61" s="81"/>
       <c r="H61" s="63"/>
       <c r="I61" s="63"/>
       <c r="J61" s="40"/>
-      <c r="K61" s="181"/>
-      <c r="L61" s="182"/>
-      <c r="M61" s="182"/>
-      <c r="N61" s="183"/>
-      <c r="O61" s="74"/>
-      <c r="P61" s="74"/>
-      <c r="Q61" s="76"/>
-      <c r="R61" s="75"/>
-      <c r="S61" s="88"/>
+      <c r="K61" s="179"/>
+      <c r="L61" s="180"/>
+      <c r="M61" s="180"/>
+      <c r="N61" s="181"/>
+      <c r="O61" s="72"/>
+      <c r="P61" s="72"/>
+      <c r="Q61" s="74"/>
+      <c r="R61" s="73"/>
+      <c r="S61" s="85"/>
       <c r="T61" s="64"/>
       <c r="U61" s="64"/>
     </row>
@@ -11540,19 +11581,19 @@
       <c r="D62" s="33"/>
       <c r="E62" s="33"/>
       <c r="F62" s="33"/>
-      <c r="G62" s="84"/>
+      <c r="G62" s="81"/>
       <c r="H62" s="63"/>
       <c r="I62" s="63"/>
       <c r="J62" s="40"/>
-      <c r="K62" s="181"/>
-      <c r="L62" s="182"/>
-      <c r="M62" s="182"/>
-      <c r="N62" s="183"/>
-      <c r="O62" s="74"/>
-      <c r="P62" s="74"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="75"/>
-      <c r="S62" s="88"/>
+      <c r="K62" s="179"/>
+      <c r="L62" s="180"/>
+      <c r="M62" s="180"/>
+      <c r="N62" s="181"/>
+      <c r="O62" s="72"/>
+      <c r="P62" s="72"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="73"/>
+      <c r="S62" s="85"/>
       <c r="T62" s="64"/>
       <c r="U62" s="64"/>
     </row>
@@ -11565,19 +11606,19 @@
       <c r="D63" s="33"/>
       <c r="E63" s="33"/>
       <c r="F63" s="33"/>
-      <c r="G63" s="84"/>
+      <c r="G63" s="81"/>
       <c r="H63" s="63"/>
       <c r="I63" s="63"/>
       <c r="J63" s="40"/>
-      <c r="K63" s="181"/>
-      <c r="L63" s="182"/>
-      <c r="M63" s="182"/>
-      <c r="N63" s="183"/>
-      <c r="O63" s="74"/>
-      <c r="P63" s="74"/>
-      <c r="Q63" s="76"/>
-      <c r="R63" s="75"/>
-      <c r="S63" s="88"/>
+      <c r="K63" s="179"/>
+      <c r="L63" s="180"/>
+      <c r="M63" s="180"/>
+      <c r="N63" s="181"/>
+      <c r="O63" s="72"/>
+      <c r="P63" s="72"/>
+      <c r="Q63" s="74"/>
+      <c r="R63" s="73"/>
+      <c r="S63" s="85"/>
       <c r="T63" s="64"/>
       <c r="U63" s="64"/>
     </row>
@@ -11590,19 +11631,19 @@
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
       <c r="F64" s="33"/>
-      <c r="G64" s="84"/>
+      <c r="G64" s="81"/>
       <c r="H64" s="63"/>
       <c r="I64" s="63"/>
       <c r="J64" s="40"/>
-      <c r="K64" s="181"/>
-      <c r="L64" s="182"/>
-      <c r="M64" s="182"/>
-      <c r="N64" s="183"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="76"/>
-      <c r="R64" s="75"/>
-      <c r="S64" s="88"/>
+      <c r="K64" s="179"/>
+      <c r="L64" s="180"/>
+      <c r="M64" s="180"/>
+      <c r="N64" s="181"/>
+      <c r="O64" s="81"/>
+      <c r="P64" s="81"/>
+      <c r="Q64" s="74"/>
+      <c r="R64" s="73"/>
+      <c r="S64" s="85"/>
       <c r="T64" s="64"/>
       <c r="U64" s="64"/>
     </row>
@@ -11615,19 +11656,19 @@
       <c r="D65" s="33"/>
       <c r="E65" s="33"/>
       <c r="F65" s="33"/>
-      <c r="G65" s="84"/>
+      <c r="G65" s="81"/>
       <c r="H65" s="63"/>
       <c r="I65" s="63"/>
       <c r="J65" s="40"/>
-      <c r="K65" s="181"/>
-      <c r="L65" s="182"/>
-      <c r="M65" s="182"/>
-      <c r="N65" s="183"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="76"/>
-      <c r="R65" s="75"/>
-      <c r="S65" s="88"/>
+      <c r="K65" s="179"/>
+      <c r="L65" s="180"/>
+      <c r="M65" s="180"/>
+      <c r="N65" s="181"/>
+      <c r="O65" s="81"/>
+      <c r="P65" s="81"/>
+      <c r="Q65" s="74"/>
+      <c r="R65" s="73"/>
+      <c r="S65" s="85"/>
       <c r="T65" s="64"/>
       <c r="U65" s="64"/>
     </row>
@@ -11640,19 +11681,19 @@
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="84"/>
+      <c r="G66" s="81"/>
       <c r="H66" s="63"/>
       <c r="I66" s="63"/>
       <c r="J66" s="40"/>
-      <c r="K66" s="181"/>
-      <c r="L66" s="182"/>
-      <c r="M66" s="182"/>
-      <c r="N66" s="183"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="76"/>
-      <c r="R66" s="75"/>
-      <c r="S66" s="88"/>
+      <c r="K66" s="179"/>
+      <c r="L66" s="180"/>
+      <c r="M66" s="180"/>
+      <c r="N66" s="181"/>
+      <c r="O66" s="81"/>
+      <c r="P66" s="81"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="73"/>
+      <c r="S66" s="85"/>
     </row>
     <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="33">
@@ -11663,19 +11704,19 @@
       <c r="D67" s="33"/>
       <c r="E67" s="33"/>
       <c r="F67" s="33"/>
-      <c r="G67" s="84"/>
+      <c r="G67" s="81"/>
       <c r="H67" s="63"/>
       <c r="I67" s="63"/>
       <c r="J67" s="40"/>
-      <c r="K67" s="181"/>
-      <c r="L67" s="182"/>
-      <c r="M67" s="182"/>
-      <c r="N67" s="183"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="76"/>
-      <c r="R67" s="75"/>
-      <c r="S67" s="88"/>
+      <c r="K67" s="179"/>
+      <c r="L67" s="180"/>
+      <c r="M67" s="180"/>
+      <c r="N67" s="181"/>
+      <c r="O67" s="81"/>
+      <c r="P67" s="81"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="73"/>
+      <c r="S67" s="85"/>
     </row>
     <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="33">
@@ -11686,19 +11727,19 @@
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
       <c r="F68" s="33"/>
-      <c r="G68" s="84"/>
+      <c r="G68" s="81"/>
       <c r="H68" s="63"/>
       <c r="I68" s="63"/>
       <c r="J68" s="40"/>
-      <c r="K68" s="181"/>
-      <c r="L68" s="182"/>
-      <c r="M68" s="182"/>
-      <c r="N68" s="183"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="76"/>
-      <c r="R68" s="75"/>
-      <c r="S68" s="88"/>
+      <c r="K68" s="179"/>
+      <c r="L68" s="180"/>
+      <c r="M68" s="180"/>
+      <c r="N68" s="181"/>
+      <c r="O68" s="81"/>
+      <c r="P68" s="81"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="73"/>
+      <c r="S68" s="85"/>
     </row>
     <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="33">
@@ -11709,19 +11750,19 @@
       <c r="D69" s="33"/>
       <c r="E69" s="33"/>
       <c r="F69" s="33"/>
-      <c r="G69" s="84"/>
+      <c r="G69" s="81"/>
       <c r="H69" s="63"/>
       <c r="I69" s="63"/>
       <c r="J69" s="40"/>
-      <c r="K69" s="181"/>
-      <c r="L69" s="182"/>
-      <c r="M69" s="182"/>
-      <c r="N69" s="183"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="76"/>
-      <c r="R69" s="75"/>
-      <c r="S69" s="88"/>
+      <c r="K69" s="179"/>
+      <c r="L69" s="180"/>
+      <c r="M69" s="180"/>
+      <c r="N69" s="181"/>
+      <c r="O69" s="81"/>
+      <c r="P69" s="81"/>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="73"/>
+      <c r="S69" s="85"/>
     </row>
     <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="33">
@@ -11732,19 +11773,19 @@
       <c r="D70" s="33"/>
       <c r="E70" s="33"/>
       <c r="F70" s="33"/>
-      <c r="G70" s="84"/>
+      <c r="G70" s="81"/>
       <c r="H70" s="63"/>
       <c r="I70" s="63"/>
       <c r="J70" s="40"/>
-      <c r="K70" s="181"/>
-      <c r="L70" s="182"/>
-      <c r="M70" s="182"/>
-      <c r="N70" s="183"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="76"/>
-      <c r="R70" s="75"/>
-      <c r="S70" s="88"/>
+      <c r="K70" s="179"/>
+      <c r="L70" s="180"/>
+      <c r="M70" s="180"/>
+      <c r="N70" s="181"/>
+      <c r="O70" s="81"/>
+      <c r="P70" s="81"/>
+      <c r="Q70" s="74"/>
+      <c r="R70" s="73"/>
+      <c r="S70" s="85"/>
     </row>
     <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="33">
@@ -11755,19 +11796,19 @@
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="84"/>
+      <c r="G71" s="81"/>
       <c r="H71" s="63"/>
       <c r="I71" s="63"/>
       <c r="J71" s="40"/>
-      <c r="K71" s="181"/>
-      <c r="L71" s="182"/>
-      <c r="M71" s="182"/>
-      <c r="N71" s="183"/>
-      <c r="O71" s="84"/>
-      <c r="P71" s="84"/>
-      <c r="Q71" s="76"/>
-      <c r="R71" s="75"/>
-      <c r="S71" s="88"/>
+      <c r="K71" s="179"/>
+      <c r="L71" s="180"/>
+      <c r="M71" s="180"/>
+      <c r="N71" s="181"/>
+      <c r="O71" s="81"/>
+      <c r="P71" s="81"/>
+      <c r="Q71" s="74"/>
+      <c r="R71" s="73"/>
+      <c r="S71" s="85"/>
     </row>
     <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="33">
@@ -11778,19 +11819,19 @@
       <c r="D72" s="33"/>
       <c r="E72" s="33"/>
       <c r="F72" s="33"/>
-      <c r="G72" s="84"/>
+      <c r="G72" s="81"/>
       <c r="H72" s="63"/>
       <c r="I72" s="63"/>
       <c r="J72" s="40"/>
-      <c r="K72" s="181"/>
-      <c r="L72" s="182"/>
-      <c r="M72" s="182"/>
-      <c r="N72" s="183"/>
-      <c r="O72" s="84"/>
-      <c r="P72" s="84"/>
-      <c r="Q72" s="76"/>
-      <c r="R72" s="75"/>
-      <c r="S72" s="88"/>
+      <c r="K72" s="179"/>
+      <c r="L72" s="180"/>
+      <c r="M72" s="180"/>
+      <c r="N72" s="181"/>
+      <c r="O72" s="81"/>
+      <c r="P72" s="81"/>
+      <c r="Q72" s="74"/>
+      <c r="R72" s="73"/>
+      <c r="S72" s="85"/>
     </row>
     <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="33">
@@ -11801,19 +11842,19 @@
       <c r="D73" s="33"/>
       <c r="E73" s="33"/>
       <c r="F73" s="33"/>
-      <c r="G73" s="84"/>
+      <c r="G73" s="81"/>
       <c r="H73" s="63"/>
       <c r="I73" s="63"/>
       <c r="J73" s="40"/>
-      <c r="K73" s="181"/>
-      <c r="L73" s="182"/>
-      <c r="M73" s="182"/>
-      <c r="N73" s="183"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="84"/>
-      <c r="Q73" s="76"/>
-      <c r="R73" s="75"/>
-      <c r="S73" s="88"/>
+      <c r="K73" s="179"/>
+      <c r="L73" s="180"/>
+      <c r="M73" s="180"/>
+      <c r="N73" s="181"/>
+      <c r="O73" s="81"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="73"/>
+      <c r="S73" s="85"/>
     </row>
     <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="33">
@@ -11824,19 +11865,19 @@
       <c r="D74" s="33"/>
       <c r="E74" s="33"/>
       <c r="F74" s="33"/>
-      <c r="G74" s="84"/>
+      <c r="G74" s="81"/>
       <c r="H74" s="63"/>
       <c r="I74" s="63"/>
       <c r="J74" s="40"/>
-      <c r="K74" s="181"/>
-      <c r="L74" s="182"/>
-      <c r="M74" s="182"/>
-      <c r="N74" s="183"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="76"/>
-      <c r="R74" s="75"/>
-      <c r="S74" s="88"/>
+      <c r="K74" s="179"/>
+      <c r="L74" s="180"/>
+      <c r="M74" s="180"/>
+      <c r="N74" s="181"/>
+      <c r="O74" s="81"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="74"/>
+      <c r="R74" s="73"/>
+      <c r="S74" s="85"/>
     </row>
     <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="33">
@@ -11847,19 +11888,19 @@
       <c r="D75" s="33"/>
       <c r="E75" s="33"/>
       <c r="F75" s="33"/>
-      <c r="G75" s="84"/>
+      <c r="G75" s="81"/>
       <c r="H75" s="63"/>
       <c r="I75" s="63"/>
       <c r="J75" s="40"/>
-      <c r="K75" s="181"/>
-      <c r="L75" s="182"/>
-      <c r="M75" s="182"/>
-      <c r="N75" s="183"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="84"/>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="75"/>
-      <c r="S75" s="88"/>
+      <c r="K75" s="179"/>
+      <c r="L75" s="180"/>
+      <c r="M75" s="180"/>
+      <c r="N75" s="181"/>
+      <c r="O75" s="81"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="74"/>
+      <c r="R75" s="73"/>
+      <c r="S75" s="85"/>
     </row>
     <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="33">
@@ -11870,19 +11911,19 @@
       <c r="D76" s="33"/>
       <c r="E76" s="33"/>
       <c r="F76" s="33"/>
-      <c r="G76" s="84"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="63"/>
       <c r="I76" s="63"/>
       <c r="J76" s="40"/>
-      <c r="K76" s="181"/>
-      <c r="L76" s="182"/>
-      <c r="M76" s="182"/>
-      <c r="N76" s="183"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="84"/>
-      <c r="Q76" s="76"/>
-      <c r="R76" s="75"/>
-      <c r="S76" s="88"/>
+      <c r="K76" s="179"/>
+      <c r="L76" s="180"/>
+      <c r="M76" s="180"/>
+      <c r="N76" s="181"/>
+      <c r="O76" s="81"/>
+      <c r="P76" s="81"/>
+      <c r="Q76" s="74"/>
+      <c r="R76" s="73"/>
+      <c r="S76" s="85"/>
     </row>
     <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="33">
@@ -11893,19 +11934,19 @@
       <c r="D77" s="33"/>
       <c r="E77" s="33"/>
       <c r="F77" s="33"/>
-      <c r="G77" s="84"/>
+      <c r="G77" s="81"/>
       <c r="H77" s="63"/>
       <c r="I77" s="63"/>
       <c r="J77" s="40"/>
-      <c r="K77" s="181"/>
-      <c r="L77" s="182"/>
-      <c r="M77" s="182"/>
-      <c r="N77" s="183"/>
-      <c r="O77" s="84"/>
-      <c r="P77" s="84"/>
-      <c r="Q77" s="76"/>
-      <c r="R77" s="75"/>
-      <c r="S77" s="88"/>
+      <c r="K77" s="179"/>
+      <c r="L77" s="180"/>
+      <c r="M77" s="180"/>
+      <c r="N77" s="181"/>
+      <c r="O77" s="81"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="73"/>
+      <c r="S77" s="85"/>
     </row>
     <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="33">
@@ -11916,19 +11957,19 @@
       <c r="D78" s="33"/>
       <c r="E78" s="33"/>
       <c r="F78" s="33"/>
-      <c r="G78" s="84"/>
+      <c r="G78" s="81"/>
       <c r="H78" s="63"/>
       <c r="I78" s="63"/>
       <c r="J78" s="40"/>
-      <c r="K78" s="181"/>
-      <c r="L78" s="182"/>
-      <c r="M78" s="182"/>
-      <c r="N78" s="183"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="84"/>
-      <c r="Q78" s="76"/>
-      <c r="R78" s="75"/>
-      <c r="S78" s="88"/>
+      <c r="K78" s="179"/>
+      <c r="L78" s="180"/>
+      <c r="M78" s="180"/>
+      <c r="N78" s="181"/>
+      <c r="O78" s="81"/>
+      <c r="P78" s="81"/>
+      <c r="Q78" s="74"/>
+      <c r="R78" s="73"/>
+      <c r="S78" s="85"/>
     </row>
     <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="33">
@@ -11939,19 +11980,19 @@
       <c r="D79" s="33"/>
       <c r="E79" s="33"/>
       <c r="F79" s="33"/>
-      <c r="G79" s="84"/>
+      <c r="G79" s="81"/>
       <c r="H79" s="63"/>
       <c r="I79" s="63"/>
       <c r="J79" s="40"/>
-      <c r="K79" s="181"/>
-      <c r="L79" s="182"/>
-      <c r="M79" s="182"/>
-      <c r="N79" s="183"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="84"/>
-      <c r="Q79" s="76"/>
-      <c r="R79" s="75"/>
-      <c r="S79" s="88"/>
+      <c r="K79" s="179"/>
+      <c r="L79" s="180"/>
+      <c r="M79" s="180"/>
+      <c r="N79" s="181"/>
+      <c r="O79" s="81"/>
+      <c r="P79" s="81"/>
+      <c r="Q79" s="74"/>
+      <c r="R79" s="73"/>
+      <c r="S79" s="85"/>
     </row>
     <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="33">
@@ -11962,19 +12003,19 @@
       <c r="D80" s="33"/>
       <c r="E80" s="33"/>
       <c r="F80" s="33"/>
-      <c r="G80" s="84"/>
+      <c r="G80" s="81"/>
       <c r="H80" s="63"/>
       <c r="I80" s="63"/>
       <c r="J80" s="40"/>
-      <c r="K80" s="181"/>
-      <c r="L80" s="182"/>
-      <c r="M80" s="182"/>
-      <c r="N80" s="183"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="84"/>
-      <c r="Q80" s="76"/>
-      <c r="R80" s="75"/>
-      <c r="S80" s="88"/>
+      <c r="K80" s="179"/>
+      <c r="L80" s="180"/>
+      <c r="M80" s="180"/>
+      <c r="N80" s="181"/>
+      <c r="O80" s="81"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="74"/>
+      <c r="R80" s="73"/>
+      <c r="S80" s="85"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="33">
@@ -11985,19 +12026,19 @@
       <c r="D81" s="33"/>
       <c r="E81" s="33"/>
       <c r="F81" s="33"/>
-      <c r="G81" s="84"/>
+      <c r="G81" s="81"/>
       <c r="H81" s="63"/>
       <c r="I81" s="63"/>
       <c r="J81" s="40"/>
-      <c r="K81" s="181"/>
-      <c r="L81" s="182"/>
-      <c r="M81" s="182"/>
-      <c r="N81" s="183"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="84"/>
-      <c r="Q81" s="76"/>
-      <c r="R81" s="75"/>
-      <c r="S81" s="88"/>
+      <c r="K81" s="179"/>
+      <c r="L81" s="180"/>
+      <c r="M81" s="180"/>
+      <c r="N81" s="181"/>
+      <c r="O81" s="81"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="74"/>
+      <c r="R81" s="73"/>
+      <c r="S81" s="85"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="33">
@@ -12008,19 +12049,19 @@
       <c r="D82" s="33"/>
       <c r="E82" s="33"/>
       <c r="F82" s="33"/>
-      <c r="G82" s="84"/>
+      <c r="G82" s="81"/>
       <c r="H82" s="63"/>
       <c r="I82" s="63"/>
       <c r="J82" s="40"/>
-      <c r="K82" s="181"/>
-      <c r="L82" s="182"/>
-      <c r="M82" s="182"/>
-      <c r="N82" s="183"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="84"/>
-      <c r="Q82" s="76"/>
-      <c r="R82" s="75"/>
-      <c r="S82" s="88"/>
+      <c r="K82" s="179"/>
+      <c r="L82" s="180"/>
+      <c r="M82" s="180"/>
+      <c r="N82" s="181"/>
+      <c r="O82" s="81"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="74"/>
+      <c r="R82" s="73"/>
+      <c r="S82" s="85"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="33">
@@ -12031,19 +12072,19 @@
       <c r="D83" s="33"/>
       <c r="E83" s="33"/>
       <c r="F83" s="33"/>
-      <c r="G83" s="84"/>
+      <c r="G83" s="81"/>
       <c r="H83" s="63"/>
       <c r="I83" s="63"/>
       <c r="J83" s="40"/>
-      <c r="K83" s="181"/>
-      <c r="L83" s="182"/>
-      <c r="M83" s="182"/>
-      <c r="N83" s="183"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="84"/>
-      <c r="Q83" s="76"/>
-      <c r="R83" s="75"/>
-      <c r="S83" s="88"/>
+      <c r="K83" s="179"/>
+      <c r="L83" s="180"/>
+      <c r="M83" s="180"/>
+      <c r="N83" s="181"/>
+      <c r="O83" s="81"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="74"/>
+      <c r="R83" s="73"/>
+      <c r="S83" s="85"/>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="33">
@@ -12054,19 +12095,19 @@
       <c r="D84" s="33"/>
       <c r="E84" s="33"/>
       <c r="F84" s="33"/>
-      <c r="G84" s="84"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="63"/>
       <c r="I84" s="63"/>
       <c r="J84" s="40"/>
-      <c r="K84" s="181"/>
-      <c r="L84" s="182"/>
-      <c r="M84" s="182"/>
-      <c r="N84" s="183"/>
-      <c r="O84" s="84"/>
-      <c r="P84" s="84"/>
-      <c r="Q84" s="76"/>
-      <c r="R84" s="75"/>
-      <c r="S84" s="88"/>
+      <c r="K84" s="179"/>
+      <c r="L84" s="180"/>
+      <c r="M84" s="180"/>
+      <c r="N84" s="181"/>
+      <c r="O84" s="81"/>
+      <c r="P84" s="81"/>
+      <c r="Q84" s="74"/>
+      <c r="R84" s="73"/>
+      <c r="S84" s="85"/>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="33">
@@ -12077,19 +12118,19 @@
       <c r="D85" s="33"/>
       <c r="E85" s="33"/>
       <c r="F85" s="33"/>
-      <c r="G85" s="84"/>
+      <c r="G85" s="81"/>
       <c r="H85" s="63"/>
       <c r="I85" s="63"/>
       <c r="J85" s="40"/>
-      <c r="K85" s="181"/>
-      <c r="L85" s="182"/>
-      <c r="M85" s="182"/>
-      <c r="N85" s="183"/>
-      <c r="O85" s="84"/>
-      <c r="P85" s="84"/>
-      <c r="Q85" s="76"/>
-      <c r="R85" s="75"/>
-      <c r="S85" s="88"/>
+      <c r="K85" s="179"/>
+      <c r="L85" s="180"/>
+      <c r="M85" s="180"/>
+      <c r="N85" s="181"/>
+      <c r="O85" s="81"/>
+      <c r="P85" s="81"/>
+      <c r="Q85" s="74"/>
+      <c r="R85" s="73"/>
+      <c r="S85" s="85"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="33">
@@ -12100,19 +12141,19 @@
       <c r="D86" s="33"/>
       <c r="E86" s="33"/>
       <c r="F86" s="33"/>
-      <c r="G86" s="84"/>
+      <c r="G86" s="81"/>
       <c r="H86" s="63"/>
       <c r="I86" s="63"/>
       <c r="J86" s="40"/>
-      <c r="K86" s="181"/>
-      <c r="L86" s="182"/>
-      <c r="M86" s="182"/>
-      <c r="N86" s="183"/>
-      <c r="O86" s="84"/>
-      <c r="P86" s="84"/>
-      <c r="Q86" s="76"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="88"/>
+      <c r="K86" s="179"/>
+      <c r="L86" s="180"/>
+      <c r="M86" s="180"/>
+      <c r="N86" s="181"/>
+      <c r="O86" s="81"/>
+      <c r="P86" s="81"/>
+      <c r="Q86" s="74"/>
+      <c r="R86" s="73"/>
+      <c r="S86" s="85"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="33">
@@ -12123,19 +12164,19 @@
       <c r="D87" s="33"/>
       <c r="E87" s="33"/>
       <c r="F87" s="33"/>
-      <c r="G87" s="84"/>
+      <c r="G87" s="81"/>
       <c r="H87" s="63"/>
       <c r="I87" s="63"/>
       <c r="J87" s="40"/>
-      <c r="K87" s="181"/>
-      <c r="L87" s="182"/>
-      <c r="M87" s="182"/>
-      <c r="N87" s="183"/>
-      <c r="O87" s="84"/>
-      <c r="P87" s="84"/>
-      <c r="Q87" s="76"/>
-      <c r="R87" s="75"/>
-      <c r="S87" s="88"/>
+      <c r="K87" s="179"/>
+      <c r="L87" s="180"/>
+      <c r="M87" s="180"/>
+      <c r="N87" s="181"/>
+      <c r="O87" s="81"/>
+      <c r="P87" s="81"/>
+      <c r="Q87" s="74"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="85"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="33">
@@ -12146,19 +12187,19 @@
       <c r="D88" s="33"/>
       <c r="E88" s="33"/>
       <c r="F88" s="33"/>
-      <c r="G88" s="84"/>
+      <c r="G88" s="81"/>
       <c r="H88" s="63"/>
       <c r="I88" s="63"/>
       <c r="J88" s="40"/>
-      <c r="K88" s="181"/>
-      <c r="L88" s="182"/>
-      <c r="M88" s="182"/>
-      <c r="N88" s="183"/>
-      <c r="O88" s="84"/>
-      <c r="P88" s="84"/>
-      <c r="Q88" s="76"/>
-      <c r="R88" s="75"/>
-      <c r="S88" s="88"/>
+      <c r="K88" s="179"/>
+      <c r="L88" s="180"/>
+      <c r="M88" s="180"/>
+      <c r="N88" s="181"/>
+      <c r="O88" s="81"/>
+      <c r="P88" s="81"/>
+      <c r="Q88" s="74"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="85"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="33">
@@ -12169,19 +12210,19 @@
       <c r="D89" s="33"/>
       <c r="E89" s="33"/>
       <c r="F89" s="33"/>
-      <c r="G89" s="84"/>
+      <c r="G89" s="81"/>
       <c r="H89" s="63"/>
       <c r="I89" s="63"/>
       <c r="J89" s="40"/>
-      <c r="K89" s="181"/>
-      <c r="L89" s="182"/>
-      <c r="M89" s="182"/>
-      <c r="N89" s="183"/>
-      <c r="O89" s="84"/>
-      <c r="P89" s="84"/>
-      <c r="Q89" s="76"/>
-      <c r="R89" s="75"/>
-      <c r="S89" s="88"/>
+      <c r="K89" s="179"/>
+      <c r="L89" s="180"/>
+      <c r="M89" s="180"/>
+      <c r="N89" s="181"/>
+      <c r="O89" s="81"/>
+      <c r="P89" s="81"/>
+      <c r="Q89" s="74"/>
+      <c r="R89" s="73"/>
+      <c r="S89" s="85"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="33">
@@ -12192,19 +12233,19 @@
       <c r="D90" s="33"/>
       <c r="E90" s="33"/>
       <c r="F90" s="33"/>
-      <c r="G90" s="84"/>
+      <c r="G90" s="81"/>
       <c r="H90" s="63"/>
       <c r="I90" s="63"/>
       <c r="J90" s="40"/>
-      <c r="K90" s="181"/>
-      <c r="L90" s="182"/>
-      <c r="M90" s="182"/>
-      <c r="N90" s="183"/>
-      <c r="O90" s="84"/>
-      <c r="P90" s="84"/>
-      <c r="Q90" s="76"/>
-      <c r="R90" s="75"/>
-      <c r="S90" s="88"/>
+      <c r="K90" s="179"/>
+      <c r="L90" s="180"/>
+      <c r="M90" s="180"/>
+      <c r="N90" s="181"/>
+      <c r="O90" s="81"/>
+      <c r="P90" s="81"/>
+      <c r="Q90" s="74"/>
+      <c r="R90" s="73"/>
+      <c r="S90" s="85"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="33">
@@ -12215,19 +12256,19 @@
       <c r="D91" s="33"/>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
-      <c r="G91" s="84"/>
+      <c r="G91" s="81"/>
       <c r="H91" s="63"/>
       <c r="I91" s="63"/>
       <c r="J91" s="40"/>
-      <c r="K91" s="181"/>
-      <c r="L91" s="182"/>
-      <c r="M91" s="182"/>
-      <c r="N91" s="183"/>
-      <c r="O91" s="84"/>
-      <c r="P91" s="84"/>
-      <c r="Q91" s="76"/>
-      <c r="R91" s="75"/>
-      <c r="S91" s="88"/>
+      <c r="K91" s="179"/>
+      <c r="L91" s="180"/>
+      <c r="M91" s="180"/>
+      <c r="N91" s="181"/>
+      <c r="O91" s="81"/>
+      <c r="P91" s="81"/>
+      <c r="Q91" s="74"/>
+      <c r="R91" s="73"/>
+      <c r="S91" s="85"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="33">
@@ -12238,19 +12279,19 @@
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
       <c r="F92" s="33"/>
-      <c r="G92" s="84"/>
+      <c r="G92" s="81"/>
       <c r="H92" s="63"/>
       <c r="I92" s="63"/>
       <c r="J92" s="40"/>
-      <c r="K92" s="181"/>
-      <c r="L92" s="182"/>
-      <c r="M92" s="182"/>
-      <c r="N92" s="183"/>
-      <c r="O92" s="84"/>
-      <c r="P92" s="84"/>
-      <c r="Q92" s="76"/>
-      <c r="R92" s="75"/>
-      <c r="S92" s="88"/>
+      <c r="K92" s="179"/>
+      <c r="L92" s="180"/>
+      <c r="M92" s="180"/>
+      <c r="N92" s="181"/>
+      <c r="O92" s="81"/>
+      <c r="P92" s="81"/>
+      <c r="Q92" s="74"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="85"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="33">
@@ -12261,19 +12302,19 @@
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
       <c r="F93" s="33"/>
-      <c r="G93" s="84"/>
+      <c r="G93" s="81"/>
       <c r="H93" s="63"/>
       <c r="I93" s="63"/>
       <c r="J93" s="40"/>
-      <c r="K93" s="181"/>
-      <c r="L93" s="182"/>
-      <c r="M93" s="182"/>
-      <c r="N93" s="183"/>
-      <c r="O93" s="84"/>
-      <c r="P93" s="84"/>
-      <c r="Q93" s="76"/>
-      <c r="R93" s="75"/>
-      <c r="S93" s="88"/>
+      <c r="K93" s="179"/>
+      <c r="L93" s="180"/>
+      <c r="M93" s="180"/>
+      <c r="N93" s="181"/>
+      <c r="O93" s="81"/>
+      <c r="P93" s="81"/>
+      <c r="Q93" s="74"/>
+      <c r="R93" s="73"/>
+      <c r="S93" s="85"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="33">
@@ -12284,19 +12325,19 @@
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
       <c r="F94" s="33"/>
-      <c r="G94" s="84"/>
+      <c r="G94" s="81"/>
       <c r="H94" s="63"/>
       <c r="I94" s="63"/>
       <c r="J94" s="40"/>
-      <c r="K94" s="181"/>
-      <c r="L94" s="182"/>
-      <c r="M94" s="182"/>
-      <c r="N94" s="183"/>
-      <c r="O94" s="84"/>
-      <c r="P94" s="84"/>
-      <c r="Q94" s="76"/>
-      <c r="R94" s="75"/>
-      <c r="S94" s="88"/>
+      <c r="K94" s="179"/>
+      <c r="L94" s="180"/>
+      <c r="M94" s="180"/>
+      <c r="N94" s="181"/>
+      <c r="O94" s="81"/>
+      <c r="P94" s="81"/>
+      <c r="Q94" s="74"/>
+      <c r="R94" s="73"/>
+      <c r="S94" s="85"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="33">
@@ -12307,19 +12348,19 @@
       <c r="D95" s="33"/>
       <c r="E95" s="33"/>
       <c r="F95" s="33"/>
-      <c r="G95" s="84"/>
+      <c r="G95" s="81"/>
       <c r="H95" s="63"/>
       <c r="I95" s="63"/>
       <c r="J95" s="40"/>
-      <c r="K95" s="181"/>
-      <c r="L95" s="182"/>
-      <c r="M95" s="182"/>
-      <c r="N95" s="183"/>
-      <c r="O95" s="84"/>
-      <c r="P95" s="84"/>
-      <c r="Q95" s="76"/>
-      <c r="R95" s="75"/>
-      <c r="S95" s="88"/>
+      <c r="K95" s="179"/>
+      <c r="L95" s="180"/>
+      <c r="M95" s="180"/>
+      <c r="N95" s="181"/>
+      <c r="O95" s="81"/>
+      <c r="P95" s="81"/>
+      <c r="Q95" s="74"/>
+      <c r="R95" s="73"/>
+      <c r="S95" s="85"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="33">
@@ -12330,54 +12371,74 @@
       <c r="D96" s="33"/>
       <c r="E96" s="33"/>
       <c r="F96" s="33"/>
-      <c r="G96" s="84"/>
+      <c r="G96" s="81"/>
       <c r="H96" s="63"/>
       <c r="I96" s="63"/>
       <c r="J96" s="40"/>
-      <c r="K96" s="181"/>
-      <c r="L96" s="182"/>
-      <c r="M96" s="182"/>
-      <c r="N96" s="183"/>
-      <c r="O96" s="84"/>
-      <c r="P96" s="84"/>
-      <c r="Q96" s="76"/>
-      <c r="R96" s="75"/>
-      <c r="S96" s="88"/>
+      <c r="K96" s="179"/>
+      <c r="L96" s="180"/>
+      <c r="M96" s="180"/>
+      <c r="N96" s="181"/>
+      <c r="O96" s="81"/>
+      <c r="P96" s="81"/>
+      <c r="Q96" s="74"/>
+      <c r="R96" s="73"/>
+      <c r="S96" s="85"/>
     </row>
     <row r="1048469" spans="17:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q1048469" s="76"/>
+      <c r="Q1048469" s="74"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="96">
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="K90:N90"/>
-    <mergeCell ref="K91:N91"/>
-    <mergeCell ref="K92:N92"/>
-    <mergeCell ref="K93:N93"/>
-    <mergeCell ref="K94:N94"/>
-    <mergeCell ref="K79:N79"/>
-    <mergeCell ref="K62:N62"/>
-    <mergeCell ref="K89:N89"/>
-    <mergeCell ref="K63:N63"/>
-    <mergeCell ref="K64:N64"/>
-    <mergeCell ref="K65:N65"/>
-    <mergeCell ref="K66:N66"/>
-    <mergeCell ref="K67:N67"/>
-    <mergeCell ref="K68:N68"/>
-    <mergeCell ref="K69:N69"/>
-    <mergeCell ref="K70:N70"/>
-    <mergeCell ref="K76:N76"/>
-    <mergeCell ref="K77:N77"/>
-    <mergeCell ref="K78:N78"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="K74:N74"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="K61:N61"/>
-    <mergeCell ref="K57:N57"/>
-    <mergeCell ref="K58:N58"/>
-    <mergeCell ref="K59:N59"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="K9:N9"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K21:N21"/>
+    <mergeCell ref="K22:N22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="K25:N25"/>
+    <mergeCell ref="K26:N26"/>
+    <mergeCell ref="K27:N27"/>
+    <mergeCell ref="K28:N28"/>
+    <mergeCell ref="K29:N29"/>
+    <mergeCell ref="K30:N30"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="K33:N33"/>
+    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="K35:N35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="K37:N37"/>
+    <mergeCell ref="K38:N38"/>
+    <mergeCell ref="K39:N39"/>
+    <mergeCell ref="K44:N44"/>
+    <mergeCell ref="K45:N45"/>
+    <mergeCell ref="K46:N46"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="K60:N60"/>
+    <mergeCell ref="K49:N49"/>
+    <mergeCell ref="K50:N50"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="K53:N53"/>
     <mergeCell ref="K95:N95"/>
     <mergeCell ref="K96:N96"/>
     <mergeCell ref="K5:N5"/>
@@ -12394,58 +12455,38 @@
     <mergeCell ref="K71:N71"/>
     <mergeCell ref="K72:N72"/>
     <mergeCell ref="K73:N73"/>
+    <mergeCell ref="K94:N94"/>
+    <mergeCell ref="K79:N79"/>
+    <mergeCell ref="K62:N62"/>
+    <mergeCell ref="K89:N89"/>
+    <mergeCell ref="K63:N63"/>
+    <mergeCell ref="K64:N64"/>
+    <mergeCell ref="K65:N65"/>
+    <mergeCell ref="K66:N66"/>
+    <mergeCell ref="K67:N67"/>
+    <mergeCell ref="K68:N68"/>
+    <mergeCell ref="K69:N69"/>
+    <mergeCell ref="K70:N70"/>
+    <mergeCell ref="K76:N76"/>
+    <mergeCell ref="K77:N77"/>
+    <mergeCell ref="K78:N78"/>
+    <mergeCell ref="K74:N74"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="K90:N90"/>
+    <mergeCell ref="K91:N91"/>
+    <mergeCell ref="K92:N92"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="K55:N55"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="K61:N61"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="K58:N58"/>
+    <mergeCell ref="K59:N59"/>
     <mergeCell ref="K40:N40"/>
     <mergeCell ref="K41:N41"/>
     <mergeCell ref="K42:N42"/>
     <mergeCell ref="K43:N43"/>
-    <mergeCell ref="K60:N60"/>
-    <mergeCell ref="K49:N49"/>
-    <mergeCell ref="K50:N50"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="K56:N56"/>
-    <mergeCell ref="K44:N44"/>
-    <mergeCell ref="K45:N45"/>
-    <mergeCell ref="K46:N46"/>
-    <mergeCell ref="K47:N47"/>
-    <mergeCell ref="K48:N48"/>
-    <mergeCell ref="K53:N53"/>
-    <mergeCell ref="K35:N35"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="K37:N37"/>
-    <mergeCell ref="K38:N38"/>
-    <mergeCell ref="K39:N39"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="K33:N33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="K25:N25"/>
-    <mergeCell ref="K26:N26"/>
-    <mergeCell ref="K27:N27"/>
-    <mergeCell ref="K28:N28"/>
-    <mergeCell ref="K29:N29"/>
-    <mergeCell ref="K20:N20"/>
-    <mergeCell ref="K21:N21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="K23:N23"/>
-    <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="K16:N16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="K18:N18"/>
-    <mergeCell ref="K19:N19"/>
-    <mergeCell ref="K14:N14"/>
-    <mergeCell ref="K15:N15"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="K13:N13"/>
-    <mergeCell ref="K9:N9"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="Q1048469:Q1048576 Q5:Q96"/>
@@ -12474,7 +12515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -12491,10 +12532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -12525,8 +12566,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12569,7 +12610,7 @@
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="71" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="43"/>
@@ -12585,7 +12626,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -12609,7 +12650,7 @@
       <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>115</v>
       </c>
       <c r="B8" s="43"/>
@@ -12623,8 +12664,8 @@
       <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="77"/>
+      <c r="B9" s="77" t="s">
         <v>116</v>
       </c>
       <c r="C9" s="43"/>
@@ -12637,7 +12678,7 @@
       <c r="J9" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
+      <c r="A10" s="77"/>
       <c r="B10" s="43"/>
       <c r="C10" s="43" t="s">
         <v>117</v>
@@ -12651,7 +12692,7 @@
       <c r="J10" s="46"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="80"/>
+      <c r="A11" s="77"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
@@ -12663,7 +12704,7 @@
       <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="77" t="s">
         <v>118</v>
       </c>
       <c r="C12" s="43"/>
@@ -12676,12 +12717,12 @@
       <c r="J12" s="46"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="135" t="s">
-        <v>261</v>
+      <c r="C13" s="129" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="77" t="s">
         <v>119</v>
       </c>
       <c r="C14" s="43"/>
@@ -12695,12 +12736,12 @@
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="43" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
-      <c r="F15" s="122"/>
+      <c r="F15" s="118"/>
       <c r="G15" s="43"/>
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
@@ -12718,7 +12759,7 @@
       <c r="J16" s="46"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="77" t="s">
         <v>120</v>
       </c>
       <c r="C17" s="43"/>
@@ -12732,12 +12773,12 @@
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
-      <c r="F18" s="122"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="43"/>
       <c r="H18" s="43"/>
       <c r="I18" s="43"/>
@@ -12745,19 +12786,19 @@
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="43" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
       <c r="E19" s="43"/>
-      <c r="F19" s="122"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="43"/>
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="46"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="77" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="43"/>
@@ -12770,7 +12811,7 @@
       <c r="J20" s="46"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="80"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -12793,7 +12834,7 @@
       <c r="J22" s="46"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="71" t="s">
         <v>114</v>
       </c>
       <c r="B23" s="43"/>
@@ -12807,9 +12848,9 @@
       <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="73"/>
+      <c r="A24" s="71"/>
       <c r="B24" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="43"/>
@@ -12821,24 +12862,24 @@
       <c r="J24" s="46"/>
     </row>
     <row r="25" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="73"/>
+      <c r="A25" s="71"/>
       <c r="B25" s="43"/>
-      <c r="C25" s="187" t="s">
-        <v>314</v>
-      </c>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
+      <c r="C25" s="185" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="185"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="185"/>
       <c r="H25" s="43"/>
       <c r="I25" s="43"/>
       <c r="J25" s="46"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="73"/>
+      <c r="A26" s="71"/>
       <c r="B26" s="43"/>
-      <c r="C26" s="86" t="s">
-        <v>351</v>
+      <c r="C26" s="83" t="s">
+        <v>347</v>
       </c>
       <c r="D26" s="43"/>
       <c r="E26" s="43"/>
@@ -12849,10 +12890,10 @@
       <c r="J26" s="46"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="73"/>
+      <c r="A27" s="71"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D27" s="43"/>
       <c r="E27" s="43"/>
@@ -12863,23 +12904,23 @@
       <c r="J27" s="46"/>
     </row>
     <row r="28" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="73"/>
+      <c r="A28" s="71"/>
       <c r="B28" s="43"/>
-      <c r="C28" s="185" t="s">
-        <v>352</v>
-      </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
+      <c r="C28" s="183" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
       <c r="G28" s="43"/>
       <c r="H28" s="43"/>
       <c r="I28" s="43"/>
       <c r="J28" s="46"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="73"/>
+      <c r="A29" s="71"/>
       <c r="B29" s="43" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12891,9 +12932,9 @@
       <c r="J29" s="46"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="73"/>
+      <c r="A30" s="71"/>
       <c r="B30" s="43"/>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="83" t="s">
         <v>152</v>
       </c>
       <c r="D30" s="43"/>
@@ -12905,14 +12946,14 @@
       <c r="J30" s="46"/>
     </row>
     <row r="31" spans="1:10" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="73"/>
+      <c r="A31" s="71"/>
       <c r="B31" s="43"/>
-      <c r="C31" s="186" t="s">
-        <v>353</v>
-      </c>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
+      <c r="C31" s="184" t="s">
+        <v>349</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
       <c r="G31" s="43"/>
       <c r="H31" s="43"/>
       <c r="I31" s="43"/>
@@ -12920,8 +12961,8 @@
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="42"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
       <c r="D32" s="43"/>
       <c r="E32" s="43"/>
       <c r="F32" s="43"/>
@@ -12931,11 +12972,11 @@
       <c r="J32" s="46"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="73" t="s">
+      <c r="A33" s="71" t="s">
         <v>124</v>
       </c>
       <c r="B33" s="43"/>
-      <c r="C33" s="86"/>
+      <c r="C33" s="83"/>
       <c r="D33" s="43"/>
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
@@ -12945,10 +12986,10 @@
       <c r="J33" s="46"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="86"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="43"/>
       <c r="E34" s="43"/>
       <c r="F34" s="43"/>
@@ -12959,8 +13000,8 @@
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="43"/>
-      <c r="C35" s="86" t="s">
-        <v>302</v>
+      <c r="C35" s="83" t="s">
+        <v>298</v>
       </c>
       <c r="D35" s="43"/>
       <c r="E35" s="43"/>
@@ -12972,17 +13013,17 @@
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="43"/>
-      <c r="C36" s="86"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="43"/>
       <c r="E36" s="43"/>
-      <c r="F36" s="122"/>
+      <c r="F36" s="118"/>
       <c r="G36" s="43"/>
       <c r="H36" s="43"/>
       <c r="I36" s="43"/>
       <c r="J36" s="46"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="77" t="s">
         <v>123</v>
       </c>
       <c r="C37" s="43"/>
@@ -12996,12 +13037,12 @@
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="43"/>
-      <c r="C38" s="86" t="s">
-        <v>302</v>
+      <c r="C38" s="83" t="s">
+        <v>298</v>
       </c>
       <c r="D38" s="43"/>
       <c r="E38" s="43"/>
-      <c r="F38" s="122"/>
+      <c r="F38" s="118"/>
       <c r="G38" s="43"/>
       <c r="H38" s="43"/>
       <c r="I38" s="43"/>
@@ -13009,10 +13050,10 @@
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="43"/>
-      <c r="C39" s="86"/>
+      <c r="C39" s="83"/>
       <c r="D39" s="43"/>
       <c r="E39" s="43"/>
-      <c r="F39" s="122"/>
+      <c r="F39" s="118"/>
       <c r="G39" s="43"/>
       <c r="H39" s="43"/>
       <c r="I39" s="43"/>
@@ -13031,11 +13072,11 @@
       <c r="J40" s="46"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="71" t="s">
         <v>125</v>
       </c>
       <c r="B41" s="43"/>
-      <c r="C41" s="86"/>
+      <c r="C41" s="83"/>
       <c r="D41" s="43"/>
       <c r="E41" s="43"/>
       <c r="F41" s="43"/>
@@ -13045,10 +13086,10 @@
       <c r="J41" s="46"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="80" t="s">
+      <c r="B42" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="86"/>
+      <c r="C42" s="83"/>
       <c r="D42" s="43"/>
       <c r="E42" s="43"/>
       <c r="F42" s="43"/>
@@ -13059,8 +13100,8 @@
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="43"/>
-      <c r="C43" s="86" t="s">
-        <v>305</v>
+      <c r="C43" s="83" t="s">
+        <v>301</v>
       </c>
       <c r="D43" s="43"/>
       <c r="E43" s="43"/>
@@ -13072,17 +13113,17 @@
     </row>
     <row r="44" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="43"/>
-      <c r="C44" s="86"/>
+      <c r="C44" s="83"/>
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
-      <c r="F44" s="122"/>
+      <c r="F44" s="118"/>
       <c r="G44" s="43"/>
       <c r="H44" s="43"/>
       <c r="I44" s="43"/>
       <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="80" t="s">
+      <c r="B45" s="77" t="s">
         <v>123</v>
       </c>
       <c r="C45" s="43"/>
@@ -13096,12 +13137,12 @@
     </row>
     <row r="46" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="43"/>
-      <c r="C46" s="86" t="s">
-        <v>305</v>
+      <c r="C46" s="83" t="s">
+        <v>301</v>
       </c>
       <c r="D46" s="43"/>
       <c r="E46" s="43"/>
-      <c r="F46" s="122"/>
+      <c r="F46" s="118"/>
       <c r="G46" s="43"/>
       <c r="H46" s="43"/>
       <c r="I46" s="43"/>
@@ -13109,10 +13150,10 @@
     </row>
     <row r="47" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="43"/>
-      <c r="C47" s="86"/>
+      <c r="C47" s="83"/>
       <c r="D47" s="43"/>
       <c r="E47" s="43"/>
-      <c r="F47" s="122"/>
+      <c r="F47" s="118"/>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
       <c r="I47" s="43"/>
@@ -13124,18 +13165,18 @@
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
       <c r="E48" s="43"/>
-      <c r="F48" s="122"/>
+      <c r="F48" s="118"/>
       <c r="G48" s="43"/>
       <c r="H48" s="43"/>
       <c r="I48" s="43"/>
       <c r="J48" s="46"/>
     </row>
     <row r="49" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="73" t="s">
+      <c r="A49" s="71" t="s">
         <v>126</v>
       </c>
       <c r="B49" s="43"/>
-      <c r="C49" s="86"/>
+      <c r="C49" s="83"/>
       <c r="D49" s="43"/>
       <c r="E49" s="43"/>
       <c r="F49" s="43"/>
@@ -13145,10 +13186,10 @@
       <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="80" t="s">
+      <c r="B50" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="C50" s="86"/>
+      <c r="C50" s="83"/>
       <c r="D50" s="43"/>
       <c r="E50" s="43"/>
       <c r="F50" s="43"/>
@@ -13158,8 +13199,8 @@
       <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="80"/>
-      <c r="C51" s="86"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="83"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
@@ -13170,7 +13211,7 @@
     </row>
     <row r="52" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="43"/>
-      <c r="C52" s="86"/>
+      <c r="C52" s="83"/>
       <c r="D52" s="43"/>
       <c r="E52" s="43"/>
       <c r="F52" s="43"/>
@@ -13180,7 +13221,7 @@
       <c r="J52" s="46"/>
     </row>
     <row r="53" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="80" t="s">
+      <c r="B53" s="77" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="43"/>
@@ -13193,7 +13234,7 @@
       <c r="J53" s="46"/>
     </row>
     <row r="54" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="80"/>
+      <c r="B54" s="77"/>
       <c r="C54" s="43"/>
       <c r="D54" s="43"/>
       <c r="E54" s="43"/>
@@ -13204,11 +13245,11 @@
       <c r="J54" s="46"/>
     </row>
     <row r="55" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="73" t="s">
+      <c r="A55" s="71" t="s">
         <v>129</v>
       </c>
       <c r="B55" s="43"/>
-      <c r="C55" s="86"/>
+      <c r="C55" s="83"/>
       <c r="D55" s="43"/>
       <c r="E55" s="43"/>
       <c r="F55" s="43"/>
@@ -13218,8 +13259,8 @@
       <c r="J55" s="46"/>
     </row>
     <row r="56" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="80"/>
-      <c r="C56" s="86"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="83"/>
       <c r="D56" s="43"/>
       <c r="E56" s="43"/>
       <c r="F56" s="43"/>
@@ -13230,7 +13271,7 @@
     </row>
     <row r="57" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="43"/>
-      <c r="C57" s="86"/>
+      <c r="C57" s="83"/>
       <c r="D57" s="43"/>
       <c r="E57" s="43"/>
       <c r="F57" s="43"/>
@@ -13240,7 +13281,7 @@
       <c r="J57" s="46"/>
     </row>
     <row r="58" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="80"/>
+      <c r="B58" s="77"/>
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
       <c r="E58" s="43"/>
@@ -13251,7 +13292,7 @@
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="80"/>
+      <c r="B59" s="77"/>
       <c r="C59" s="43"/>
       <c r="D59" s="43"/>
       <c r="E59" s="43"/>
@@ -13284,7 +13325,7 @@
       <c r="J61" s="46"/>
     </row>
     <row r="62" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="80"/>
+      <c r="B62" s="77"/>
       <c r="C62" s="43"/>
       <c r="D62" s="43"/>
       <c r="E62" s="43"/>
@@ -13297,7 +13338,7 @@
     <row r="63" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="42"/>
       <c r="B63" s="43"/>
-      <c r="C63" s="86"/>
+      <c r="C63" s="83"/>
       <c r="D63" s="43"/>
       <c r="E63" s="43"/>
       <c r="F63" s="43"/>
@@ -13309,7 +13350,7 @@
     <row r="64" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="42"/>
       <c r="B64" s="43"/>
-      <c r="C64" s="86"/>
+      <c r="C64" s="83"/>
       <c r="D64" s="43"/>
       <c r="E64" s="43"/>
       <c r="F64" s="43"/>
@@ -13321,7 +13362,7 @@
     <row r="65" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="42"/>
       <c r="B65" s="43"/>
-      <c r="C65" s="86"/>
+      <c r="C65" s="83"/>
       <c r="D65" s="43"/>
       <c r="E65" s="43"/>
       <c r="F65" s="43"/>
@@ -13331,7 +13372,7 @@
       <c r="J65" s="46"/>
     </row>
     <row r="66" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="73"/>
+      <c r="A66" s="71"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
       <c r="D66" s="43"/>
@@ -13343,7 +13384,7 @@
       <c r="J66" s="46"/>
     </row>
     <row r="67" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="80"/>
+      <c r="B67" s="77"/>
       <c r="C67" s="43"/>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
@@ -13365,7 +13406,7 @@
       <c r="J68" s="46"/>
     </row>
     <row r="69" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="80"/>
+      <c r="B69" s="77"/>
       <c r="C69" s="43"/>
       <c r="D69" s="43"/>
       <c r="E69" s="43"/>
@@ -13388,7 +13429,7 @@
       <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="73"/>
+      <c r="A71" s="71"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
       <c r="D71" s="43"/>
@@ -13718,10 +13759,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="147"/>
+      <c r="B1" s="144"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13749,8 +13790,8 @@
       <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="147"/>
-      <c r="B2" s="147"/>
+      <c r="A2" s="144"/>
+      <c r="B2" s="144"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13790,7 +13831,7 @@
       <c r="J4" s="56"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="71" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="43"/>
@@ -13828,7 +13869,7 @@
       <c r="J7" s="46"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>113</v>
       </c>
       <c r="B8" s="43"/>
@@ -14161,14 +14202,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="188" t="s">
+      <c r="B1" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
-      <c r="F1" s="188"/>
-      <c r="G1" s="188"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="16"/>
@@ -14361,11 +14402,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E27" s="189" t="s">
+      <c r="E27" s="187" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="190"/>
-      <c r="G27" s="191"/>
+      <c r="F27" s="188"/>
+      <c r="G27" s="189"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="19" t="s">
